--- a/padel.xlsx
+++ b/padel.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcalle\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDDFA8E-F710-4EC0-BC63-C11A060FEABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="partidos" sheetId="1" r:id="rId1"/>
     <sheet name="clasificacion" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>categoria</t>
   </si>
@@ -32,15 +38,6 @@
     <t>fecha</t>
   </si>
   <si>
-    <t>Mixto</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Femenino</t>
-  </si>
-  <si>
     <t>Laura-Pedro</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>Sara-Elena</t>
   </si>
   <si>
-    <t>6-4 6-3</t>
-  </si>
-  <si>
     <t>7-5 6-7 10-8</t>
   </si>
   <si>
@@ -71,27 +65,12 @@
     <t>4-6 6-4 11-9</t>
   </si>
   <si>
-    <t>6-3 6-4</t>
-  </si>
-  <si>
-    <t>6-4 5-7 10-7</t>
-  </si>
-  <si>
     <t>2025-10-10</t>
   </si>
   <si>
-    <t>2025-10-12</t>
-  </si>
-  <si>
-    <t>2025-10-11</t>
-  </si>
-  <si>
     <t>2025-10-14</t>
   </si>
   <si>
-    <t>2025-10-13</t>
-  </si>
-  <si>
     <t>2025-10-15</t>
   </si>
   <si>
@@ -105,13 +84,46 @@
   </si>
   <si>
     <t>puntos</t>
+  </si>
+  <si>
+    <t>Mediocre alto</t>
+  </si>
+  <si>
+    <t>Mediocre medio</t>
+  </si>
+  <si>
+    <t>Mediocre bajo</t>
+  </si>
+  <si>
+    <t>Luis Merlo-Luis Temes</t>
+  </si>
+  <si>
+    <t>Nuño-Jorge</t>
+  </si>
+  <si>
+    <t>6-4, 6-2</t>
+  </si>
+  <si>
+    <t>Tania-Laura</t>
+  </si>
+  <si>
+    <t>Natalia-Jose Antonio</t>
+  </si>
+  <si>
+    <t>7-5, 1-6, 10-4</t>
+  </si>
+  <si>
+    <t>Cristina-Carmen</t>
+  </si>
+  <si>
+    <t>6-2, 6-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +135,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,24 +181,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -218,7 +250,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -252,6 +284,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -286,9 +319,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -461,14 +495,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,144 +526,150 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -634,12 +681,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -651,12 +698,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -668,12 +715,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>6</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -685,12 +732,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>7</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -702,12 +749,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>7</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>1</v>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcalle\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDDFA8E-F710-4EC0-BC63-C11A060FEABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2495672-3972-4723-B02C-5BB25763A1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="partidos" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>categoria</t>
   </si>
@@ -38,39 +38,6 @@
     <t>fecha</t>
   </si>
   <si>
-    <t>Laura-Pedro</t>
-  </si>
-  <si>
-    <t>Ana-Juan</t>
-  </si>
-  <si>
-    <t>Carlos-Miguel</t>
-  </si>
-  <si>
-    <t>Luis-Rafa</t>
-  </si>
-  <si>
-    <t>Marta-Lucia</t>
-  </si>
-  <si>
-    <t>Sara-Elena</t>
-  </si>
-  <si>
-    <t>7-5 6-7 10-8</t>
-  </si>
-  <si>
-    <t>6-2 6-3</t>
-  </si>
-  <si>
-    <t>4-6 6-4 11-9</t>
-  </si>
-  <si>
-    <t>2025-10-10</t>
-  </si>
-  <si>
-    <t>2025-10-14</t>
-  </si>
-  <si>
     <t>2025-10-15</t>
   </si>
   <si>
@@ -95,9 +62,6 @@
     <t>Mediocre bajo</t>
   </si>
   <si>
-    <t>Luis Merlo-Luis Temes</t>
-  </si>
-  <si>
     <t>Nuño-Jorge</t>
   </si>
   <si>
@@ -117,6 +81,48 @@
   </si>
   <si>
     <t>6-2, 6-0</t>
+  </si>
+  <si>
+    <t>Los luises</t>
+  </si>
+  <si>
+    <t>Fla-Delicatessen</t>
+  </si>
+  <si>
+    <t>Andrés-Alberto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceci Jorge </t>
+  </si>
+  <si>
+    <t>Teresa-Leticia</t>
+  </si>
+  <si>
+    <t>las barbas</t>
+  </si>
+  <si>
+    <t>Alba-Luis</t>
+  </si>
+  <si>
+    <t>Vicente-Victor</t>
+  </si>
+  <si>
+    <t>Salvador-Marta</t>
+  </si>
+  <si>
+    <t>Alberto-Esperanza</t>
+  </si>
+  <si>
+    <t>Mario-Lourdes</t>
+  </si>
+  <si>
+    <t>Miguel Angel-Juanjo</t>
+  </si>
+  <si>
+    <t>Alberto-Andrés</t>
+  </si>
+  <si>
+    <t>Luis-Raquel</t>
   </si>
 </sst>
 </file>
@@ -154,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -177,21 +183,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,120 +537,72 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6">
         <v>45946</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6">
+        <v>45945</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2">
-        <v>45946</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2">
-        <v>45945</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -636,15 +612,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C17" sqref="C17:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -652,118 +629,322 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcalle\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://minhafp-my.sharepoint.com/personal/lourdes_calle_lopez_hacienda_gob_es/Documents/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2495672-3972-4723-B02C-5BB25763A1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{ECB3881A-B006-4B38-9D83-F983A36C2A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15313306-6029-4E7B-9CC4-4816676DC824}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="partidos" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>categoria</t>
   </si>
@@ -41,18 +41,6 @@
     <t>2025-10-15</t>
   </si>
   <si>
-    <t>pareja</t>
-  </si>
-  <si>
-    <t>victorias</t>
-  </si>
-  <si>
-    <t>derrotas</t>
-  </si>
-  <si>
-    <t>puntos</t>
-  </si>
-  <si>
     <t>Mediocre alto</t>
   </si>
   <si>
@@ -123,6 +111,36 @@
   </si>
   <si>
     <t>Luis-Raquel</t>
+  </si>
+  <si>
+    <t>CLASIFICACION</t>
+  </si>
+  <si>
+    <t>PAREJA</t>
+  </si>
+  <si>
+    <t>PUNTOS</t>
+  </si>
+  <si>
+    <t>P. JUGADOS</t>
+  </si>
+  <si>
+    <t>P GANADOS</t>
+  </si>
+  <si>
+    <t>P EMPATADOS</t>
+  </si>
+  <si>
+    <t>P. PERDIDOS</t>
+  </si>
+  <si>
+    <t>SET GANADOS</t>
+  </si>
+  <si>
+    <t>SET PERDIDOS</t>
+  </si>
+  <si>
+    <t>GRUPO</t>
   </si>
 </sst>
 </file>
@@ -209,13 +227,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -552,52 +576,52 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="E2" s="2">
         <v>45946</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
         <v>45945</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -612,340 +636,809 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:E19"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25:AB46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2">
+      <c r="B13" s="5">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>4</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="5">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="5">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="6"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+    </row>
+    <row r="33" spans="23:28" x14ac:dyDescent="0.35">
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+    </row>
+    <row r="34" spans="23:28" x14ac:dyDescent="0.35">
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+    </row>
+    <row r="35" spans="23:28" x14ac:dyDescent="0.35">
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+    </row>
+    <row r="36" spans="23:28" x14ac:dyDescent="0.35">
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+    </row>
+    <row r="37" spans="23:28" x14ac:dyDescent="0.35">
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+    </row>
+    <row r="38" spans="23:28" x14ac:dyDescent="0.35">
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+    </row>
+    <row r="39" spans="23:28" x14ac:dyDescent="0.35">
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+    </row>
+    <row r="40" spans="23:28" x14ac:dyDescent="0.35">
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+    </row>
+    <row r="41" spans="23:28" x14ac:dyDescent="0.35">
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+    </row>
+    <row r="42" spans="23:28" x14ac:dyDescent="0.35">
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+    </row>
+    <row r="43" spans="23:28" x14ac:dyDescent="0.35">
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+    </row>
+    <row r="44" spans="23:28" x14ac:dyDescent="0.35">
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+    </row>
+    <row r="45" spans="23:28" x14ac:dyDescent="0.35">
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+    </row>
+    <row r="46" spans="23:28" x14ac:dyDescent="0.35">
+      <c r="W46" s="6"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://minhafp-my.sharepoint.com/personal/lourdes_calle_lopez_hacienda_gob_es/Documents/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{ECB3881A-B006-4B38-9D83-F983A36C2A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66524B14-7AEF-47D5-946F-A6760E3FD56E}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{ECB3881A-B006-4B38-9D83-F983A36C2A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78F6863A-9763-4F1F-A00C-E775D2EEDF9F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="partidos" sheetId="1" r:id="rId1"/>
+    <sheet name="resultados" sheetId="1" r:id="rId1"/>
     <sheet name="clasificacion" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -212,7 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -526,7 +526,7 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://minhafp-my.sharepoint.com/personal/lourdes_calle_lopez_hacienda_gob_es/Documents/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{ECB3881A-B006-4B38-9D83-F983A36C2A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78F6863A-9763-4F1F-A00C-E775D2EEDF9F}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{ECB3881A-B006-4B38-9D83-F983A36C2A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E7E4E38-9A0C-4FFF-80D6-0A380CA84787}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -134,10 +134,22 @@
     <t>PAREJA2</t>
   </si>
   <si>
-    <t>RESULTADO</t>
-  </si>
-  <si>
     <t>1ª vuelta</t>
+  </si>
+  <si>
+    <t>RESULTADO_P1P2</t>
+  </si>
+  <si>
+    <t>RESULTADO_P2P1</t>
+  </si>
+  <si>
+    <t>4-6, 2-6</t>
+  </si>
+  <si>
+    <t>5-7, 6-1, 4-10</t>
+  </si>
+  <si>
+    <t>2-6, 0-6</t>
   </si>
 </sst>
 </file>
@@ -526,7 +538,7 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,7 +547,8 @@
     <col min="2" max="2" width="16.54296875" customWidth="1"/>
     <col min="3" max="3" width="13.81640625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
@@ -552,7 +565,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
@@ -560,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -571,13 +587,16 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -588,13 +607,16 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -604,6 +626,9 @@
       </c>
       <c r="E4" t="s">
         <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
@@ -625,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://minhafp-my.sharepoint.com/personal/lourdes_calle_lopez_hacienda_gob_es/Documents/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{ECB3881A-B006-4B38-9D83-F983A36C2A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E7E4E38-9A0C-4FFF-80D6-0A380CA84787}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{ECB3881A-B006-4B38-9D83-F983A36C2A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F94258AA-A7EE-4D06-AFB6-F6EF4F9C3800}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultados" sheetId="1" r:id="rId1"/>
@@ -62,15 +62,9 @@
     <t>Andrés-Alberto</t>
   </si>
   <si>
-    <t xml:space="preserve">Ceci Jorge </t>
-  </si>
-  <si>
     <t>Teresa-Leticia</t>
   </si>
   <si>
-    <t>las barbas</t>
-  </si>
-  <si>
     <t>Alba-Luis</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t>Mario-Lourdes</t>
   </si>
   <si>
-    <t>Miguel Angel-Juanjo</t>
-  </si>
-  <si>
     <t>Alberto-Andrés</t>
   </si>
   <si>
@@ -150,6 +141,15 @@
   </si>
   <si>
     <t>2-6, 0-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceci-Jorge </t>
+  </si>
+  <si>
+    <t>Miguel Ángel-Juanjo</t>
+  </si>
+  <si>
+    <t>Las barbas</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -553,22 +553,22 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -588,7 +588,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -608,7 +608,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
@@ -616,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -628,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -670,34 +670,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -836,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://minhafp-my.sharepoint.com/personal/lourdes_calle_lopez_hacienda_gob_es/Documents/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{ECB3881A-B006-4B38-9D83-F983A36C2A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F94258AA-A7EE-4D06-AFB6-F6EF4F9C3800}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{ECB3881A-B006-4B38-9D83-F983A36C2A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BC99674-56C4-4209-923C-1CD2A183AF93}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultados" sheetId="1" r:id="rId1"/>
-    <sheet name="clasificacion" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
+    <sheet name="clasificacion" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="116">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -150,13 +151,232 @@
   </si>
   <si>
     <t>Las barbas</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>CORREO ELECTRONICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fla </t>
+  </si>
+  <si>
+    <t>Delicattesen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge </t>
+  </si>
+  <si>
+    <t>Nuño</t>
+  </si>
+  <si>
+    <t>Luis Merlo</t>
+  </si>
+  <si>
+    <t>Luis Temes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrés </t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Cecilio</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>Leticia</t>
+  </si>
+  <si>
+    <t>Pablo barba</t>
+  </si>
+  <si>
+    <t>Álvaro barba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alba Martín </t>
+  </si>
+  <si>
+    <t>Luis Bonilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vicente Tristancho </t>
+  </si>
+  <si>
+    <t>Victor Puertas</t>
+  </si>
+  <si>
+    <t>Salvador Mazoteras</t>
+  </si>
+  <si>
+    <t>Marta Navarro</t>
+  </si>
+  <si>
+    <t>Alberto  Quesada</t>
+  </si>
+  <si>
+    <t>Esperanza Peinado</t>
+  </si>
+  <si>
+    <t>Jose Antonio  Martín Perez</t>
+  </si>
+  <si>
+    <t>Natalia Fojo Díaz</t>
+  </si>
+  <si>
+    <t>Tania Mora Sanchez</t>
+  </si>
+  <si>
+    <t>Laura Mora Sanchez</t>
+  </si>
+  <si>
+    <t>Cristina de Aragón</t>
+  </si>
+  <si>
+    <t>Carmen Velez</t>
+  </si>
+  <si>
+    <t>Miguel Angel Fernández</t>
+  </si>
+  <si>
+    <t>Juan José</t>
+  </si>
+  <si>
+    <t>Lourdes Calle</t>
+  </si>
+  <si>
+    <t>Mario Navarro</t>
+  </si>
+  <si>
+    <t>Andrés Fernández</t>
+  </si>
+  <si>
+    <t>Alberto Carmona</t>
+  </si>
+  <si>
+    <t>Luis Serrano</t>
+  </si>
+  <si>
+    <t>Raquel Losada</t>
+  </si>
+  <si>
+    <t>javier.vicente.gallego@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>Antonio.fernández.alcalde@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>jorge.larramona.lascorz@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>nuno.dejuan.ledesma@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>luis.merlo.lopezderego@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>luis.temes.castrillon@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>andres.fuente &lt;andres.fuente@tcu.es&gt;</t>
+  </si>
+  <si>
+    <t>alberto.ynzenga.romojaro@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>cecilio.gil.deblas@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>angelinmg@yahoo.es</t>
+  </si>
+  <si>
+    <t>Teresa.cerrajero.castro@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>Leticia.garcia.roman@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>pablo.canoyra.acosta@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>alvaro.celada.miranda@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>alba.martin.nuevo@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>luis.bonilla.zorita@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>vicente.tristancho.ruiz@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>victor.puertas.reig@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>salvador.mazoteras.diaz@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>marta.navarro.cuello@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>alberto.quesada.rodriguez@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>esperanza.peinado.ruiz@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>joseantonio.martin.perez@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>Natalia.fojo.diaz@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>tania.mora.sanchez@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>cristina.dearagon.gomez@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>carmen.velez.trujillo@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>miguelangel.fernandez.aguado@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>juanjose.guardado.cabeza@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>lourdes.calle.lopez@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>mnavarrof@sepg.hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>andres.fernandez.ramon@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>albertomiguel.carmona.serrano@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>luis.serrano.alonso@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>raquel.losada.munoz@hacienda.gob.es</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +394,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,10 +433,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -227,8 +456,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -647,10 +881,637 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840EF8B6-2060-4710-8A5E-7B870EE5709F}">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" customWidth="1"/>
+    <col min="4" max="4" width="45.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D33" r:id="rId1" xr:uid="{F4AAC485-0A9D-47F7-B62C-F71D7AC46CF4}"/>
+    <hyperlink ref="D32" r:id="rId2" xr:uid="{D7DC56D1-3480-4D90-9A20-2FA68FDC86F6}"/>
+    <hyperlink ref="D31" r:id="rId3" xr:uid="{888248F0-0C2C-4045-9D8E-76DBF9D0E51D}"/>
+    <hyperlink ref="D25" r:id="rId4" xr:uid="{253D8BA7-5EF4-4A3D-8588-815E4B39882E}"/>
+    <hyperlink ref="D26" r:id="rId5" xr:uid="{EE3A1385-52B8-420C-95B4-1BE3181348C5}"/>
+    <hyperlink ref="D17" r:id="rId6" xr:uid="{4D23FE0D-EF0D-4A8C-8BD9-45D7C32FF537}"/>
+    <hyperlink ref="D23" r:id="rId7" xr:uid="{99B37895-011D-4ADF-AE04-02E4A1D5502E}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{8566945B-B313-4731-B31B-A2BE0FB1B1FE}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{D65B1A6C-3BA4-49CB-8480-A3750BDD66ED}"/>
+    <hyperlink ref="D3" r:id="rId10" xr:uid="{FA25E733-1530-4D28-B02B-DD8C69751EC9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://minhafp-my.sharepoint.com/personal/lourdes_calle_lopez_hacienda_gob_es/Documents/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="8_{ECB3881A-B006-4B38-9D83-F983A36C2A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BC99674-56C4-4209-923C-1CD2A183AF93}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="8_{ECB3881A-B006-4B38-9D83-F983A36C2A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8A3EF4E-A30D-4DE1-8F8E-742F3711BA91}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultados" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
+    <sheet name="participantes" sheetId="3" r:id="rId2"/>
     <sheet name="clasificacion" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -437,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -456,10 +456,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -882,10 +880,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840EF8B6-2060-4710-8A5E-7B870EE5709F}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -896,7 +894,7 @@
     <col min="4" max="4" width="45.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -910,585 +908,506 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" t="s">
         <v>84</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" t="s">
         <v>85</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" t="s">
         <v>89</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" t="s">
         <v>90</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" t="s">
         <v>93</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" t="s">
         <v>94</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" t="s">
         <v>98</v>
       </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" t="s">
         <v>99</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" t="s">
         <v>100</v>
       </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" t="s">
         <v>101</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" t="s">
         <v>102</v>
       </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" t="s">
         <v>103</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" t="s">
         <v>105</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" t="s">
         <v>106</v>
       </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" t="s">
         <v>108</v>
       </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" t="s">
         <v>110</v>
       </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>2</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" t="s">
         <v>112</v>
       </c>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>2</v>
       </c>
       <c r="B36">
         <v>7</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" t="s">
         <v>114</v>
       </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>2</v>
       </c>
       <c r="B37">
         <v>7</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" t="s">
         <v>115</v>
       </c>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://minhafp-my.sharepoint.com/personal/lourdes_calle_lopez_hacienda_gob_es/Documents/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="8_{ECB3881A-B006-4B38-9D83-F983A36C2A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8A3EF4E-A30D-4DE1-8F8E-742F3711BA91}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="8_{ECB3881A-B006-4B38-9D83-F983A36C2A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82C2ADDA-105C-4752-98AC-A1D6763E2C54}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,9 +186,6 @@
     <t>Cecilio</t>
   </si>
   <si>
-    <t>Angel</t>
-  </si>
-  <si>
     <t>Teresa</t>
   </si>
   <si>
@@ -231,12 +228,6 @@
     <t>Natalia Fojo Díaz</t>
   </si>
   <si>
-    <t>Tania Mora Sanchez</t>
-  </si>
-  <si>
-    <t>Laura Mora Sanchez</t>
-  </si>
-  <si>
     <t>Cristina de Aragón</t>
   </si>
   <si>
@@ -285,9 +276,6 @@
     <t>luis.temes.castrillon@hacienda.gob.es</t>
   </si>
   <si>
-    <t>andres.fuente &lt;andres.fuente@tcu.es&gt;</t>
-  </si>
-  <si>
     <t>alberto.ynzenga.romojaro@hacienda.gob.es</t>
   </si>
   <si>
@@ -370,6 +358,18 @@
   </si>
   <si>
     <t>raquel.losada.munoz@hacienda.gob.es</t>
+  </si>
+  <si>
+    <t>andres.fuente@tcu.es</t>
+  </si>
+  <si>
+    <t>Tania Mora Sánchez</t>
+  </si>
+  <si>
+    <t>Laura Mora Sánchez</t>
+  </si>
+  <si>
+    <t>Ángel</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -458,6 +458,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -882,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840EF8B6-2060-4710-8A5E-7B870EE5709F}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -919,7 +920,7 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -933,7 +934,7 @@
         <v>46</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -947,7 +948,7 @@
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -961,7 +962,7 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -975,7 +976,7 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -989,7 +990,7 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1002,8 +1003,8 @@
       <c r="C8" t="s">
         <v>51</v>
       </c>
-      <c r="D8" t="s">
-        <v>87</v>
+      <c r="D8" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1017,7 +1018,7 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1031,7 +1032,7 @@
         <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1042,10 +1043,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1056,10 +1057,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1070,10 +1071,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1084,10 +1085,10 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1098,10 +1099,10 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1112,10 +1113,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1126,10 +1127,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1140,10 +1141,10 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1154,10 +1155,10 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1168,10 +1169,10 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1182,10 +1183,10 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1196,10 +1197,10 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1210,10 +1211,10 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1224,10 +1225,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1238,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1252,10 +1253,10 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1266,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1277,10 +1278,10 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1291,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1305,10 +1306,10 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1319,10 +1320,10 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1333,10 +1334,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1347,10 +1348,10 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1361,10 +1362,10 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1375,10 +1376,10 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1389,10 +1390,10 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1403,10 +1404,10 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1421,6 +1422,7 @@
     <hyperlink ref="D13" r:id="rId8" xr:uid="{8566945B-B313-4731-B31B-A2BE0FB1B1FE}"/>
     <hyperlink ref="D12" r:id="rId9" xr:uid="{D65B1A6C-3BA4-49CB-8480-A3750BDD66ED}"/>
     <hyperlink ref="D3" r:id="rId10" xr:uid="{FA25E733-1530-4D28-B02B-DD8C69751EC9}"/>
+    <hyperlink ref="D8" r:id="rId11" xr:uid="{2F49684F-64EB-4F79-9C56-4F5FD632C7F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -1,30 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lourd\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A298C4A-EE45-407D-96C0-644EA71516C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="resultados" sheetId="1" r:id="rId1"/>
-    <sheet name="listas" sheetId="19" r:id="rId2"/>
-    <sheet name="participantes" sheetId="3" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="20" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="21" r:id="rId5"/>
+    <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
+    <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="clasificacion_auto" sheetId="22" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="23" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -471,13 +464,140 @@
   </si>
   <si>
     <t>Mediocre bajo</t>
+  </si>
+  <si>
+    <t>6-3,6-2</t>
+  </si>
+  <si>
+    <t>3-6,2-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRUPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLASIFICACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAREJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUNTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mediocre alto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los luises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuño-Jorge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fla-Delicatessen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrés-Alberto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceci-Jorge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mediocre bajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tania-Laura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalia-Jose Antonio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristina-Carmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario-Lourdes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel Ángel-Juanjo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto-Andrés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis-Raquel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mediocre medio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teresa-Leticia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las barbas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alba-Luis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vicente-Victor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvador-Marta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto-Esperanza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. JUGADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P GANADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P EMPATADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. PERDIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET GANADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET PERDIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediocre alto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediocre medio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediocre bajo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,10 +611,10 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
@@ -514,13 +634,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -528,7 +644,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -836,24 +952,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="19" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -873,7 +989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -893,7 +1009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -913,7 +1029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -933,13 +1049,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E5" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="V12" s="1"/>
     </row>
   </sheetData>
@@ -973,16 +1106,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -993,7 +1126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1015,7 +1148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1023,77 +1156,77 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="C5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="C6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="C7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="C8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="C9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="C10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="C11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="C12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="C13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="C14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="C15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="C16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="C17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="C18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="C19" t="s">
         <v>101</v>
       </c>
@@ -1105,22 +1238,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1"/>
-    <col min="4" max="4" width="45.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="45.44140625" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1134,11 +1267,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -1148,11 +1281,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -1162,11 +1295,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="s">
@@ -1176,11 +1309,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="s">
@@ -1190,11 +1323,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>3</v>
       </c>
       <c r="C6" t="s">
@@ -1204,11 +1337,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>3</v>
       </c>
       <c r="C7" t="s">
@@ -1218,11 +1351,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>4</v>
       </c>
       <c r="C8" t="s">
@@ -1232,11 +1365,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>4</v>
       </c>
       <c r="C9" t="s">
@@ -1246,11 +1379,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>5</v>
       </c>
       <c r="C10" t="s">
@@ -1260,11 +1393,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
@@ -1274,11 +1407,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="s">
@@ -1288,11 +1421,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
@@ -1302,11 +1435,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
@@ -1316,11 +1449,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="s">
@@ -1330,11 +1463,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" t="s">
         <v>1</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="s">
@@ -1344,11 +1477,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>3</v>
       </c>
       <c r="C17" t="s">
@@ -1358,11 +1491,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>4</v>
       </c>
       <c r="C18" t="s">
@@ -1372,11 +1505,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>4</v>
       </c>
       <c r="C19" t="s">
@@ -1386,11 +1519,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>5</v>
       </c>
       <c r="C20" t="s">
@@ -1400,11 +1533,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>5</v>
       </c>
       <c r="C21" t="s">
@@ -1414,11 +1547,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -1428,11 +1561,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>6</v>
       </c>
       <c r="C23" t="s">
@@ -1442,11 +1575,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -1456,11 +1589,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -1470,11 +1603,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" t="s">
         <v>2</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>2</v>
       </c>
       <c r="C26" t="s">
@@ -1484,22 +1617,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>2</v>
       </c>
       <c r="C27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>3</v>
       </c>
       <c r="C28" t="s">
@@ -1509,11 +1642,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" t="s">
         <v>2</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>3</v>
       </c>
       <c r="C29" t="s">
@@ -1523,11 +1656,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" t="s">
         <v>2</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>4</v>
       </c>
       <c r="C30" t="s">
@@ -1537,11 +1670,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" t="s">
         <v>2</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>4</v>
       </c>
       <c r="C31" t="s">
@@ -1551,11 +1684,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" t="s">
         <v>2</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>5</v>
       </c>
       <c r="C32" t="s">
@@ -1565,11 +1698,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" t="s">
         <v>2</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>5</v>
       </c>
       <c r="C33" t="s">
@@ -1579,11 +1712,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" t="s">
         <v>2</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>6</v>
       </c>
       <c r="C34" t="s">
@@ -1593,11 +1726,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" t="s">
         <v>2</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>6</v>
       </c>
       <c r="C35" t="s">
@@ -1607,11 +1740,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36" t="s">
         <v>2</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>7</v>
       </c>
       <c r="C36" t="s">
@@ -1621,11 +1754,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" t="s">
         <v>2</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>7</v>
       </c>
       <c r="C37" t="s">
@@ -1637,17 +1770,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D33" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D32" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="D31" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="D25" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="D26" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="D17" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="D23" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="D13" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="D3" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="D8" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="D33" r:id="rId1h"/>
+    <hyperlink ref="D32" r:id="rId2h"/>
+    <hyperlink ref="D31" r:id="rId3h"/>
+    <hyperlink ref="D25" r:id="rId4h"/>
+    <hyperlink ref="D26" r:id="rId5h"/>
+    <hyperlink ref="D17" r:id="rId6h"/>
+    <hyperlink ref="D23" r:id="rId7h"/>
+    <hyperlink ref="D13" r:id="rId8h"/>
+    <hyperlink ref="D12" r:id="rId9h"/>
+    <hyperlink ref="D3" r:id="rId10h"/>
+    <hyperlink ref="D8" r:id="rId11h"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1655,1247 +1788,1245 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="H1" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="I1" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2">
+        <v>161</v>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+        <v>162</v>
+      </c>
+      <c r="D2" t="n">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3">
+        <v>161</v>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4">
+        <v>161</v>
+      </c>
+      <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5">
+        <v>161</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6">
+        <v>161</v>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7">
+        <v>167</v>
+      </c>
+      <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7">
+        <v>168</v>
+      </c>
+      <c r="D7" t="n">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>4</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8">
+        <v>167</v>
+      </c>
+      <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9">
+        <v>167</v>
+      </c>
+      <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10">
+        <v>167</v>
+      </c>
+      <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11">
+        <v>167</v>
+      </c>
+      <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12">
+        <v>167</v>
+      </c>
+      <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13">
+        <v>167</v>
+      </c>
+      <c r="B13" t="n">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14">
+        <v>175</v>
+      </c>
+      <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15">
+        <v>175</v>
+      </c>
+      <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16">
+        <v>175</v>
+      </c>
+      <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17">
+        <v>175</v>
+      </c>
+      <c r="B17" t="n">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18">
+        <v>175</v>
+      </c>
+      <c r="B18" t="n">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19">
+        <v>175</v>
+      </c>
+      <c r="B19" t="n">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
+        <v>181</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="F1" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="G1" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="H1" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="I1" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="J1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2">
+        <v>188</v>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+        <v>162</v>
+      </c>
+      <c r="D2" t="n">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3">
+        <v>188</v>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4">
+        <v>188</v>
+      </c>
+      <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5">
+        <v>188</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6">
+        <v>188</v>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7">
+        <v>189</v>
+      </c>
+      <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8">
+        <v>189</v>
+      </c>
+      <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9">
+        <v>189</v>
+      </c>
+      <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10">
+        <v>189</v>
+      </c>
+      <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11">
+        <v>189</v>
+      </c>
+      <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12">
+        <v>189</v>
+      </c>
+      <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13">
+        <v>190</v>
+      </c>
+      <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13">
+        <v>168</v>
+      </c>
+      <c r="D13" t="n">
         <v>6</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>4</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14">
+        <v>190</v>
+      </c>
+      <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15">
+        <v>190</v>
+      </c>
+      <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16">
+        <v>190</v>
+      </c>
+      <c r="B16" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17">
+        <v>190</v>
+      </c>
+      <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18">
+        <v>190</v>
+      </c>
+      <c r="B18" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19">
+        <v>190</v>
+      </c>
+      <c r="B19" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
+        <v>174</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,15 +9,15 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="22" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="23" state="visible" r:id="rId5"/>
+    <sheet name="clasificacion_auto" sheetId="24" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="25" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -464,12 +464,6 @@
   </si>
   <si>
     <t>Mediocre bajo</t>
-  </si>
-  <si>
-    <t>6-3,6-2</t>
-  </si>
-  <si>
-    <t>3-6,2-6</t>
   </si>
   <si>
     <t xml:space="preserve">GRUPO</t>
@@ -956,7 +950,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1050,24 +1044,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" t="s">
-        <v>150</v>
-      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="11">
       <c r="V11" s="1"/>
@@ -1797,45 +1774,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
         <v>151</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>152</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>153</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>154</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>155</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>156</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>157</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>158</v>
-      </c>
-      <c r="I1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
@@ -1861,13 +1838,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>161</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>163</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1893,13 +1870,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1925,13 +1902,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1957,13 +1934,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1989,13 +1966,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -2021,13 +1998,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>167</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>169</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -2053,13 +2030,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -2085,13 +2062,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -2117,13 +2094,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -2149,13 +2126,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -2181,13 +2158,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B13" t="n">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -2213,22 +2190,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2237,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -2245,19 +2222,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
         <v>175</v>
       </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>177</v>
-      </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -2266,24 +2243,24 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2309,13 +2286,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2341,13 +2318,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2373,13 +2350,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B19" t="n">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2419,45 +2396,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
         <v>151</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>152</v>
       </c>
-      <c r="C1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" t="s">
-        <v>154</v>
-      </c>
       <c r="E1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" t="s">
         <v>182</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>183</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>184</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>185</v>
-      </c>
-      <c r="I1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
@@ -2483,13 +2460,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2515,13 +2492,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2547,13 +2524,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2579,13 +2556,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2611,22 +2588,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -2635,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -2643,19 +2620,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2664,24 +2641,24 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -2707,13 +2684,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -2739,13 +2716,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -2771,13 +2748,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -2803,13 +2780,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D13" t="n">
         <v>6</v>
@@ -2835,13 +2812,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2867,13 +2844,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2899,13 +2876,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2931,13 +2908,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2963,13 +2940,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2995,13 +2972,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B19" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lourd\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6919CE9-F85E-47F7-BB05-C5C877C213F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
-    <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="24" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="25" state="visible" r:id="rId5"/>
+    <sheet name="resultados" sheetId="1" r:id="rId1"/>
+    <sheet name="listas" sheetId="19" r:id="rId2"/>
+    <sheet name="participantes" sheetId="3" r:id="rId3"/>
+    <sheet name="clasificacion_auto" sheetId="24" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="25" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="149">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -442,12 +449,6 @@
     <t>P. JUGADOS</t>
   </si>
   <si>
-    <t>P GANADOS</t>
-  </si>
-  <si>
-    <t>P EMPATADOS</t>
-  </si>
-  <si>
     <t>P. PERDIDOS</t>
   </si>
   <si>
@@ -466,132 +467,17 @@
     <t>Mediocre bajo</t>
   </si>
   <si>
-    <t xml:space="preserve">GRUPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLASIFICACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAREJA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUNTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mediocre alto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los luises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuño-Jorge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fla-Delicatessen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrés-Alberto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceci-Jorge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mediocre bajo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tania-Laura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natalia-Jose Antonio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristina-Carmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mario-Lourdes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel Ángel-Juanjo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberto-Andrés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis-Raquel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mediocre medio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teresa-Leticia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las barbas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alba-Luis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vicente-Victor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salvador-Marta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberto-Esperanza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P. JUGADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P GANADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P EMPATADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P. PERDIDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET GANADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET PERDIDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediocre alto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediocre medio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediocre bajo</t>
+    <t>P. GANADOS</t>
+  </si>
+  <si>
+    <t>P. EMPATADOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,10 +491,10 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
@@ -628,9 +514,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -638,7 +528,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -946,24 +836,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="19" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -983,7 +873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1023,7 +913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1043,13 +933,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E5" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="V11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="V12" s="1"/>
     </row>
   </sheetData>
@@ -1083,16 +973,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1103,7 +993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1125,7 +1015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1133,77 +1023,77 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>101</v>
       </c>
@@ -1215,22 +1105,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.21875" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="45.44140625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="45.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1244,11 +1134,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -1258,11 +1148,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -1272,11 +1162,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
@@ -1286,11 +1176,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
@@ -1300,11 +1190,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
@@ -1314,11 +1204,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
@@ -1328,11 +1218,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
@@ -1342,11 +1232,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
@@ -1356,11 +1246,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
@@ -1370,11 +1260,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="s">
@@ -1384,11 +1274,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
@@ -1398,11 +1288,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
@@ -1412,11 +1302,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
@@ -1426,11 +1316,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
@@ -1440,11 +1330,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
@@ -1454,11 +1344,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>3</v>
       </c>
       <c r="C17" t="s">
@@ -1468,11 +1358,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" t="s">
@@ -1482,11 +1372,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>4</v>
       </c>
       <c r="C19" t="s">
@@ -1496,11 +1386,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" t="s">
@@ -1510,11 +1400,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>5</v>
       </c>
       <c r="C21" t="s">
@@ -1524,11 +1414,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -1538,11 +1428,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>6</v>
       </c>
       <c r="C23" t="s">
@@ -1552,11 +1442,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -1566,11 +1456,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -1580,11 +1470,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
@@ -1594,22 +1484,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
@@ -1619,11 +1509,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
@@ -1633,11 +1523,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>4</v>
       </c>
       <c r="C30" t="s">
@@ -1647,11 +1537,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>4</v>
       </c>
       <c r="C31" t="s">
@@ -1661,11 +1551,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>5</v>
       </c>
       <c r="C32" t="s">
@@ -1675,11 +1565,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>5</v>
       </c>
       <c r="C33" t="s">
@@ -1689,11 +1579,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>6</v>
       </c>
       <c r="C34" t="s">
@@ -1703,11 +1593,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>6</v>
       </c>
       <c r="C35" t="s">
@@ -1717,11 +1607,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>7</v>
       </c>
       <c r="C36" t="s">
@@ -1731,11 +1621,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>7</v>
       </c>
       <c r="C37" t="s">
@@ -1747,17 +1637,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D33" r:id="rId1h"/>
-    <hyperlink ref="D32" r:id="rId2h"/>
-    <hyperlink ref="D31" r:id="rId3h"/>
-    <hyperlink ref="D25" r:id="rId4h"/>
-    <hyperlink ref="D26" r:id="rId5h"/>
-    <hyperlink ref="D17" r:id="rId6h"/>
-    <hyperlink ref="D23" r:id="rId7h"/>
-    <hyperlink ref="D13" r:id="rId8h"/>
-    <hyperlink ref="D12" r:id="rId9h"/>
-    <hyperlink ref="D3" r:id="rId10h"/>
-    <hyperlink ref="D8" r:id="rId11h"/>
+    <hyperlink ref="D33" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D32" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D31" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D25" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D26" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="D17" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="D23" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="D3" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="D8" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1765,1245 +1655,1250 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="E1" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="G1" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="H1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="I1" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="J1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" t="n">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" t="n">
+        <v>119</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>121</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" t="n">
+        <v>119</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>122</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" t="n">
+        <v>119</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>123</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" t="n">
+        <v>119</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>124</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" t="n">
+        <v>125</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" t="n">
+        <v>126</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>4</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" t="n">
+        <v>125</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>127</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" t="n">
+        <v>125</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>128</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" t="n">
+        <v>125</v>
+      </c>
+      <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>129</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" t="n">
+        <v>125</v>
+      </c>
+      <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>130</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" t="n">
+        <v>125</v>
+      </c>
+      <c r="B12">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>131</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" t="n">
+        <v>125</v>
+      </c>
+      <c r="B13">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>132</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" t="n">
+        <v>133</v>
+      </c>
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>134</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" t="n">
+        <v>133</v>
+      </c>
+      <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>135</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B16" t="n">
+        <v>133</v>
+      </c>
+      <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>136</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" t="n">
+        <v>133</v>
+      </c>
+      <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>137</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" t="n">
+        <v>133</v>
+      </c>
+      <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>138</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" t="n">
+        <v>133</v>
+      </c>
+      <c r="B19">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+        <v>139</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="H1" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="I1" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="J1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" t="n">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" t="n">
+        <v>144</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>121</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" t="n">
+        <v>144</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>122</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" t="n">
+        <v>144</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>123</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" t="n">
+        <v>144</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>124</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" t="n">
+        <v>145</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>134</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" t="n">
+        <v>145</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>135</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B9" t="n">
+        <v>145</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>136</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" t="n">
+        <v>145</v>
+      </c>
+      <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>137</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" t="n">
+        <v>145</v>
+      </c>
+      <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>138</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" t="n">
+        <v>145</v>
+      </c>
+      <c r="B12">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>139</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B13" t="n">
+        <v>146</v>
+      </c>
+      <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" t="n">
+        <v>126</v>
+      </c>
+      <c r="D13">
         <v>6</v>
       </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>4</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B14" t="n">
+        <v>146</v>
+      </c>
+      <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>127</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" t="n">
+        <v>146</v>
+      </c>
+      <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>128</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" t="n">
+        <v>146</v>
+      </c>
+      <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>129</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B17" t="n">
+        <v>146</v>
+      </c>
+      <c r="B17">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>130</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" t="n">
+        <v>146</v>
+      </c>
+      <c r="B18">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>131</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" t="n">
+        <v>146</v>
+      </c>
+      <c r="B19">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+        <v>132</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/padel.xlsx
+++ b/padel.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lourd\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6919CE9-F85E-47F7-BB05-C5C877C213F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="resultados" sheetId="1" r:id="rId1"/>
-    <sheet name="listas" sheetId="19" r:id="rId2"/>
-    <sheet name="participantes" sheetId="3" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="24" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="25" r:id="rId5"/>
+    <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
+    <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="clasificacion_auto" sheetId="30" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="31" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="32" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -428,12 +422,12 @@
     <t>mediocre medio</t>
   </si>
   <si>
+    <t>Las barbas</t>
+  </si>
+  <si>
     <t>Teresa-Leticia</t>
   </si>
   <si>
-    <t>Las barbas</t>
-  </si>
-  <si>
     <t>Alba-Luis</t>
   </si>
   <si>
@@ -449,6 +443,12 @@
     <t>P. JUGADOS</t>
   </si>
   <si>
+    <t>P. GANADOS</t>
+  </si>
+  <si>
+    <t>P. EMPATADOS</t>
+  </si>
+  <si>
     <t>P. PERDIDOS</t>
   </si>
   <si>
@@ -467,17 +467,156 @@
     <t>Mediocre bajo</t>
   </si>
   <si>
-    <t>P. GANADOS</t>
-  </si>
-  <si>
-    <t>P. EMPATADOS</t>
+    <t xml:space="preserve">GRUPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLASIFICACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAREJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUNTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mediocre alto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los luises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuño-Jorge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fla-Delicatessen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrés-Alberto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceci-Jorge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mediocre bajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tania-Laura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalia-Jose Antonio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristina-Carmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario-Lourdes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel Ángel-Juanjo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto-Andrés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis-Raquel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mediocre medio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las barbas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teresa-Leticia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alba-Luis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vicente-Victor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvador-Marta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto-Esperanza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. JUGADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. GANADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. EMPATADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. PERDIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET GANADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET PERDIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediocre alto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediocre medio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediocre bajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VUELTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESULTADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARTIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUNTOS_ACUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1ª vuelta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pierde</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,10 +630,10 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
@@ -514,13 +653,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -528,7 +663,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -836,24 +971,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="19" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -873,7 +1008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -893,7 +1028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -913,7 +1048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -933,13 +1068,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="E5" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="V12" s="1"/>
     </row>
   </sheetData>
@@ -973,16 +1108,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -993,7 +1128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1015,7 +1150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1023,77 +1158,77 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="C5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="C6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="C7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="C8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="C9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="C10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="C11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="C12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="C13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="C14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="C15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="C16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="C17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="C18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="C19" t="s">
         <v>101</v>
       </c>
@@ -1105,22 +1240,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1"/>
-    <col min="4" max="4" width="45.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="45.44140625" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1134,11 +1269,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -1148,11 +1283,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -1162,11 +1297,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="s">
@@ -1176,11 +1311,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="s">
@@ -1190,11 +1325,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>3</v>
       </c>
       <c r="C6" t="s">
@@ -1204,11 +1339,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>3</v>
       </c>
       <c r="C7" t="s">
@@ -1218,11 +1353,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>4</v>
       </c>
       <c r="C8" t="s">
@@ -1232,11 +1367,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>4</v>
       </c>
       <c r="C9" t="s">
@@ -1246,11 +1381,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>5</v>
       </c>
       <c r="C10" t="s">
@@ -1260,11 +1395,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
@@ -1274,11 +1409,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="s">
@@ -1288,11 +1423,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
@@ -1302,11 +1437,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
@@ -1316,11 +1451,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="s">
@@ -1330,11 +1465,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" t="s">
         <v>1</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="s">
@@ -1344,11 +1479,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>3</v>
       </c>
       <c r="C17" t="s">
@@ -1358,11 +1493,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>4</v>
       </c>
       <c r="C18" t="s">
@@ -1372,11 +1507,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>4</v>
       </c>
       <c r="C19" t="s">
@@ -1386,11 +1521,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>5</v>
       </c>
       <c r="C20" t="s">
@@ -1400,11 +1535,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>5</v>
       </c>
       <c r="C21" t="s">
@@ -1414,11 +1549,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -1428,11 +1563,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>6</v>
       </c>
       <c r="C23" t="s">
@@ -1442,11 +1577,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -1456,11 +1591,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -1470,11 +1605,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" t="s">
         <v>2</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>2</v>
       </c>
       <c r="C26" t="s">
@@ -1484,22 +1619,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>2</v>
       </c>
       <c r="C27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>3</v>
       </c>
       <c r="C28" t="s">
@@ -1509,11 +1644,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" t="s">
         <v>2</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>3</v>
       </c>
       <c r="C29" t="s">
@@ -1523,11 +1658,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" t="s">
         <v>2</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>4</v>
       </c>
       <c r="C30" t="s">
@@ -1537,11 +1672,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" t="s">
         <v>2</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>4</v>
       </c>
       <c r="C31" t="s">
@@ -1551,11 +1686,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" t="s">
         <v>2</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>5</v>
       </c>
       <c r="C32" t="s">
@@ -1565,11 +1700,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" t="s">
         <v>2</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>5</v>
       </c>
       <c r="C33" t="s">
@@ -1579,11 +1714,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" t="s">
         <v>2</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>6</v>
       </c>
       <c r="C34" t="s">
@@ -1593,11 +1728,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" t="s">
         <v>2</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>6</v>
       </c>
       <c r="C35" t="s">
@@ -1607,11 +1742,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36" t="s">
         <v>2</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>7</v>
       </c>
       <c r="C36" t="s">
@@ -1621,11 +1756,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" t="s">
         <v>2</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>7</v>
       </c>
       <c r="C37" t="s">
@@ -1637,17 +1772,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D33" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D32" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="D31" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="D25" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="D26" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="D17" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="D23" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="D13" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="D3" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="D8" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="D33" r:id="rId1h"/>
+    <hyperlink ref="D32" r:id="rId2h"/>
+    <hyperlink ref="D31" r:id="rId3h"/>
+    <hyperlink ref="D25" r:id="rId4h"/>
+    <hyperlink ref="D26" r:id="rId5h"/>
+    <hyperlink ref="D17" r:id="rId6h"/>
+    <hyperlink ref="D23" r:id="rId7h"/>
+    <hyperlink ref="D13" r:id="rId8h"/>
+    <hyperlink ref="D12" r:id="rId9h"/>
+    <hyperlink ref="D3" r:id="rId10h"/>
+    <hyperlink ref="D8" r:id="rId11h"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1655,1250 +1790,1546 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="H1" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="I1" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2">
+        <v>159</v>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+        <v>160</v>
+      </c>
+      <c r="D2" t="n">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3">
+        <v>159</v>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4">
+        <v>159</v>
+      </c>
+      <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5">
+        <v>159</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6">
+        <v>159</v>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7">
+        <v>165</v>
+      </c>
+      <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7">
+        <v>166</v>
+      </c>
+      <c r="D7" t="n">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>4</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8">
+        <v>165</v>
+      </c>
+      <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9">
+        <v>165</v>
+      </c>
+      <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10">
+        <v>165</v>
+      </c>
+      <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11">
+        <v>165</v>
+      </c>
+      <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12">
+        <v>165</v>
+      </c>
+      <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13">
+        <v>165</v>
+      </c>
+      <c r="B13" t="n">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14">
+        <v>173</v>
+      </c>
+      <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15">
+        <v>173</v>
+      </c>
+      <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16">
+        <v>173</v>
+      </c>
+      <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17">
+        <v>173</v>
+      </c>
+      <c r="B17" t="n">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18">
+        <v>173</v>
+      </c>
+      <c r="B18" t="n">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19">
+        <v>173</v>
+      </c>
+      <c r="B19" t="n">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
+        <v>179</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="E1" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="H1" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="I1" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="J1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2">
+        <v>186</v>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+        <v>160</v>
+      </c>
+      <c r="D2" t="n">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3">
+        <v>186</v>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4">
+        <v>186</v>
+      </c>
+      <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5">
+        <v>186</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6">
+        <v>186</v>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7">
+        <v>187</v>
+      </c>
+      <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8">
+        <v>187</v>
+      </c>
+      <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9">
+        <v>187</v>
+      </c>
+      <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10">
+        <v>187</v>
+      </c>
+      <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11">
+        <v>187</v>
+      </c>
+      <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12">
+        <v>187</v>
+      </c>
+      <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13">
+        <v>188</v>
+      </c>
+      <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13">
+        <v>166</v>
+      </c>
+      <c r="D13" t="n">
         <v>6</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>4</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14">
+        <v>188</v>
+      </c>
+      <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15">
+        <v>188</v>
+      </c>
+      <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16">
+        <v>188</v>
+      </c>
+      <c r="B16" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17">
+        <v>188</v>
+      </c>
+      <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18">
+        <v>188</v>
+      </c>
+      <c r="B18" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19">
+        <v>188</v>
+      </c>
+      <c r="B19" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
+        <v>172</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>45949</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45949</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45949</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45949</v>
+      </c>
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>45949</v>
+      </c>
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>45949</v>
+      </c>
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,16 +9,16 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="30" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="31" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="32" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="33" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="34" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="35" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -465,6 +465,36 @@
   </si>
   <si>
     <t>Mediocre bajo</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>VUELTA</t>
+  </si>
+  <si>
+    <t>RESULTADO</t>
+  </si>
+  <si>
+    <t>PARTIDO</t>
+  </si>
+  <si>
+    <t>PUNTOS_ACUM</t>
+  </si>
+  <si>
+    <t>1ª vuelta</t>
+  </si>
+  <si>
+    <t>Gana</t>
+  </si>
+  <si>
+    <t>Pierde</t>
+  </si>
+  <si>
+    <t>6-2,6-3</t>
+  </si>
+  <si>
+    <t>2-6,3-6</t>
   </si>
   <si>
     <t xml:space="preserve">GRUPO</t>
@@ -975,7 +1005,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1069,7 +1099,24 @@
       </c>
     </row>
     <row r="5">
-      <c r="E5" s="1"/>
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="11">
       <c r="V11" s="1"/>
@@ -1799,45 +1846,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="H1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="J1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
@@ -1863,13 +1910,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1895,13 +1942,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1927,13 +1974,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1959,13 +2006,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1991,31 +2038,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -2023,13 +2070,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -2055,13 +2102,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -2087,19 +2134,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2108,24 +2155,24 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -2151,13 +2198,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -2183,13 +2230,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B13" t="n">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -2215,13 +2262,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2247,13 +2294,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2279,13 +2326,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2311,13 +2358,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2343,13 +2390,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2375,13 +2422,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B19" t="n">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2421,45 +2468,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="H1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="I1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="J1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
@@ -2485,13 +2532,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2517,13 +2564,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2549,13 +2596,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2581,13 +2628,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2613,13 +2660,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -2645,13 +2692,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -2677,13 +2724,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -2709,13 +2756,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -2741,13 +2788,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -2773,13 +2820,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -2805,31 +2852,31 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D13" t="n">
+        <v>9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>6</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -2837,13 +2884,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2869,13 +2916,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2901,19 +2948,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -2922,24 +2969,24 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2965,13 +3012,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2997,13 +3044,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B19" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -3043,43 +3090,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="H1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="I1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="J1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="K1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="L1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="M1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2">
@@ -3087,16 +3134,16 @@
         <v>45949</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -3128,16 +3175,16 @@
         <v>45949</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3169,16 +3216,16 @@
         <v>45949</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -3210,16 +3257,16 @@
         <v>45949</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -3251,16 +3298,16 @@
         <v>45949</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -3292,16 +3339,16 @@
         <v>45949</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3325,6 +3372,88 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>45949</v>
+      </c>
+      <c r="B8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>45949</v>
+      </c>
+      <c r="B9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="33" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="34" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="35" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="36" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="37" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="38" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -489,12 +489,6 @@
   </si>
   <si>
     <t>Pierde</t>
-  </si>
-  <si>
-    <t>6-2,6-3</t>
-  </si>
-  <si>
-    <t>2-6,3-6</t>
   </si>
   <si>
     <t xml:space="preserve">GRUPO</t>
@@ -1004,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1099,24 +1093,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F5" t="s">
-        <v>158</v>
-      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="11">
       <c r="V11" s="1"/>
@@ -1846,45 +1823,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" t="s">
         <v>159</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>160</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>161</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>162</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>163</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>164</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>165</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>166</v>
-      </c>
-      <c r="I1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
@@ -1910,13 +1887,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>169</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>171</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1942,13 +1919,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1974,13 +1951,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2006,13 +1983,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2038,22 +2015,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -2062,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -2070,13 +2047,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>175</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>177</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -2102,13 +2079,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -2134,19 +2111,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2155,24 +2132,24 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -2198,13 +2175,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -2230,13 +2207,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B13" t="n">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -2262,13 +2239,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2294,13 +2271,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
         <v>183</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>185</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2326,13 +2303,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2358,13 +2335,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2390,13 +2367,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2422,13 +2399,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B19" t="n">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2468,45 +2445,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" t="s">
         <v>159</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>160</v>
       </c>
-      <c r="C1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" t="s">
-        <v>162</v>
-      </c>
       <c r="E1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" t="s">
         <v>190</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>191</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>192</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>193</v>
-      </c>
-      <c r="I1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
@@ -2532,13 +2509,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2564,13 +2541,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2596,13 +2573,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2628,13 +2605,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2660,13 +2637,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -2692,13 +2669,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -2724,13 +2701,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -2756,13 +2733,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -2788,13 +2765,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -2820,13 +2797,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -2852,22 +2829,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -2876,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -2884,13 +2861,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2916,13 +2893,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2948,19 +2925,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -2969,24 +2946,24 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -3012,13 +2989,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -3044,13 +3021,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B19" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -3084,49 +3061,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" t="s">
         <v>199</v>
       </c>
-      <c r="B1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" t="s">
         <v>200</v>
       </c>
-      <c r="D1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>201</v>
       </c>
-      <c r="F1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>162</v>
       </c>
-      <c r="I1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M1" t="s">
         <v>164</v>
-      </c>
-      <c r="L1" t="s">
-        <v>165</v>
-      </c>
-      <c r="M1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2">
@@ -3134,16 +3111,16 @@
         <v>45949</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -3175,16 +3152,16 @@
         <v>45949</v>
       </c>
       <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" t="s">
         <v>169</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>204</v>
-      </c>
-      <c r="D3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E3" t="s">
-        <v>206</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3216,16 +3193,16 @@
         <v>45949</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -3257,16 +3234,16 @@
         <v>45949</v>
       </c>
       <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" t="s">
         <v>175</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>204</v>
-      </c>
-      <c r="D5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" t="s">
-        <v>206</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -3298,16 +3275,16 @@
         <v>45949</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -3339,17 +3316,17 @@
         <v>45949</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" t="s">
         <v>204</v>
       </c>
-      <c r="D7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" t="s">
-        <v>206</v>
-      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
@@ -3372,88 +3349,6 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>45949</v>
-      </c>
-      <c r="B8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>45949</v>
-      </c>
-      <c r="B9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lourd\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71051410-6593-4309-B816-163D9B24142C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCAC437-8B66-456F-8D52-64082BD0E50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultados" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t xml:space="preserve">Vicente Tristancho </t>
   </si>
   <si>
-    <t>Victor Puertas</t>
-  </si>
-  <si>
     <t>Salvador Mazoteras</t>
   </si>
   <si>
@@ -517,6 +514,9 @@
   </si>
   <si>
     <t>Jose Antonio Martín Perez</t>
+  </si>
+  <si>
+    <t>Víctor Puertas</t>
   </si>
 </sst>
 </file>
@@ -987,16 +987,16 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
         <v>98</v>
       </c>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
         <v>105</v>
-      </c>
-      <c r="F5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -1007,16 +1007,16 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
         <v>107</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>108</v>
-      </c>
-      <c r="F6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -1027,16 +1027,16 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s">
         <v>110</v>
-      </c>
-      <c r="F7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1123,47 +1123,47 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1183,22 +1183,22 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1211,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,7 +1248,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1262,7 +1262,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1276,7 +1276,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1318,7 +1318,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1332,7 +1332,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1360,7 +1360,7 @@
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1371,10 +1371,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1388,7 +1388,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1402,7 +1402,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1416,7 +1416,7 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1458,7 +1458,7 @@
         <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1472,7 +1472,7 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1483,10 +1483,10 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1497,10 +1497,10 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1511,10 +1511,10 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1525,10 +1525,10 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1539,10 +1539,10 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1553,10 +1553,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1567,10 +1567,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1581,10 +1581,10 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1595,7 +1595,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1606,10 +1606,10 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1620,10 +1620,10 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1634,10 +1634,10 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1648,10 +1648,10 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1662,10 +1662,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1676,10 +1676,10 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1690,10 +1690,10 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1704,10 +1704,10 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1718,10 +1718,10 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1732,10 +1732,10 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1767,45 +1767,45 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>114</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>116</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>120</v>
-      </c>
-      <c r="J1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>122</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>123</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -1831,13 +1831,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1863,13 +1863,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1895,13 +1895,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1927,13 +1927,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>128</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>129</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1991,13 +1991,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2023,13 +2023,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2055,13 +2055,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2087,13 +2087,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2119,13 +2119,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2151,13 +2151,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2183,13 +2183,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>136</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>137</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -2215,13 +2215,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2247,13 +2247,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2279,13 +2279,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2311,13 +2311,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2343,13 +2343,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2389,45 +2389,45 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>114</v>
       </c>
-      <c r="D1" t="s">
-        <v>115</v>
-      </c>
       <c r="E1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
         <v>143</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>144</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>145</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>146</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>147</v>
-      </c>
-      <c r="J1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -2453,13 +2453,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -2485,13 +2485,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2517,13 +2517,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2549,13 +2549,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2581,13 +2581,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -2613,13 +2613,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2645,13 +2645,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2677,13 +2677,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2709,13 +2709,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2741,13 +2741,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2773,13 +2773,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -2805,13 +2805,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2837,13 +2837,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2869,13 +2869,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2901,13 +2901,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2933,13 +2933,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2965,13 +2965,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3005,49 +3005,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
         <v>152</v>
       </c>
-      <c r="B1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
         <v>153</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
         <v>114</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>154</v>
       </c>
-      <c r="F1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>155</v>
       </c>
-      <c r="J1" t="s">
-        <v>156</v>
-      </c>
       <c r="K1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" t="s">
         <v>117</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>118</v>
-      </c>
-      <c r="M1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3055,16 +3055,16 @@
         <v>45950</v>
       </c>
       <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
         <v>122</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>157</v>
-      </c>
-      <c r="D2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" t="s">
-        <v>158</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -3096,16 +3096,16 @@
         <v>45950</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3137,16 +3137,16 @@
         <v>45950</v>
       </c>
       <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
         <v>128</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>157</v>
-      </c>
-      <c r="D4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" t="s">
-        <v>158</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -3178,16 +3178,16 @@
         <v>45950</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3219,16 +3219,16 @@
         <v>45950</v>
       </c>
       <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" t="s">
         <v>128</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>157</v>
-      </c>
-      <c r="D6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" t="s">
-        <v>158</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -3260,16 +3260,16 @@
         <v>45950</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3301,16 +3301,16 @@
         <v>45950</v>
       </c>
       <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" t="s">
         <v>136</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>157</v>
-      </c>
-      <c r="D8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" t="s">
-        <v>158</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -3342,16 +3342,16 @@
         <v>45950</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3383,16 +3383,16 @@
         <v>45950</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" t="s">
         <v>157</v>
-      </c>
-      <c r="D10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" t="s">
-        <v>158</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -3424,16 +3424,16 @@
         <v>45950</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3465,16 +3465,16 @@
         <v>45950</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3506,16 +3506,16 @@
         <v>45950</v>
       </c>
       <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" t="s">
         <v>122</v>
       </c>
-      <c r="C13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" t="s">
-        <v>123</v>
-      </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13">
         <v>1</v>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="historial_partidos" sheetId="41" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion_auto" sheetId="42" state="visible" r:id="rId5"/>
-    <sheet name="clasificacion" sheetId="43" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="44" state="visible" r:id="rId5"/>
+    <sheet name="clasificacion" sheetId="45" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -314,9 +314,231 @@
     <t>Teresa-Leticia</t>
   </si>
   <si>
+    <t>Alba-Luis</t>
+  </si>
+  <si>
+    <t>Vicente-Victor</t>
+  </si>
+  <si>
+    <t>Salvador-Marta</t>
+  </si>
+  <si>
+    <t>Alberto-Esperanza</t>
+  </si>
+  <si>
+    <t>2ª vuelta</t>
+  </si>
+  <si>
+    <t>6-2,6-1</t>
+  </si>
+  <si>
+    <t>2-6,1-6</t>
+  </si>
+  <si>
+    <t>Ceci-Ángel</t>
+  </si>
+  <si>
+    <t>6-2,6-0</t>
+  </si>
+  <si>
+    <t>2-6,0-6</t>
+  </si>
+  <si>
+    <t>4-6,7-6</t>
+  </si>
+  <si>
+    <t>6-4,6-7</t>
+  </si>
+  <si>
+    <t>GRUPO</t>
+  </si>
+  <si>
+    <t>PAREJA</t>
+  </si>
+  <si>
+    <t>PUNTOS</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>mediocre alto</t>
+  </si>
+  <si>
+    <t>Los luises</t>
+  </si>
+  <si>
+    <t>Fla-Delicatessen</t>
+  </si>
+  <si>
+    <t>Andrés-Alberto</t>
+  </si>
+  <si>
+    <t>Ceci-Ángel</t>
+  </si>
+  <si>
+    <t>Nuño-Jorge</t>
+  </si>
+  <si>
+    <t>mediocre bajo</t>
+  </si>
+  <si>
+    <t>Tania-Laura</t>
+  </si>
+  <si>
+    <t>Natalia-Jose Antonio</t>
+  </si>
+  <si>
+    <t>Cristina-Carmen</t>
+  </si>
+  <si>
+    <t>mediocre medio</t>
+  </si>
+  <si>
+    <t>Teresa-Leticia</t>
+  </si>
+  <si>
     <t>Las barbas</t>
   </si>
   <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>VUELTA</t>
+  </si>
+  <si>
+    <t>RESULTADO</t>
+  </si>
+  <si>
+    <t>PARTIDO</t>
+  </si>
+  <si>
+    <t>PUNTOS_ACUM</t>
+  </si>
+  <si>
+    <t>1ª vuelta</t>
+  </si>
+  <si>
+    <t>Gana</t>
+  </si>
+  <si>
+    <t>Pierde</t>
+  </si>
+  <si>
+    <t>Empata</t>
+  </si>
+  <si>
+    <t>Carmen Vélez</t>
+  </si>
+  <si>
+    <t>Juan José Guardado</t>
+  </si>
+  <si>
+    <t>Jose Antonio Martín Perez</t>
+  </si>
+  <si>
+    <t>Víctor Puertas</t>
+  </si>
+  <si>
+    <t>GRUPO</t>
+  </si>
+  <si>
+    <t>CLASIFICACION</t>
+  </si>
+  <si>
+    <t>PAREJA</t>
+  </si>
+  <si>
+    <t>PUNTOS</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>JG</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>mediocre alto</t>
+  </si>
+  <si>
+    <t>Los luises</t>
+  </si>
+  <si>
+    <t>Fla-Delicatessen</t>
+  </si>
+  <si>
+    <t>Andrés-Alberto</t>
+  </si>
+  <si>
+    <t>Nuño-Jorge</t>
+  </si>
+  <si>
+    <t>Ceci-Ángel</t>
+  </si>
+  <si>
+    <t>mediocre bajo</t>
+  </si>
+  <si>
+    <t>Tania-Laura</t>
+  </si>
+  <si>
+    <t>Natalia-Jose Antonio</t>
+  </si>
+  <si>
+    <t>Cristina-Carmen</t>
+  </si>
+  <si>
+    <t>Mario-Lourdes</t>
+  </si>
+  <si>
+    <t>Miguel Ángel-Juanjo</t>
+  </si>
+  <si>
+    <t>Alberto-Andrés</t>
+  </si>
+  <si>
+    <t>Luis-Raquel</t>
+  </si>
+  <si>
+    <t>mediocre medio</t>
+  </si>
+  <si>
+    <t>Teresa-Leticia</t>
+  </si>
+  <si>
+    <t>Las barbas</t>
+  </si>
+  <si>
     <t>Alba-Luis</t>
   </si>
   <si>
@@ -329,130 +551,13 @@
     <t>Alberto-Esperanza</t>
   </si>
   <si>
-    <t>2ª vuelta</t>
-  </si>
-  <si>
-    <t>6-2,6-1</t>
-  </si>
-  <si>
-    <t>2-6,1-6</t>
-  </si>
-  <si>
-    <t>Ceci-Ángel</t>
-  </si>
-  <si>
-    <t>6-2,6-0</t>
-  </si>
-  <si>
-    <t>2-6,0-6</t>
-  </si>
-  <si>
-    <t>4-6,7-6</t>
-  </si>
-  <si>
-    <t>6-4,6-7</t>
-  </si>
-  <si>
-    <t>GRUPO</t>
-  </si>
-  <si>
-    <t>CLASIFICACION</t>
-  </si>
-  <si>
-    <t>PAREJA</t>
-  </si>
-  <si>
-    <t>PUNTOS</t>
-  </si>
-  <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>mediocre alto</t>
-  </si>
-  <si>
-    <t>Los luises</t>
-  </si>
-  <si>
-    <t>Fla-Delicatessen</t>
-  </si>
-  <si>
-    <t>Andrés-Alberto</t>
-  </si>
-  <si>
-    <t>Ceci-Ángel</t>
-  </si>
-  <si>
-    <t>Nuño-Jorge</t>
-  </si>
-  <si>
-    <t>mediocre bajo</t>
-  </si>
-  <si>
-    <t>Tania-Laura</t>
-  </si>
-  <si>
-    <t>Natalia-Jose Antonio</t>
-  </si>
-  <si>
-    <t>Cristina-Carmen</t>
-  </si>
-  <si>
-    <t>Mario-Lourdes</t>
-  </si>
-  <si>
-    <t>Miguel Ángel-Juanjo</t>
-  </si>
-  <si>
-    <t>Alberto-Andrés</t>
-  </si>
-  <si>
-    <t>Luis-Raquel</t>
-  </si>
-  <si>
-    <t>mediocre medio</t>
-  </si>
-  <si>
-    <t>Teresa-Leticia</t>
-  </si>
-  <si>
-    <t>Las barbas</t>
-  </si>
-  <si>
-    <t>Alba-Luis</t>
-  </si>
-  <si>
-    <t>Vicente-Victor</t>
-  </si>
-  <si>
-    <t>Salvador-Marta</t>
-  </si>
-  <si>
-    <t>Alberto-Esperanza</t>
-  </si>
-  <si>
     <t>P. JUGADOS</t>
   </si>
   <si>
-    <t>P. GANADOS</t>
-  </si>
-  <si>
-    <t>P. EMPATADOS</t>
+    <t>P GANADOS</t>
+  </si>
+  <si>
+    <t>P EMPATADOS</t>
   </si>
   <si>
     <t>P. PERDIDOS</t>
@@ -464,6 +569,12 @@
     <t>SET PERDIDOS</t>
   </si>
   <si>
+    <t>JUEGOS GANADOS</t>
+  </si>
+  <si>
+    <t>JUEGOS PERDIDOS</t>
+  </si>
+  <si>
     <t>Mediocre alto</t>
   </si>
   <si>
@@ -473,43 +584,7 @@
     <t>Mediocre bajo</t>
   </si>
   <si>
-    <t>FECHA</t>
-  </si>
-  <si>
-    <t>VUELTA</t>
-  </si>
-  <si>
-    <t>RESULTADO</t>
-  </si>
-  <si>
-    <t>PARTIDO</t>
-  </si>
-  <si>
-    <t>PUNTOS_ACUM</t>
-  </si>
-  <si>
-    <t>1ª vuelta</t>
-  </si>
-  <si>
-    <t>Gana</t>
-  </si>
-  <si>
-    <t>Pierde</t>
-  </si>
-  <si>
-    <t>Empata</t>
-  </si>
-  <si>
-    <t>Carmen Vélez</t>
-  </si>
-  <si>
-    <t>Juan José Guardado</t>
-  </si>
-  <si>
-    <t>Jose Antonio Martín Perez</t>
-  </si>
-  <si>
-    <t>Víctor Puertas</t>
+    <t>Los sin barba</t>
   </si>
   <si>
     <t xml:space="preserve">GRUPO</t>
@@ -1007,18 +1082,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="19" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1112,13 +1187,13 @@
         <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s">
         <v>104</v>
-      </c>
-      <c r="F5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6">
@@ -1132,13 +1207,13 @@
         <v>91</v>
       </c>
       <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
         <v>106</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>107</v>
-      </c>
-      <c r="F6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7">
@@ -1155,10 +1230,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" t="s">
         <v>109</v>
-      </c>
-      <c r="F7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -1202,7 +1277,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1234,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1255,7 +1330,7 @@
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
@@ -1265,27 +1340,27 @@
     </row>
     <row r="8">
       <c r="C8" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
@@ -1333,16 +1408,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="45.44140625" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1605,7 +1680,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
         <v>69</v>
@@ -1675,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="D24" t="s">
         <v>74</v>
@@ -1742,7 +1817,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>78</v>
@@ -1770,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>80</v>
@@ -1889,43 +1964,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>114</v>
       </c>
-      <c r="I1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" t="s">
-        <v>117</v>
-      </c>
       <c r="M1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2">
@@ -1933,16 +2008,16 @@
         <v>45950</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -1974,16 +2049,16 @@
         <v>45950</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2015,16 +2090,16 @@
         <v>45950</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -2056,16 +2131,16 @@
         <v>45950</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -2097,16 +2172,16 @@
         <v>45950</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -2138,16 +2213,16 @@
         <v>45950</v>
       </c>
       <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" t="s">
         <v>127</v>
       </c>
-      <c r="C7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" t="s">
-        <v>130</v>
-      </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2179,16 +2254,16 @@
         <v>45950</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -2220,16 +2295,16 @@
         <v>45950</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2261,16 +2336,16 @@
         <v>45950</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -2302,16 +2377,16 @@
         <v>45950</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2343,16 +2418,16 @@
         <v>45950</v>
       </c>
       <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" t="s">
         <v>121</v>
       </c>
-      <c r="C12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" t="s">
-        <v>124</v>
-      </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -2384,16 +2459,16 @@
         <v>45950</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -2436,51 +2511,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="H1" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="I1" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="J1" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="K1" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="L1" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -2512,13 +2587,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
@@ -2550,13 +2625,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -2588,13 +2663,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2626,13 +2701,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2664,13 +2739,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -2702,13 +2777,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -2740,13 +2815,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -2778,13 +2853,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -2816,13 +2891,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -2854,13 +2929,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -2892,13 +2967,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="B13" t="n">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -2930,13 +3005,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
@@ -2968,19 +3043,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -2989,30 +3064,30 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -3044,13 +3119,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -3082,13 +3157,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -3120,13 +3195,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="B19" t="n">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -3172,51 +3247,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="F1" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="G1" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="H1" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="I1" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="J1" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="K1" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="L1" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -3248,13 +3323,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
@@ -3286,13 +3361,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -3324,13 +3399,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3362,13 +3437,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3400,13 +3475,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
@@ -3438,19 +3513,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -3459,30 +3534,30 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3514,13 +3589,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3552,13 +3627,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3590,13 +3665,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3628,13 +3703,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="D13" t="n">
         <v>6</v>
@@ -3666,13 +3741,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -3704,13 +3779,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -3742,13 +3817,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -3780,13 +3855,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -3818,13 +3893,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -3856,13 +3931,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="B19" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -10,15 +10,15 @@
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="historial_partidos" sheetId="41" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion_auto" sheetId="44" state="visible" r:id="rId5"/>
-    <sheet name="clasificacion" sheetId="45" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="48" state="visible" r:id="rId5"/>
+    <sheet name="clasificacion" sheetId="49" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -410,9 +410,6 @@
     <t>Teresa-Leticia</t>
   </si>
   <si>
-    <t>Las barbas</t>
-  </si>
-  <si>
     <t>FECHA</t>
   </si>
   <si>
@@ -452,6 +449,9 @@
     <t>Víctor Puertas</t>
   </si>
   <si>
+    <t>Los sin barba</t>
+  </si>
+  <si>
     <t>GRUPO</t>
   </si>
   <si>
@@ -536,9 +536,6 @@
     <t>Teresa-Leticia</t>
   </si>
   <si>
-    <t>Las barbas</t>
-  </si>
-  <si>
     <t>Alba-Luis</t>
   </si>
   <si>
@@ -584,9 +581,6 @@
     <t>Mediocre bajo</t>
   </si>
   <si>
-    <t>Los sin barba</t>
-  </si>
-  <si>
     <t xml:space="preserve">GRUPO</t>
   </si>
   <si>
@@ -671,7 +665,7 @@
     <t xml:space="preserve">Teresa-Leticia</t>
   </si>
   <si>
-    <t xml:space="preserve">Las barbas</t>
+    <t xml:space="preserve">Los sin barba</t>
   </si>
   <si>
     <t xml:space="preserve">Alba-Luis</t>
@@ -1187,7 +1181,7 @@
         <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>103</v>
@@ -1277,7 +1271,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1340,7 +1334,7 @@
     </row>
     <row r="8">
       <c r="C8" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9">
@@ -1680,7 +1674,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19" t="s">
         <v>69</v>
@@ -1750,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s">
         <v>74</v>
@@ -1817,7 +1811,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>78</v>
@@ -1845,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>80</v>
@@ -1958,25 +1952,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
         <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
         <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
         <v>116</v>
@@ -1988,10 +1984,10 @@
         <v>112</v>
       </c>
       <c r="I1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" t="s">
         <v>134</v>
-      </c>
-      <c r="J1" t="s">
-        <v>135</v>
       </c>
       <c r="K1" t="s">
         <v>113</v>
@@ -2011,13 +2007,13 @@
         <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
         <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -2052,13 +2048,13 @@
         <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
         <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2093,13 +2089,13 @@
         <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
         <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -2134,13 +2130,13 @@
         <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
         <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -2175,13 +2171,13 @@
         <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
         <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -2216,13 +2212,13 @@
         <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
         <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2257,13 +2253,13 @@
         <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
         <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -2298,13 +2294,13 @@
         <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2339,13 +2335,13 @@
         <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
         <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -2380,13 +2376,13 @@
         <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
         <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2421,13 +2417,13 @@
         <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
         <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -2462,13 +2458,13 @@
         <v>118</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
         <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -2511,51 +2507,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
         <v>189</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>190</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>191</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>192</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>193</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>194</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>195</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>196</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>197</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>198</v>
-      </c>
-      <c r="K1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -2587,13 +2583,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>201</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>203</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
@@ -2625,13 +2621,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -2663,13 +2659,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2701,13 +2697,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2739,13 +2735,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -2777,13 +2773,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>207</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>209</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -2815,13 +2811,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -2853,13 +2849,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -2891,13 +2887,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -2929,13 +2925,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -2967,13 +2963,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B13" t="n">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3005,13 +3001,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
@@ -3043,19 +3039,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
         <v>215</v>
       </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>217</v>
-      </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -3064,30 +3060,30 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -3119,13 +3115,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -3157,13 +3153,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -3195,13 +3191,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B19" t="n">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -3247,51 +3243,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
         <v>189</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>190</v>
       </c>
-      <c r="C1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" t="s">
-        <v>192</v>
-      </c>
       <c r="E1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" t="s">
         <v>222</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>223</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>224</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>225</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>226</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>227</v>
-      </c>
-      <c r="K1" t="s">
-        <v>228</v>
-      </c>
-      <c r="L1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -3323,13 +3319,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
@@ -3361,13 +3357,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -3399,13 +3395,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3437,13 +3433,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3475,13 +3471,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
@@ -3513,19 +3509,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -3534,30 +3530,30 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3589,13 +3585,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3627,13 +3623,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3665,13 +3661,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3703,13 +3699,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D13" t="n">
         <v>6</v>
@@ -3741,13 +3737,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -3779,13 +3775,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -3817,13 +3813,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -3855,13 +3851,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -3893,13 +3889,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -3931,13 +3927,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B19" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,16 +9,16 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="historial_partidos" sheetId="41" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion_auto" sheetId="50" state="visible" r:id="rId5"/>
-    <sheet name="clasificacion" sheetId="51" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="52" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="53" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="54" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -720,6 +720,39 @@
   </si>
   <si>
     <t xml:space="preserve">Mediocre bajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. GANADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. EMPATADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VUELTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESULTADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARTIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUNTOS_ACUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1ª vuelta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pierde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empata</t>
   </si>
 </sst>
 </file>
@@ -1981,548 +2014,735 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="F1" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="G1" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="H1" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="I1" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="J1" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="K1" t="s">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="L1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" t="s">
-        <v>115</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B2" t="s">
-        <v>118</v>
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" t="s">
-        <v>136</v>
+        <v>203</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>3</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
       <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24</v>
+      </c>
+      <c r="L2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" t="n">
         <v>3</v>
       </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" t="s">
-        <v>137</v>
+      <c r="E3" t="n">
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B4" t="s">
-        <v>124</v>
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" t="s">
-        <v>136</v>
+        <v>205</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>30</v>
+      </c>
+      <c r="L7" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15</v>
+      </c>
+      <c r="L8" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="C9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" t="n">
         <v>3</v>
       </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>12</v>
+      </c>
+      <c r="L14" t="n">
         <v>3</v>
       </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" t="n">
         <v>3</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>12</v>
+      </c>
+      <c r="L15" t="n">
         <v>3</v>
       </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" t="n">
         <v>3</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="C16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" t="n">
         <v>3</v>
       </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="C17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" t="n">
         <v>4</v>
       </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="C18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2548,33 +2768,27 @@
         <v>193</v>
       </c>
       <c r="E1" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="G1" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="H1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="I1" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="J1" t="s">
-        <v>199</v>
-      </c>
-      <c r="K1" t="s">
-        <v>200</v>
-      </c>
-      <c r="L1" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2603,16 +2817,10 @@
       <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
-        <v>24</v>
-      </c>
-      <c r="L2" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2641,16 +2849,10 @@
       <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="n">
-        <v>12</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2679,16 +2881,10 @@
       <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
-        <v>11</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2717,16 +2913,10 @@
       <c r="J5" t="n">
         <v>2</v>
       </c>
-      <c r="K5" t="n">
-        <v>6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2755,31 +2945,25 @@
       <c r="J6" t="n">
         <v>2</v>
       </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -2788,71 +2972,59 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>30</v>
-      </c>
-      <c r="L7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>15</v>
-      </c>
-      <c r="L8" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2861,36 +3033,30 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2899,36 +3065,30 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2937,30 +3097,24 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -2981,33 +3135,27 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -3016,103 +3164,85 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>12</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>12</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -3133,30 +3263,24 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -3165,36 +3289,30 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -3203,30 +3321,24 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -3247,12 +3359,6 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3272,724 +3378,617 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" t="s">
         <v>190</v>
       </c>
-      <c r="B1" t="s">
-        <v>191</v>
-      </c>
       <c r="C1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" t="s">
         <v>192</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" t="s">
         <v>193</v>
       </c>
-      <c r="E1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H1" t="s">
-        <v>226</v>
-      </c>
       <c r="I1" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J1" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="K1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="L1" t="s">
-        <v>230</v>
+        <v>196</v>
+      </c>
+      <c r="M1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="A2" s="1" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
       </c>
       <c r="C2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" t="s">
         <v>203</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
         <v>4</v>
       </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" t="s">
+        <v>242</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>3</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24</v>
-      </c>
-      <c r="L2" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
         <v>3</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>12</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>12</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" t="s">
         <v>220</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>209</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>30</v>
-      </c>
-      <c r="L13" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>15</v>
-      </c>
-      <c r="L14" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
+      <c r="E15" t="s">
+        <v>243</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>233</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>233</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>233</v>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>233</v>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="52" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="53" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="54" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="55" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="56" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="57" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -350,15 +350,42 @@
     <t>6-4,6-7</t>
   </si>
   <si>
+    <t>Carmen Vélez</t>
+  </si>
+  <si>
+    <t>Juan José Guardado</t>
+  </si>
+  <si>
+    <t>Jose Antonio Martín Perez</t>
+  </si>
+  <si>
+    <t>Víctor Puertas</t>
+  </si>
+  <si>
+    <t>Los sin barba</t>
+  </si>
+  <si>
+    <t>6-0,6-3</t>
+  </si>
+  <si>
+    <t>0-6,3-6</t>
+  </si>
+  <si>
     <t>GRUPO</t>
   </si>
   <si>
+    <t>CLASIFICACION</t>
+  </si>
+  <si>
     <t>PAREJA</t>
   </si>
   <si>
     <t>PUNTOS</t>
   </si>
   <si>
+    <t>PJ</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
@@ -374,6 +401,12 @@
     <t>SP</t>
   </si>
   <si>
+    <t>JG</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
     <t>mediocre alto</t>
   </si>
   <si>
@@ -386,12 +419,12 @@
     <t>Andrés-Alberto</t>
   </si>
   <si>
+    <t>Nuño-Jorge</t>
+  </si>
+  <si>
     <t>Ceci-Ángel</t>
   </si>
   <si>
-    <t>Nuño-Jorge</t>
-  </si>
-  <si>
     <t>mediocre bajo</t>
   </si>
   <si>
@@ -404,12 +437,66 @@
     <t>Cristina-Carmen</t>
   </si>
   <si>
+    <t>Mario-Lourdes</t>
+  </si>
+  <si>
+    <t>Miguel Ángel-Juanjo</t>
+  </si>
+  <si>
+    <t>Alberto-Andrés</t>
+  </si>
+  <si>
+    <t>Luis-Raquel</t>
+  </si>
+  <si>
     <t>mediocre medio</t>
   </si>
   <si>
+    <t>Salvador-Marta</t>
+  </si>
+  <si>
     <t>Teresa-Leticia</t>
   </si>
   <si>
+    <t>Alba-Luis</t>
+  </si>
+  <si>
+    <t>Alberto-Esperanza</t>
+  </si>
+  <si>
+    <t>Los sin barba</t>
+  </si>
+  <si>
+    <t>Vicente-Victor</t>
+  </si>
+  <si>
+    <t>P. JUGADOS</t>
+  </si>
+  <si>
+    <t>P. PERDIDOS</t>
+  </si>
+  <si>
+    <t>SET GANADOS</t>
+  </si>
+  <si>
+    <t>SET PERDIDOS</t>
+  </si>
+  <si>
+    <t>Mediocre alto</t>
+  </si>
+  <si>
+    <t>Mediocre medio</t>
+  </si>
+  <si>
+    <t>Mediocre bajo</t>
+  </si>
+  <si>
+    <t>P. GANADOS</t>
+  </si>
+  <si>
+    <t>P. EMPATADOS</t>
+  </si>
+  <si>
     <t>FECHA</t>
   </si>
   <si>
@@ -437,157 +524,16 @@
     <t>Empata</t>
   </si>
   <si>
-    <t>Carmen Vélez</t>
-  </si>
-  <si>
-    <t>Juan José Guardado</t>
-  </si>
-  <si>
-    <t>Jose Antonio Martín Perez</t>
-  </si>
-  <si>
-    <t>Víctor Puertas</t>
-  </si>
-  <si>
-    <t>Los sin barba</t>
-  </si>
-  <si>
-    <t>GRUPO</t>
-  </si>
-  <si>
-    <t>CLASIFICACION</t>
-  </si>
-  <si>
-    <t>PAREJA</t>
-  </si>
-  <si>
-    <t>PUNTOS</t>
-  </si>
-  <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>JG</t>
-  </si>
-  <si>
-    <t>JP</t>
-  </si>
-  <si>
-    <t>mediocre alto</t>
-  </si>
-  <si>
-    <t>Los luises</t>
-  </si>
-  <si>
-    <t>Fla-Delicatessen</t>
-  </si>
-  <si>
-    <t>Andrés-Alberto</t>
-  </si>
-  <si>
-    <t>Nuño-Jorge</t>
-  </si>
-  <si>
-    <t>Ceci-Ángel</t>
-  </si>
-  <si>
-    <t>mediocre bajo</t>
-  </si>
-  <si>
-    <t>Tania-Laura</t>
-  </si>
-  <si>
-    <t>Natalia-Jose Antonio</t>
-  </si>
-  <si>
-    <t>Cristina-Carmen</t>
-  </si>
-  <si>
-    <t>Mario-Lourdes</t>
-  </si>
-  <si>
-    <t>Miguel Ángel-Juanjo</t>
-  </si>
-  <si>
-    <t>Alberto-Andrés</t>
-  </si>
-  <si>
-    <t>Luis-Raquel</t>
-  </si>
-  <si>
-    <t>mediocre medio</t>
-  </si>
-  <si>
-    <t>Teresa-Leticia</t>
-  </si>
-  <si>
-    <t>Los sin barba</t>
-  </si>
-  <si>
-    <t>Alba-Luis</t>
-  </si>
-  <si>
-    <t>Vicente-Victor</t>
-  </si>
-  <si>
-    <t>Salvador-Marta</t>
-  </si>
-  <si>
-    <t>Alberto-Esperanza</t>
-  </si>
-  <si>
-    <t>P. JUGADOS</t>
-  </si>
-  <si>
-    <t>P GANADOS</t>
-  </si>
-  <si>
-    <t>P EMPATADOS</t>
-  </si>
-  <si>
-    <t>P. PERDIDOS</t>
-  </si>
-  <si>
-    <t>SET GANADOS</t>
-  </si>
-  <si>
-    <t>SET PERDIDOS</t>
-  </si>
-  <si>
-    <t>JUEGOS GANADOS</t>
-  </si>
-  <si>
-    <t>JUEGOS PERDIDOS</t>
-  </si>
-  <si>
-    <t>Mediocre alto</t>
-  </si>
-  <si>
-    <t>Mediocre medio</t>
-  </si>
-  <si>
-    <t>Mediocre bajo</t>
-  </si>
-  <si>
-    <t>6-0,6-3</t>
-  </si>
-  <si>
-    <t>0-6,3-6</t>
+    <t>6-3,6-4</t>
+  </si>
+  <si>
+    <t>3-6,4-6</t>
+  </si>
+  <si>
+    <t>6-3,7-5</t>
+  </si>
+  <si>
+    <t>3-6,5-7</t>
   </si>
   <si>
     <t xml:space="preserve">GRUPO</t>
@@ -650,21 +596,21 @@
     <t xml:space="preserve">Tania-Laura</t>
   </si>
   <si>
+    <t xml:space="preserve">Alberto-Andrés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristina-Carmen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Natalia-Jose Antonio</t>
   </si>
   <si>
-    <t xml:space="preserve">Cristina-Carmen</t>
+    <t xml:space="preserve">Miguel Ángel-Juanjo</t>
   </si>
   <si>
     <t xml:space="preserve">Mario-Lourdes</t>
   </si>
   <si>
-    <t xml:space="preserve">Miguel Ángel-Juanjo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberto-Andrés</t>
-  </si>
-  <si>
     <t xml:space="preserve">Luis-Raquel</t>
   </si>
   <si>
@@ -692,10 +638,10 @@
     <t xml:space="preserve">P. JUGADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">P GANADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P EMPATADOS</t>
+    <t xml:space="preserve">P. GANADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. EMPATADOS</t>
   </si>
   <si>
     <t xml:space="preserve">P. PERDIDOS</t>
@@ -707,12 +653,6 @@
     <t xml:space="preserve">SET PERDIDOS</t>
   </si>
   <si>
-    <t xml:space="preserve">JUEGOS GANADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUEGOS PERDIDOS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mediocre alto</t>
   </si>
   <si>
@@ -720,12 +660,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mediocre bajo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P. GANADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P. EMPATADOS</t>
   </si>
   <si>
     <t xml:space="preserve">FECHA</t>
@@ -1119,17 +1053,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="19" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1223,7 +1157,7 @@
         <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>103</v>
@@ -1286,10 +1220,50 @@
         <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>189</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="11">
@@ -1396,7 +1370,7 @@
     </row>
     <row r="8">
       <c r="C8" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
@@ -1470,10 +1444,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="45.44140625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1736,7 +1710,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
         <v>69</v>
@@ -1806,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
         <v>74</v>
@@ -1873,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>78</v>
@@ -1901,7 +1875,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>80</v>
@@ -2020,51 +1994,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="E1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="G1" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="H1" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="I1" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="J1" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="K1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="L1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -2096,13 +2070,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
@@ -2134,13 +2108,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -2172,13 +2146,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2210,13 +2184,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2248,13 +2222,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -2286,60 +2260,60 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L8" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -2348,33 +2322,33 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2383,36 +2357,36 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2421,36 +2395,36 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2459,30 +2433,30 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B13" t="n">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -2514,13 +2488,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
@@ -2552,13 +2526,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -2590,13 +2564,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2628,13 +2602,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B17" t="n">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2666,13 +2640,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B18" t="n">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2704,13 +2678,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B19" t="n">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2756,45 +2730,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="E1" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="F1" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="G1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="H1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="I1" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="J1" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -2820,13 +2794,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D3" t="n">
         <v>3</v>
@@ -2852,13 +2826,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -2884,13 +2858,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2916,13 +2890,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2948,13 +2922,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
@@ -2980,13 +2954,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D8" t="n">
         <v>3</v>
@@ -3012,13 +2986,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3044,13 +3018,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B10" t="n">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3076,13 +3050,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B11" t="n">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3108,13 +3082,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B12" t="n">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3140,13 +3114,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="D13" t="n">
         <v>6</v>
@@ -3172,54 +3146,54 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -3228,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
@@ -3236,19 +3210,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -3257,30 +3231,30 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -3289,30 +3263,30 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -3321,24 +3295,24 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B19" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -3378,60 +3352,60 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="C1" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="E1" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="F1" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="G1" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="H1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="J1" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="K1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="L1" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="M1" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -3460,19 +3434,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3501,19 +3475,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -3542,19 +3516,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -3583,19 +3557,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -3624,19 +3598,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="E7" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3665,19 +3639,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D8" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="E8" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -3706,19 +3680,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B9" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" t="s">
         <v>221</v>
-      </c>
-      <c r="E9" t="s">
-        <v>243</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -3747,19 +3721,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D10" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="E10" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -3788,19 +3762,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -3829,19 +3803,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="E12" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -3870,19 +3844,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C13" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="E13" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -3911,19 +3885,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="E14" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -3952,42 +3926,206 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C15" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" t="s">
         <v>220</v>
       </c>
-      <c r="E15" t="s">
-        <v>243</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,9 +9,9 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="55" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="56" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="57" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="58" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="59" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="60" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -371,6 +371,18 @@
     <t>0-6,3-6</t>
   </si>
   <si>
+    <t>6-3,6-4</t>
+  </si>
+  <si>
+    <t>3-6,4-6</t>
+  </si>
+  <si>
+    <t>6-3,7-5</t>
+  </si>
+  <si>
+    <t>3-6,5-7</t>
+  </si>
+  <si>
     <t>GRUPO</t>
   </si>
   <si>
@@ -431,21 +443,21 @@
     <t>Tania-Laura</t>
   </si>
   <si>
+    <t>Alberto-Andrés</t>
+  </si>
+  <si>
+    <t>Cristina-Carmen</t>
+  </si>
+  <si>
     <t>Natalia-Jose Antonio</t>
   </si>
   <si>
-    <t>Cristina-Carmen</t>
+    <t>Miguel Ángel-Juanjo</t>
   </si>
   <si>
     <t>Mario-Lourdes</t>
   </si>
   <si>
-    <t>Miguel Ángel-Juanjo</t>
-  </si>
-  <si>
-    <t>Alberto-Andrés</t>
-  </si>
-  <si>
     <t>Luis-Raquel</t>
   </si>
   <si>
@@ -473,6 +485,12 @@
     <t>P. JUGADOS</t>
   </si>
   <si>
+    <t>P. GANADOS</t>
+  </si>
+  <si>
+    <t>P. EMPATADOS</t>
+  </si>
+  <si>
     <t>P. PERDIDOS</t>
   </si>
   <si>
@@ -491,12 +509,6 @@
     <t>Mediocre bajo</t>
   </si>
   <si>
-    <t>P. GANADOS</t>
-  </si>
-  <si>
-    <t>P. EMPATADOS</t>
-  </si>
-  <si>
     <t>FECHA</t>
   </si>
   <si>
@@ -524,18 +536,6 @@
     <t>Empata</t>
   </si>
   <si>
-    <t>6-3,6-4</t>
-  </si>
-  <si>
-    <t>3-6,4-6</t>
-  </si>
-  <si>
-    <t>6-3,7-5</t>
-  </si>
-  <si>
-    <t>3-6,5-7</t>
-  </si>
-  <si>
     <t xml:space="preserve">GRUPO</t>
   </si>
   <si>
@@ -599,10 +599,10 @@
     <t xml:space="preserve">Alberto-Andrés</t>
   </si>
   <si>
+    <t xml:space="preserve">Natalia-Jose Antonio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cristina-Carmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natalia-Jose Antonio</t>
   </si>
   <si>
     <t xml:space="preserve">Miguel Ángel-Juanjo</t>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1240,10 +1240,10 @@
         <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="F9" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -1260,13 +1260,31 @@
         <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="F10" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
       <c r="V11" s="1"/>
     </row>
     <row r="12">
@@ -2322,13 +2340,13 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="L9" t="n">
         <v>20</v>
@@ -2345,13 +2363,13 @@
         <v>194</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2360,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
         <v>2</v>
@@ -2369,7 +2387,7 @@
         <v>15</v>
       </c>
       <c r="L10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -2462,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2471,19 +2489,19 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -3202,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
@@ -3219,13 +3237,13 @@
         <v>194</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -3234,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>2</v>
@@ -3318,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -3327,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3525,7 +3543,7 @@
         <v>219</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E5" t="s">
         <v>221</v>
@@ -3607,7 +3625,7 @@
         <v>219</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
         <v>221</v>
@@ -4058,7 +4076,7 @@
         <v>219</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E18" t="s">
         <v>220</v>
@@ -4126,6 +4144,88 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -1,31 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcalle\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC974D1D-3617-4BB7-A03C-BCE5917F211A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="resultados" sheetId="1" r:id="rId1"/>
-    <sheet name="listas" sheetId="19" r:id="rId2"/>
-    <sheet name="participantes" sheetId="3" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="58" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="59" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="60" r:id="rId6"/>
+    <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
+    <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="clasificacion_auto" sheetId="61" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="62" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="63" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -541,13 +534,179 @@
   </si>
   <si>
     <t>Empata</t>
+  </si>
+  <si>
+    <t>6-0,6-0</t>
+  </si>
+  <si>
+    <t>0-6,0-6</t>
+  </si>
+  <si>
+    <t>6-0,6-4</t>
+  </si>
+  <si>
+    <t>0-6,4-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRUPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLASIFICACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAREJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUNTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mediocre alto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los luises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fla-Delicatessen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrés-Alberto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuño-Jorge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceci-Ángel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mediocre bajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tania-Laura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto-Andrés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalia-Jose Antonio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristina-Carmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel Ángel-Juanjo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario-Lourdes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis-Raquel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mediocre medio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvador-Marta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vicente-Victor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teresa-Leticia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alba-Luis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los sin barba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto-Esperanza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. JUGADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. GANADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. EMPATADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P. PERDIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET GANADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET PERDIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediocre alto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediocre medio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediocre bajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VUELTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESULTADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARTIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUNTOS_ACUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1ª vuelta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pierde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,10 +720,10 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
@@ -584,13 +743,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -598,7 +753,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -906,24 +1061,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="19" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -943,7 +1098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -963,7 +1118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -983,7 +1138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1003,7 +1158,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1023,7 +1178,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1198,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1218,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1083,7 +1238,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1103,7 +1258,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1123,7 +1278,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1144,8 +1299,46 @@
       </c>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" t="s">
+        <v>173</v>
+      </c>
       <c r="V12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" t="s">
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1178,16 +1371,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1198,7 +1391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1209,7 +1402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1220,7 +1413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1228,77 +1421,77 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="C5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="C6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="C7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="C8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="C9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="C10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="C11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="C12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="C13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14">
       <c r="C14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="C15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16">
       <c r="C16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="17">
       <c r="C17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18">
       <c r="C18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="19">
       <c r="C19" t="s">
         <v>96</v>
       </c>
@@ -1310,22 +1503,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" customWidth="1"/>
-    <col min="4" max="4" width="45.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1339,11 +1532,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -1353,11 +1546,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -1367,11 +1560,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="s">
@@ -1381,11 +1574,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="s">
@@ -1395,11 +1588,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>3</v>
       </c>
       <c r="C6" t="s">
@@ -1409,11 +1602,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>3</v>
       </c>
       <c r="C7" t="s">
@@ -1423,11 +1616,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>4</v>
       </c>
       <c r="C8" t="s">
@@ -1437,11 +1630,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>4</v>
       </c>
       <c r="C9" t="s">
@@ -1451,11 +1644,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>5</v>
       </c>
       <c r="C10" t="s">
@@ -1465,11 +1658,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
@@ -1479,11 +1672,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="s">
@@ -1493,11 +1686,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
@@ -1507,11 +1700,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
@@ -1521,11 +1714,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="s">
@@ -1535,11 +1728,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16">
       <c r="A16" t="s">
         <v>1</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="s">
@@ -1549,11 +1742,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>3</v>
       </c>
       <c r="C17" t="s">
@@ -1563,11 +1756,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18">
       <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>4</v>
       </c>
       <c r="C18" t="s">
@@ -1577,11 +1770,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19">
       <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>4</v>
       </c>
       <c r="C19" t="s">
@@ -1591,11 +1784,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>5</v>
       </c>
       <c r="C20" t="s">
@@ -1605,11 +1798,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21">
       <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>5</v>
       </c>
       <c r="C21" t="s">
@@ -1619,11 +1812,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22">
       <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -1633,11 +1826,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23">
       <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>6</v>
       </c>
       <c r="C23" t="s">
@@ -1647,11 +1840,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24">
       <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -1661,11 +1854,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -1675,11 +1868,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26">
       <c r="A26" t="s">
         <v>2</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>2</v>
       </c>
       <c r="C26" t="s">
@@ -1689,22 +1882,22 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27">
       <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>2</v>
       </c>
       <c r="C27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28">
       <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>3</v>
       </c>
       <c r="C28" t="s">
@@ -1714,11 +1907,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29">
       <c r="A29" t="s">
         <v>2</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>3</v>
       </c>
       <c r="C29" t="s">
@@ -1728,11 +1921,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30">
       <c r="A30" t="s">
         <v>2</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>4</v>
       </c>
       <c r="C30" t="s">
@@ -1742,11 +1935,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31">
       <c r="A31" t="s">
         <v>2</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>4</v>
       </c>
       <c r="C31" t="s">
@@ -1756,11 +1949,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32">
       <c r="A32" t="s">
         <v>2</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>5</v>
       </c>
       <c r="C32" t="s">
@@ -1770,11 +1963,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33">
       <c r="A33" t="s">
         <v>2</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>5</v>
       </c>
       <c r="C33" t="s">
@@ -1784,11 +1977,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34">
       <c r="A34" t="s">
         <v>2</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>6</v>
       </c>
       <c r="C34" t="s">
@@ -1798,11 +1991,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35">
       <c r="A35" t="s">
         <v>2</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>6</v>
       </c>
       <c r="C35" t="s">
@@ -1812,11 +2005,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36">
       <c r="A36" t="s">
         <v>2</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>7</v>
       </c>
       <c r="C36" t="s">
@@ -1826,11 +2019,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37">
       <c r="A37" t="s">
         <v>2</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>7</v>
       </c>
       <c r="C37" t="s">
@@ -1842,17 +2035,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D33" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D32" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="D31" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="D25" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="D26" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="D17" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="D23" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="D13" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="D3" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="D8" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="D33" r:id="rId1h"/>
+    <hyperlink ref="D32" r:id="rId2h"/>
+    <hyperlink ref="D31" r:id="rId3h"/>
+    <hyperlink ref="D25" r:id="rId4h"/>
+    <hyperlink ref="D26" r:id="rId5h"/>
+    <hyperlink ref="D17" r:id="rId6h"/>
+    <hyperlink ref="D23" r:id="rId7h"/>
+    <hyperlink ref="D13" r:id="rId8h"/>
+    <hyperlink ref="D12" r:id="rId9h"/>
+    <hyperlink ref="D3" r:id="rId10h"/>
+    <hyperlink ref="D8" r:id="rId11h"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1860,2236 +2053,2398 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="F1" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="G1" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="H1" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="I1" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="J1" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="K1" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="L1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2">
+        <v>188</v>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2">
+        <v>189</v>
+      </c>
+      <c r="D2" t="n">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>24</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3">
+        <v>188</v>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+        <v>190</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>12</v>
       </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4">
+        <v>188</v>
+      </c>
+      <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
+        <v>191</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
         <v>11</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5">
+        <v>188</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
+        <v>192</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
         <v>6</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6">
+        <v>188</v>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
+        <v>193</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7">
+        <v>194</v>
+      </c>
+      <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7">
+        <v>195</v>
+      </c>
+      <c r="D7" t="n">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>4</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
         <v>30</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8">
+        <v>194</v>
+      </c>
+      <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
+        <v>196</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>12</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9">
+        <v>194</v>
+      </c>
+      <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
+        <v>197</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
         <v>27</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10">
+        <v>194</v>
+      </c>
+      <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
+        <v>198</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
         <v>15</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="A11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11">
+        <v>194</v>
+      </c>
+      <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11">
+        <v>199</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
         <v>7</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12">
+        <v>194</v>
+      </c>
+      <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
+        <v>200</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
         <v>8</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="A13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13">
+        <v>194</v>
+      </c>
+      <c r="B13" t="n">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
+        <v>201</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14">
       <c r="A14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14">
+        <v>202</v>
+      </c>
+      <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
+        <v>203</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>24</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>12</v>
       </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>12</v>
       </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
+        <v>202</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
+        <v>206</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4</v>
+      </c>
+      <c r="L17" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18">
       <c r="A18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18">
+        <v>202</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
+      <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:J8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="G1" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="H1" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="I1" t="s">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2">
+        <v>215</v>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2">
+        <v>189</v>
+      </c>
+      <c r="D2" t="n">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3">
+        <v>215</v>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4">
+        <v>215</v>
+      </c>
+      <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5">
+        <v>215</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6">
+        <v>215</v>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7">
+        <v>216</v>
+      </c>
+      <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8">
+        <v>216</v>
+      </c>
+      <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9">
+        <v>216</v>
+      </c>
+      <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10">
+        <v>216</v>
+      </c>
+      <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11">
+        <v>216</v>
+      </c>
+      <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12">
+        <v>216</v>
+      </c>
+      <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13">
+        <v>217</v>
+      </c>
+      <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13">
+        <v>195</v>
+      </c>
+      <c r="D13" t="n">
         <v>6</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>4</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14">
+        <v>217</v>
+      </c>
+      <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15">
+        <v>217</v>
+      </c>
+      <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16">
+        <v>217</v>
+      </c>
+      <c r="B16" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17">
+        <v>217</v>
+      </c>
+      <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18">
+        <v>217</v>
+      </c>
+      <c r="B18" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19">
+        <v>217</v>
+      </c>
+      <c r="B19" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
+        <v>201</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="E1" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="I1" t="s">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="J1" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="K1" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="L1" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="M1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>45952</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>45957</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>45952</v>
+        <v>224</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45957</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>45952</v>
+        <v>225</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45957</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>45952</v>
+        <v>224</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45957</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>45952</v>
+        <v>225</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>45957</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
+        <v>224</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
         <v>6</v>
       </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>45952</v>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>45957</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>45952</v>
+        <v>225</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>45957</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>45952</v>
+        <v>224</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>45957</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>45952</v>
+        <v>225</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45957</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>45952</v>
+        <v>224</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45957</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>45952</v>
+        <v>225</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45957</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>45952</v>
+        <v>226</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45957</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13">
+        <v>226</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
         <v>4</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>45952</v>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>45957</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>45952</v>
+        <v>224</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>45957</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>45952</v>
+        <v>225</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>45957</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>45952</v>
+        <v>224</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>45957</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>45952</v>
+        <v>225</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>45957</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>45952</v>
+        <v>224</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>45957</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>45952</v>
+        <v>225</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>45957</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="E20" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>45952</v>
+        <v>224</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>45957</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="E21" t="s">
-        <v>170</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
+        <v>225</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23" t="s">
+        <v>225</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" t="s">
+        <v>224</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" t="s">
+        <v>225</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/padel.xlsx
+++ b/padel.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="61" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="62" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="63" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="64" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="65" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="66" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -383,6 +383,18 @@
     <t>3-6,5-7</t>
   </si>
   <si>
+    <t>6-0,6-0</t>
+  </si>
+  <si>
+    <t>0-6,0-6</t>
+  </si>
+  <si>
+    <t>6-0,6-4</t>
+  </si>
+  <si>
+    <t>0-6,4-6</t>
+  </si>
+  <si>
     <t>GRUPO</t>
   </si>
   <si>
@@ -467,21 +479,21 @@
     <t>Salvador-Marta</t>
   </si>
   <si>
+    <t>Vicente-Victor</t>
+  </si>
+  <si>
     <t>Teresa-Leticia</t>
   </si>
   <si>
     <t>Alba-Luis</t>
   </si>
   <si>
+    <t>Los sin barba</t>
+  </si>
+  <si>
     <t>Alberto-Esperanza</t>
   </si>
   <si>
-    <t>Los sin barba</t>
-  </si>
-  <si>
-    <t>Vicente-Victor</t>
-  </si>
-  <si>
     <t>P. JUGADOS</t>
   </si>
   <si>
@@ -536,16 +548,10 @@
     <t>Empata</t>
   </si>
   <si>
-    <t>6-0,6-0</t>
-  </si>
-  <si>
-    <t>0-6,0-6</t>
-  </si>
-  <si>
-    <t>6-0,6-4</t>
-  </si>
-  <si>
-    <t>0-6,4-6</t>
+    <t>7-5,6-1</t>
+  </si>
+  <si>
+    <t>5-7,1-6</t>
   </si>
   <si>
     <t xml:space="preserve">GRUPO</t>
@@ -590,10 +596,10 @@
     <t xml:space="preserve">Los luises</t>
   </si>
   <si>
+    <t xml:space="preserve">Andrés-Alberto</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fla-Delicatessen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrés-Alberto</t>
   </si>
   <si>
     <t xml:space="preserve">Nuño-Jorge</t>
@@ -1065,17 +1071,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="19" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1313,10 +1319,10 @@
         <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="V12" s="1"/>
     </row>
@@ -1334,10 +1340,30 @@
         <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1512,10 +1538,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="45.44140625" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2062,51 +2088,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -2138,89 +2164,89 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2252,19 +2278,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2273,30 +2299,30 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -2328,13 +2354,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D8" t="n">
         <v>3</v>
@@ -2366,13 +2392,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
@@ -2404,13 +2430,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
@@ -2442,13 +2468,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -2480,13 +2506,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -2518,13 +2544,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B13" t="n">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -2556,13 +2582,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D14" t="n">
         <v>6</v>
@@ -2594,13 +2620,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -2632,13 +2658,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
@@ -2670,13 +2696,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2708,13 +2734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2746,13 +2772,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B19" t="n">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2798,45 +2824,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -2862,77 +2888,77 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2958,19 +2984,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2979,24 +3005,24 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -3022,13 +3048,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D8" t="n">
         <v>3</v>
@@ -3054,13 +3080,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
@@ -3086,13 +3112,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3118,13 +3144,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3150,13 +3176,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3182,13 +3208,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D13" t="n">
         <v>6</v>
@@ -3214,13 +3240,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
@@ -3246,13 +3272,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -3278,13 +3304,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
@@ -3310,13 +3336,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -3342,13 +3368,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -3374,13 +3400,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B19" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -3420,60 +3446,60 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" t="s">
         <v>184</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>185</v>
-      </c>
-      <c r="H1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I1" t="s">
-        <v>221</v>
-      </c>
-      <c r="J1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K1" t="s">
-        <v>181</v>
-      </c>
-      <c r="L1" t="s">
-        <v>182</v>
-      </c>
-      <c r="M1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -3502,19 +3528,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3543,19 +3569,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -3584,19 +3610,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -3625,19 +3651,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -3666,19 +3692,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3707,19 +3733,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -3748,19 +3774,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -3789,19 +3815,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -3830,19 +3856,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -3871,19 +3897,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -3912,19 +3938,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -3953,19 +3979,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C14" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E14" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -3994,19 +4020,19 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E15" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -4035,19 +4061,19 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
@@ -4076,19 +4102,19 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -4117,19 +4143,19 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
@@ -4158,19 +4184,19 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E19" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -4199,19 +4225,19 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
@@ -4240,19 +4266,19 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -4281,19 +4307,19 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B22" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C22" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E22" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
@@ -4322,19 +4348,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C23" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D23" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E23" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -4363,19 +4389,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C24" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E24" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
@@ -4404,43 +4430,125 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45957</v>
+        <v>45960</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C25" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D25" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E25" t="s">
+        <v>227</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" t="s">
         <v>225</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
+      <c r="D26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="64" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="65" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="66" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="67" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="68" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="69" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -395,6 +395,12 @@
     <t>0-6,4-6</t>
   </si>
   <si>
+    <t>7-5,6-1</t>
+  </si>
+  <si>
+    <t>5-7,1-6</t>
+  </si>
+  <si>
     <t>GRUPO</t>
   </si>
   <si>
@@ -437,12 +443,12 @@
     <t>Los luises</t>
   </si>
   <si>
+    <t>Andrés-Alberto</t>
+  </si>
+  <si>
     <t>Fla-Delicatessen</t>
   </si>
   <si>
-    <t>Andrés-Alberto</t>
-  </si>
-  <si>
     <t>Nuño-Jorge</t>
   </si>
   <si>
@@ -548,10 +554,22 @@
     <t>Empata</t>
   </si>
   <si>
-    <t>7-5,6-1</t>
-  </si>
-  <si>
-    <t>5-7,1-6</t>
+    <t>6-1,6-2</t>
+  </si>
+  <si>
+    <t>1-6,2-6</t>
+  </si>
+  <si>
+    <t>6-4,5-4</t>
+  </si>
+  <si>
+    <t>4-6,4-5</t>
+  </si>
+  <si>
+    <t>6-4,1-6,10-4</t>
+  </si>
+  <si>
+    <t>4-6,6-1,4-10</t>
   </si>
   <si>
     <t xml:space="preserve">GRUPO</t>
@@ -614,10 +632,10 @@
     <t xml:space="preserve">Tania-Laura</t>
   </si>
   <si>
+    <t xml:space="preserve">Natalia-Jose Antonio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alberto-Andrés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natalia-Jose Antonio</t>
   </si>
   <si>
     <t xml:space="preserve">Cristina-Carmen</t>
@@ -1071,17 +1089,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="19" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1360,10 +1378,70 @@
         <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
-        <v>177</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1538,10 +1616,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="45.44140625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2088,60 +2166,60 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="J1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="K1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -2150,27 +2228,27 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="L2" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
@@ -2202,19 +2280,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -2223,30 +2301,30 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2278,13 +2356,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2316,22 +2394,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -2340,33 +2418,33 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="L7" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D8" t="n">
         <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -2375,30 +2453,30 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
@@ -2416,27 +2494,27 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
@@ -2468,13 +2546,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -2506,13 +2584,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -2544,19 +2622,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B13" t="n">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2565,30 +2643,30 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D14" t="n">
         <v>6</v>
@@ -2620,13 +2698,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -2658,13 +2736,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
@@ -2696,13 +2774,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2734,13 +2812,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2772,13 +2850,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B19" t="n">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2824,54 +2902,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="J1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -2880,21 +2958,21 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
@@ -2920,19 +2998,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -2941,24 +3019,24 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2984,13 +3062,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3016,13 +3094,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -3048,13 +3126,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D8" t="n">
         <v>3</v>
@@ -3080,13 +3158,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
@@ -3112,13 +3190,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3144,13 +3222,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3176,13 +3254,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3208,22 +3286,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -3232,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -3240,19 +3318,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -3261,24 +3339,24 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -3296,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
@@ -3304,13 +3382,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
@@ -3336,13 +3414,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -3368,13 +3446,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -3400,19 +3478,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B19" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -3421,13 +3499,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3446,60 +3524,60 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" t="s">
         <v>187</v>
       </c>
-      <c r="H1" t="s">
-        <v>181</v>
-      </c>
       <c r="I1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="J1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -3528,19 +3606,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3569,19 +3647,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -3610,19 +3688,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -3651,19 +3729,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -3692,19 +3770,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3733,19 +3811,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E8" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -3774,19 +3852,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C9" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E9" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -3815,19 +3893,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E10" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -3856,19 +3934,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -3897,19 +3975,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E12" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -3938,19 +4016,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E13" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -3979,19 +4057,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D14" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E14" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -4020,19 +4098,19 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C15" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D15" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E15" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -4061,19 +4139,19 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B16" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D16" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E16" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
@@ -4102,19 +4180,19 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D17" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E17" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -4143,19 +4221,19 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E18" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
@@ -4184,19 +4262,19 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E19" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -4225,19 +4303,19 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D20" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
@@ -4266,19 +4344,19 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E21" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -4307,19 +4385,19 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C22" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D22" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E22" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
@@ -4348,19 +4426,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C23" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D23" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E23" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -4389,19 +4467,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B24" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C24" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D24" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E24" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
@@ -4430,19 +4508,19 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D25" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E25" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -4471,19 +4549,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B26" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C26" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D26" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
@@ -4512,19 +4590,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45960</v>
+        <v>45965</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C27" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D27" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -4549,6 +4627,252 @@
       </c>
       <c r="M27" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" t="s">
+        <v>232</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>9</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" t="s">
+        <v>233</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>12</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" t="s">
+        <v>231</v>
+      </c>
+      <c r="D31" t="s">
+        <v>205</v>
+      </c>
+      <c r="E31" t="s">
+        <v>233</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B32" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>7</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>45965</v>
+      </c>
+      <c r="B33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" t="s">
+        <v>233</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,16 +9,16 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="73" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="74" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="75" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="76" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="77" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="78" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -425,6 +425,18 @@
     <t>3-6,6-4,6-10</t>
   </si>
   <si>
+    <t>6-4,6-1</t>
+  </si>
+  <si>
+    <t>4-6,1-6</t>
+  </si>
+  <si>
+    <t>6-2,7-5</t>
+  </si>
+  <si>
+    <t>2-6,5-7</t>
+  </si>
+  <si>
     <t>GRUPO</t>
   </si>
   <si>
@@ -488,12 +500,12 @@
     <t>Natalia-Jose Antonio</t>
   </si>
   <si>
+    <t>Cristina-Carmen</t>
+  </si>
+  <si>
     <t>Alberto-Andrés</t>
   </si>
   <si>
-    <t>Cristina-Carmen</t>
-  </si>
-  <si>
     <t>Miguel Ángel-Juanjo</t>
   </si>
   <si>
@@ -515,15 +527,15 @@
     <t>Teresa-Leticia</t>
   </si>
   <si>
+    <t>Alberto-Esperanza</t>
+  </si>
+  <si>
     <t>Alba-Luis</t>
   </si>
   <si>
     <t>Los sin barba</t>
   </si>
   <si>
-    <t>Alberto-Esperanza</t>
-  </si>
-  <si>
     <t>P. JUGADOS</t>
   </si>
   <si>
@@ -578,16 +590,10 @@
     <t>Empata</t>
   </si>
   <si>
-    <t>6-4,6-1</t>
-  </si>
-  <si>
-    <t>4-6,1-6</t>
-  </si>
-  <si>
-    <t>6-2,7-5</t>
-  </si>
-  <si>
-    <t>2-6,5-7</t>
+    <t>6-1,6-0</t>
+  </si>
+  <si>
+    <t>1-6,0-6</t>
   </si>
   <si>
     <t xml:space="preserve">GRUPO</t>
@@ -653,13 +659,13 @@
     <t xml:space="preserve">Natalia-Jose Antonio</t>
   </si>
   <si>
+    <t xml:space="preserve">Miguel Ángel-Juanjo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto-Andrés</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cristina-Carmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberto-Andrés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel Ángel-Juanjo</t>
   </si>
   <si>
     <t xml:space="preserve">Mario-Lourdes</t>
@@ -1107,7 +1113,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1496,10 +1502,10 @@
         <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20">
@@ -1516,10 +1522,30 @@
         <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2244,51 +2270,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D2" t="n">
         <v>7</v>
@@ -2320,13 +2346,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
@@ -2358,13 +2384,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -2396,13 +2422,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -2434,13 +2460,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2472,13 +2498,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D7" t="n">
         <v>12</v>
@@ -2510,13 +2536,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D8" t="n">
         <v>6</v>
@@ -2548,13 +2574,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
@@ -2578,21 +2604,21 @@
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L9" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
@@ -2624,51 +2650,51 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L11" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -2700,13 +2726,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B13" t="n">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -2738,13 +2764,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D14" t="n">
         <v>6</v>
@@ -2776,13 +2802,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -2814,13 +2840,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
@@ -2852,13 +2878,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -2890,13 +2916,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2928,13 +2954,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B19" t="n">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2980,45 +3006,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D2" t="n">
         <v>7</v>
@@ -3044,13 +3070,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
@@ -3076,13 +3102,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -3108,13 +3134,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -3140,13 +3166,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3172,13 +3198,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -3204,13 +3230,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D8" t="n">
         <v>3</v>
@@ -3236,13 +3262,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
@@ -3268,13 +3294,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
@@ -3300,13 +3326,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3332,13 +3358,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3364,13 +3390,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D13" t="n">
         <v>12</v>
@@ -3396,13 +3422,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D14" t="n">
         <v>6</v>
@@ -3428,13 +3454,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -3460,13 +3486,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
@@ -3492,45 +3518,45 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -3556,13 +3582,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B19" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -3602,43 +3628,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L1" t="s">
         <v>198</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>199</v>
-      </c>
-      <c r="H1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J1" t="s">
-        <v>236</v>
-      </c>
-      <c r="K1" t="s">
-        <v>195</v>
-      </c>
-      <c r="L1" t="s">
-        <v>196</v>
-      </c>
-      <c r="M1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2">
@@ -3646,16 +3672,16 @@
         <v>45967</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -3687,16 +3713,16 @@
         <v>45967</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3728,16 +3754,16 @@
         <v>45967</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -3769,16 +3795,16 @@
         <v>45967</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -3810,16 +3836,16 @@
         <v>45967</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -3851,16 +3877,16 @@
         <v>45967</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3892,16 +3918,16 @@
         <v>45967</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -3933,16 +3959,16 @@
         <v>45967</v>
       </c>
       <c r="B9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -3974,16 +4000,16 @@
         <v>45967</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -4015,16 +4041,16 @@
         <v>45967</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -4056,16 +4082,16 @@
         <v>45967</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -4097,16 +4123,16 @@
         <v>45967</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E13" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -4138,16 +4164,16 @@
         <v>45967</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C14" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -4179,16 +4205,16 @@
         <v>45967</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C15" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -4220,16 +4246,16 @@
         <v>45967</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
@@ -4261,16 +4287,16 @@
         <v>45967</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D17" t="s">
         <v>213</v>
       </c>
       <c r="E17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -4302,16 +4328,16 @@
         <v>45967</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E18" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
@@ -4343,16 +4369,16 @@
         <v>45967</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D19" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -4384,16 +4410,16 @@
         <v>45967</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C20" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
@@ -4425,16 +4451,16 @@
         <v>45967</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C21" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D21" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E21" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -4466,16 +4492,16 @@
         <v>45967</v>
       </c>
       <c r="B22" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C22" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D22" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
@@ -4507,16 +4533,16 @@
         <v>45967</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C23" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E23" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -4548,16 +4574,16 @@
         <v>45967</v>
       </c>
       <c r="B24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C24" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E24" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
@@ -4589,16 +4615,16 @@
         <v>45967</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C25" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D25" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E25" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -4630,16 +4656,16 @@
         <v>45967</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C26" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D26" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
@@ -4671,16 +4697,16 @@
         <v>45967</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E27" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -4712,16 +4738,16 @@
         <v>45967</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C28" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E28" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
@@ -4753,16 +4779,16 @@
         <v>45967</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C29" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E29" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -4794,16 +4820,16 @@
         <v>45967</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C30" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E30" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F30" t="n">
         <v>2</v>
@@ -4835,16 +4861,16 @@
         <v>45967</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C31" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E31" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -4876,16 +4902,16 @@
         <v>45967</v>
       </c>
       <c r="B32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C32" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E32" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F32" t="n">
         <v>2</v>
@@ -4917,16 +4943,16 @@
         <v>45967</v>
       </c>
       <c r="B33" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D33" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E33" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -4958,16 +4984,16 @@
         <v>45967</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C34" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E34" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F34" t="n">
         <v>2</v>
@@ -4999,16 +5025,16 @@
         <v>45967</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C35" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D35" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E35" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -5040,16 +5066,16 @@
         <v>45967</v>
       </c>
       <c r="B36" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C36" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D36" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E36" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F36" t="n">
         <v>2</v>
@@ -5081,16 +5107,16 @@
         <v>45967</v>
       </c>
       <c r="B37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C37" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D37" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E37" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -5122,16 +5148,16 @@
         <v>45967</v>
       </c>
       <c r="B38" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C38" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E38" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F38" t="n">
         <v>2</v>
@@ -5163,39 +5189,121 @@
         <v>45967</v>
       </c>
       <c r="B39" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C39" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D39" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E39" t="s">
+        <v>241</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" t="s">
         <v>239</v>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
+      <c r="D40" t="s">
+        <v>213</v>
+      </c>
+      <c r="E40" t="s">
+        <v>240</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B41" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" t="s">
+        <v>215</v>
+      </c>
+      <c r="E41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>2</v>
       </c>
     </row>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,9 +9,9 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="76" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="77" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="78" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="79" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="80" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="81" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -437,6 +437,12 @@
     <t>2-6,5-7</t>
   </si>
   <si>
+    <t>6-1,6-0</t>
+  </si>
+  <si>
+    <t>1-6,0-6</t>
+  </si>
+  <si>
     <t>GRUPO</t>
   </si>
   <si>
@@ -500,15 +506,15 @@
     <t>Natalia-Jose Antonio</t>
   </si>
   <si>
+    <t>Miguel Ángel-Juanjo</t>
+  </si>
+  <si>
+    <t>Alberto-Andrés</t>
+  </si>
+  <si>
     <t>Cristina-Carmen</t>
   </si>
   <si>
-    <t>Alberto-Andrés</t>
-  </si>
-  <si>
-    <t>Miguel Ángel-Juanjo</t>
-  </si>
-  <si>
     <t>Mario-Lourdes</t>
   </si>
   <si>
@@ -588,12 +594,6 @@
   </si>
   <si>
     <t>Empata</t>
-  </si>
-  <si>
-    <t>6-1,6-0</t>
-  </si>
-  <si>
-    <t>1-6,0-6</t>
   </si>
   <si>
     <t xml:space="preserve">GRUPO</t>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1542,10 +1542,30 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2583,13 +2603,13 @@
         <v>213</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -2598,13 +2618,13 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L9" t="n">
         <v>13</v>
@@ -2738,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2747,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
         <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -3463,13 +3483,13 @@
         <v>213</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -3478,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
@@ -3594,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -3603,13 +3623,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3669,7 +3689,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B2" t="s">
         <v>204</v>
@@ -3710,7 +3730,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B3" t="s">
         <v>204</v>
@@ -3751,7 +3771,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B4" t="s">
         <v>210</v>
@@ -3792,7 +3812,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B5" t="s">
         <v>210</v>
@@ -3833,7 +3853,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B6" t="s">
         <v>210</v>
@@ -3874,7 +3894,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B7" t="s">
         <v>210</v>
@@ -3915,7 +3935,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B8" t="s">
         <v>218</v>
@@ -3956,7 +3976,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B9" t="s">
         <v>218</v>
@@ -3997,7 +4017,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B10" t="s">
         <v>204</v>
@@ -4038,7 +4058,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B11" t="s">
         <v>204</v>
@@ -4079,7 +4099,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B12" t="s">
         <v>204</v>
@@ -4120,7 +4140,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B13" t="s">
         <v>204</v>
@@ -4161,7 +4181,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B14" t="s">
         <v>218</v>
@@ -4202,7 +4222,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B15" t="s">
         <v>218</v>
@@ -4243,7 +4263,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B16" t="s">
         <v>210</v>
@@ -4284,7 +4304,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B17" t="s">
         <v>210</v>
@@ -4325,7 +4345,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B18" t="s">
         <v>210</v>
@@ -4366,7 +4386,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B19" t="s">
         <v>210</v>
@@ -4407,7 +4427,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B20" t="s">
         <v>210</v>
@@ -4448,7 +4468,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B21" t="s">
         <v>210</v>
@@ -4489,7 +4509,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B22" t="s">
         <v>218</v>
@@ -4530,7 +4550,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B23" t="s">
         <v>218</v>
@@ -4571,7 +4591,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B24" t="s">
         <v>218</v>
@@ -4612,7 +4632,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B25" t="s">
         <v>218</v>
@@ -4653,7 +4673,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B26" t="s">
         <v>204</v>
@@ -4694,7 +4714,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B27" t="s">
         <v>204</v>
@@ -4735,7 +4755,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B28" t="s">
         <v>210</v>
@@ -4776,7 +4796,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B29" t="s">
         <v>210</v>
@@ -4817,7 +4837,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B30" t="s">
         <v>210</v>
@@ -4858,7 +4878,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B31" t="s">
         <v>210</v>
@@ -4899,7 +4919,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B32" t="s">
         <v>204</v>
@@ -4940,7 +4960,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B33" t="s">
         <v>204</v>
@@ -4981,7 +5001,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B34" t="s">
         <v>204</v>
@@ -5022,7 +5042,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B35" t="s">
         <v>204</v>
@@ -5063,7 +5083,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B36" t="s">
         <v>218</v>
@@ -5104,7 +5124,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B37" t="s">
         <v>218</v>
@@ -5145,7 +5165,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B38" t="s">
         <v>210</v>
@@ -5186,7 +5206,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B39" t="s">
         <v>210</v>
@@ -5227,7 +5247,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B40" t="s">
         <v>210</v>
@@ -5268,7 +5288,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="B41" t="s">
         <v>210</v>
@@ -5305,6 +5325,88 @@
       </c>
       <c r="M41" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" t="s">
+        <v>240</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B43" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" t="s">
+        <v>239</v>
+      </c>
+      <c r="D43" t="s">
+        <v>217</v>
+      </c>
+      <c r="E43" t="s">
+        <v>241</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,16 +9,16 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="79" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="80" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="81" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="82" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="83" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="84" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -594,6 +594,12 @@
   </si>
   <si>
     <t>Empata</t>
+  </si>
+  <si>
+    <t>6-1,6-3</t>
+  </si>
+  <si>
+    <t>1-6,3-6</t>
   </si>
   <si>
     <t xml:space="preserve">GRUPO</t>
@@ -1113,7 +1119,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1566,6 +1572,26 @@
       </c>
       <c r="F22" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2290,89 +2316,89 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>7</v>
       </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5</v>
-      </c>
       <c r="J2" t="n">
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="L2" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
@@ -2404,13 +2430,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -2442,13 +2468,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -2480,19 +2506,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2501,30 +2527,30 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L6" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D7" t="n">
         <v>12</v>
@@ -2556,13 +2582,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D8" t="n">
         <v>6</v>
@@ -2594,13 +2620,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
@@ -2632,13 +2658,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
@@ -2670,13 +2696,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D11" t="n">
         <v>3</v>
@@ -2708,13 +2734,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -2746,13 +2772,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B13" t="n">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -2784,13 +2810,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D14" t="n">
         <v>6</v>
@@ -2822,13 +2848,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -2860,13 +2886,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
@@ -2898,13 +2924,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -2936,13 +2962,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2974,13 +3000,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B19" t="n">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -3026,63 +3052,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>7</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -3090,13 +3116,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
@@ -3122,13 +3148,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -3154,13 +3180,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -3186,19 +3212,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3207,24 +3233,24 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -3250,13 +3276,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D8" t="n">
         <v>3</v>
@@ -3282,13 +3308,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
@@ -3314,13 +3340,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
@@ -3346,13 +3372,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3378,13 +3404,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3410,13 +3436,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D13" t="n">
         <v>12</v>
@@ -3442,13 +3468,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D14" t="n">
         <v>6</v>
@@ -3474,13 +3500,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
@@ -3506,13 +3532,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
@@ -3538,13 +3564,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -3570,13 +3596,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -3602,13 +3628,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B19" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -3648,43 +3674,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L1" t="s">
         <v>200</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>201</v>
-      </c>
-      <c r="H1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J1" t="s">
-        <v>238</v>
-      </c>
-      <c r="K1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L1" t="s">
-        <v>198</v>
-      </c>
-      <c r="M1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2">
@@ -3692,16 +3718,16 @@
         <v>45974</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -3733,16 +3759,16 @@
         <v>45974</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3774,16 +3800,16 @@
         <v>45974</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -3815,16 +3841,16 @@
         <v>45974</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -3856,16 +3882,16 @@
         <v>45974</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -3897,16 +3923,16 @@
         <v>45974</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3938,16 +3964,16 @@
         <v>45974</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -3979,16 +4005,16 @@
         <v>45974</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -4020,16 +4046,16 @@
         <v>45974</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -4061,16 +4087,16 @@
         <v>45974</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -4102,16 +4128,16 @@
         <v>45974</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E12" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -4143,16 +4169,16 @@
         <v>45974</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -4184,16 +4210,16 @@
         <v>45974</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C14" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E14" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -4225,16 +4251,16 @@
         <v>45974</v>
       </c>
       <c r="B15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E15" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -4266,16 +4292,16 @@
         <v>45974</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C16" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
@@ -4307,16 +4333,16 @@
         <v>45974</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E17" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -4348,16 +4374,16 @@
         <v>45974</v>
       </c>
       <c r="B18" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E18" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
@@ -4389,16 +4415,16 @@
         <v>45974</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -4430,16 +4456,16 @@
         <v>45974</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C20" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
@@ -4471,16 +4497,16 @@
         <v>45974</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C21" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E21" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -4512,16 +4538,16 @@
         <v>45974</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C22" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
@@ -4553,16 +4579,16 @@
         <v>45974</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C23" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E23" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -4594,16 +4620,16 @@
         <v>45974</v>
       </c>
       <c r="B24" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C24" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D24" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
@@ -4635,16 +4661,16 @@
         <v>45974</v>
       </c>
       <c r="B25" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C25" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D25" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E25" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -4676,16 +4702,16 @@
         <v>45974</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C26" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E26" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
@@ -4717,16 +4743,16 @@
         <v>45974</v>
       </c>
       <c r="B27" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C27" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E27" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -4758,16 +4784,16 @@
         <v>45974</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C28" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D28" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E28" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
@@ -4799,16 +4825,16 @@
         <v>45974</v>
       </c>
       <c r="B29" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C29" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E29" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -4840,16 +4866,16 @@
         <v>45974</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C30" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D30" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E30" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F30" t="n">
         <v>2</v>
@@ -4881,16 +4907,16 @@
         <v>45974</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C31" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D31" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E31" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -4922,16 +4948,16 @@
         <v>45974</v>
       </c>
       <c r="B32" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C32" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D32" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E32" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F32" t="n">
         <v>2</v>
@@ -4963,16 +4989,16 @@
         <v>45974</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C33" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E33" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -5004,16 +5030,16 @@
         <v>45974</v>
       </c>
       <c r="B34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C34" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D34" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E34" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F34" t="n">
         <v>2</v>
@@ -5045,16 +5071,16 @@
         <v>45974</v>
       </c>
       <c r="B35" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C35" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D35" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E35" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -5086,16 +5112,16 @@
         <v>45974</v>
       </c>
       <c r="B36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C36" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E36" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F36" t="n">
         <v>2</v>
@@ -5127,16 +5153,16 @@
         <v>45974</v>
       </c>
       <c r="B37" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C37" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D37" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E37" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -5168,16 +5194,16 @@
         <v>45974</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C38" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D38" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E38" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F38" t="n">
         <v>2</v>
@@ -5209,16 +5235,16 @@
         <v>45974</v>
       </c>
       <c r="B39" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C39" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D39" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E39" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -5250,16 +5276,16 @@
         <v>45974</v>
       </c>
       <c r="B40" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C40" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D40" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E40" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F40" t="n">
         <v>2</v>
@@ -5291,16 +5317,16 @@
         <v>45974</v>
       </c>
       <c r="B41" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C41" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E41" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -5332,16 +5358,16 @@
         <v>45974</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C42" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D42" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E42" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
@@ -5373,39 +5399,121 @@
         <v>45974</v>
       </c>
       <c r="B43" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C43" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D43" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E43" t="s">
+        <v>243</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" t="s">
         <v>241</v>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
+      <c r="D44" t="s">
+        <v>207</v>
+      </c>
+      <c r="E44" t="s">
+        <v>242</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4</v>
+      </c>
+      <c r="J44" t="n">
+        <v>10</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45974</v>
+      </c>
+      <c r="B45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" t="s">
+        <v>241</v>
+      </c>
+      <c r="D45" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" t="s">
+        <v>243</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
         <v>3</v>
       </c>
     </row>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,9 +9,9 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="82" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="83" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="84" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="85" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="86" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="87" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -443,6 +443,12 @@
     <t>1-6,0-6</t>
   </si>
   <si>
+    <t>6-1,6-3</t>
+  </si>
+  <si>
+    <t>1-6,3-6</t>
+  </si>
+  <si>
     <t>GRUPO</t>
   </si>
   <si>
@@ -596,12 +602,6 @@
     <t>Empata</t>
   </si>
   <si>
-    <t>6-1,6-3</t>
-  </si>
-  <si>
-    <t>1-6,3-6</t>
-  </si>
-  <si>
     <t xml:space="preserve">GRUPO</t>
   </si>
   <si>
@@ -692,10 +692,10 @@
     <t xml:space="preserve">Teresa-Leticia</t>
   </si>
   <si>
+    <t xml:space="preserve">Alba-Luis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alberto-Esperanza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alba-Luis</t>
   </si>
   <si>
     <t xml:space="preserve">Los sin barba</t>
@@ -1119,7 +1119,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1588,10 +1588,30 @@
         <v>105</v>
       </c>
       <c r="E23" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="F23" t="s">
-        <v>193</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +2956,7 @@
         <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -2945,19 +2965,19 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L17" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -2971,31 +2991,31 @@
         <v>225</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L18" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -3352,7 +3372,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -3361,13 +3381,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -3381,25 +3401,25 @@
         <v>225</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -3715,7 +3735,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B2" t="s">
         <v>206</v>
@@ -3756,7 +3776,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B3" t="s">
         <v>206</v>
@@ -3797,7 +3817,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B4" t="s">
         <v>212</v>
@@ -3838,7 +3858,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B5" t="s">
         <v>212</v>
@@ -3879,7 +3899,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B6" t="s">
         <v>212</v>
@@ -3920,7 +3940,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B7" t="s">
         <v>212</v>
@@ -3961,7 +3981,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B8" t="s">
         <v>220</v>
@@ -4002,7 +4022,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B9" t="s">
         <v>220</v>
@@ -4043,7 +4063,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B10" t="s">
         <v>206</v>
@@ -4084,7 +4104,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B11" t="s">
         <v>206</v>
@@ -4125,7 +4145,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B12" t="s">
         <v>206</v>
@@ -4166,7 +4186,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B13" t="s">
         <v>206</v>
@@ -4207,7 +4227,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B14" t="s">
         <v>220</v>
@@ -4248,7 +4268,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B15" t="s">
         <v>220</v>
@@ -4257,7 +4277,7 @@
         <v>241</v>
       </c>
       <c r="D15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E15" t="s">
         <v>243</v>
@@ -4289,7 +4309,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B16" t="s">
         <v>212</v>
@@ -4330,7 +4350,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B17" t="s">
         <v>212</v>
@@ -4371,7 +4391,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B18" t="s">
         <v>212</v>
@@ -4412,7 +4432,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B19" t="s">
         <v>212</v>
@@ -4453,7 +4473,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B20" t="s">
         <v>212</v>
@@ -4494,7 +4514,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B21" t="s">
         <v>212</v>
@@ -4535,7 +4555,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B22" t="s">
         <v>220</v>
@@ -4576,7 +4596,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B23" t="s">
         <v>220</v>
@@ -4585,7 +4605,7 @@
         <v>241</v>
       </c>
       <c r="D23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E23" t="s">
         <v>243</v>
@@ -4617,7 +4637,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B24" t="s">
         <v>220</v>
@@ -4658,7 +4678,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B25" t="s">
         <v>220</v>
@@ -4667,7 +4687,7 @@
         <v>241</v>
       </c>
       <c r="D25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E25" t="s">
         <v>243</v>
@@ -4699,7 +4719,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B26" t="s">
         <v>206</v>
@@ -4740,7 +4760,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B27" t="s">
         <v>206</v>
@@ -4781,7 +4801,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B28" t="s">
         <v>212</v>
@@ -4822,7 +4842,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B29" t="s">
         <v>212</v>
@@ -4863,7 +4883,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B30" t="s">
         <v>212</v>
@@ -4904,7 +4924,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B31" t="s">
         <v>212</v>
@@ -4945,7 +4965,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B32" t="s">
         <v>206</v>
@@ -4986,7 +5006,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B33" t="s">
         <v>206</v>
@@ -5027,7 +5047,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B34" t="s">
         <v>206</v>
@@ -5068,7 +5088,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B35" t="s">
         <v>206</v>
@@ -5109,7 +5129,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B36" t="s">
         <v>220</v>
@@ -5118,7 +5138,7 @@
         <v>241</v>
       </c>
       <c r="D36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E36" t="s">
         <v>242</v>
@@ -5150,7 +5170,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B37" t="s">
         <v>220</v>
@@ -5191,7 +5211,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B38" t="s">
         <v>212</v>
@@ -5232,7 +5252,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B39" t="s">
         <v>212</v>
@@ -5273,7 +5293,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B40" t="s">
         <v>212</v>
@@ -5314,7 +5334,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B41" t="s">
         <v>212</v>
@@ -5355,7 +5375,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B42" t="s">
         <v>212</v>
@@ -5396,7 +5416,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B43" t="s">
         <v>212</v>
@@ -5437,7 +5457,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B44" t="s">
         <v>206</v>
@@ -5478,7 +5498,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B45" t="s">
         <v>206</v>
@@ -5514,6 +5534,88 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B46" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" t="s">
+        <v>241</v>
+      </c>
+      <c r="D46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" t="s">
+        <v>242</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45975</v>
+      </c>
+      <c r="B47" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47" t="s">
+        <v>243</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
         <v>3</v>
       </c>
     </row>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,9 +9,9 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="85" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="86" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="87" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="91" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="92" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="93" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -539,12 +539,12 @@
     <t>Teresa-Leticia</t>
   </si>
   <si>
+    <t>Alba-Luis</t>
+  </si>
+  <si>
     <t>Alberto-Esperanza</t>
   </si>
   <si>
-    <t>Alba-Luis</t>
-  </si>
-  <si>
     <t>Los sin barba</t>
   </si>
   <si>
@@ -644,12 +644,12 @@
     <t xml:space="preserve">Los luises</t>
   </si>
   <si>
+    <t xml:space="preserve">Fla-Delicatessen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Andrés-Alberto</t>
   </si>
   <si>
-    <t xml:space="preserve">Fla-Delicatessen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nuño-Jorge</t>
   </si>
   <si>
@@ -689,10 +689,10 @@
     <t xml:space="preserve">Vicente-Victor</t>
   </si>
   <si>
+    <t xml:space="preserve">Alba-Luis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Teresa-Leticia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alba-Luis</t>
   </si>
   <si>
     <t xml:space="preserve">Alberto-Esperanza</t>
@@ -1119,7 +1119,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1612,6 +1612,46 @@
       </c>
       <c r="F24" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2421,31 +2461,31 @@
         <v>208</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>39</v>
       </c>
       <c r="L3" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -2459,31 +2499,31 @@
         <v>209</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="L4" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -2839,28 +2879,28 @@
         <v>221</v>
       </c>
       <c r="D14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>6</v>
       </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4</v>
-      </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L14" t="n">
         <v>7</v>
@@ -2936,10 +2976,10 @@
         <v>2</v>
       </c>
       <c r="K16" t="n">
+        <v>16</v>
+      </c>
+      <c r="L16" t="n">
         <v>17</v>
-      </c>
-      <c r="L16" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -2956,7 +2996,7 @@
         <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -2965,19 +3005,19 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L17" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
@@ -3145,25 +3185,25 @@
         <v>208</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3177,25 +3217,25 @@
         <v>209</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3273,22 +3313,22 @@
         <v>221</v>
       </c>
       <c r="D7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -3372,7 +3412,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -3381,13 +3421,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -3735,7 +3775,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B2" t="s">
         <v>206</v>
@@ -3776,7 +3816,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B3" t="s">
         <v>206</v>
@@ -3817,7 +3857,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B4" t="s">
         <v>212</v>
@@ -3858,7 +3898,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B5" t="s">
         <v>212</v>
@@ -3899,7 +3939,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B6" t="s">
         <v>212</v>
@@ -3940,7 +3980,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B7" t="s">
         <v>212</v>
@@ -3981,7 +4021,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B8" t="s">
         <v>220</v>
@@ -3990,7 +4030,7 @@
         <v>241</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E8" t="s">
         <v>242</v>
@@ -4022,7 +4062,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B9" t="s">
         <v>220</v>
@@ -4063,7 +4103,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B10" t="s">
         <v>206</v>
@@ -4072,7 +4112,7 @@
         <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E10" t="s">
         <v>242</v>
@@ -4104,7 +4144,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B11" t="s">
         <v>206</v>
@@ -4145,7 +4185,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B12" t="s">
         <v>206</v>
@@ -4154,7 +4194,7 @@
         <v>241</v>
       </c>
       <c r="D12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E12" t="s">
         <v>244</v>
@@ -4186,7 +4226,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B13" t="s">
         <v>206</v>
@@ -4227,7 +4267,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B14" t="s">
         <v>220</v>
@@ -4268,7 +4308,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B15" t="s">
         <v>220</v>
@@ -4309,7 +4349,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B16" t="s">
         <v>212</v>
@@ -4350,7 +4390,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B17" t="s">
         <v>212</v>
@@ -4391,7 +4431,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B18" t="s">
         <v>212</v>
@@ -4432,7 +4472,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B19" t="s">
         <v>212</v>
@@ -4473,7 +4513,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B20" t="s">
         <v>212</v>
@@ -4514,7 +4554,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B21" t="s">
         <v>212</v>
@@ -4555,7 +4595,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B22" t="s">
         <v>220</v>
@@ -4596,7 +4636,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B23" t="s">
         <v>220</v>
@@ -4637,7 +4677,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B24" t="s">
         <v>220</v>
@@ -4678,7 +4718,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B25" t="s">
         <v>220</v>
@@ -4687,7 +4727,7 @@
         <v>241</v>
       </c>
       <c r="D25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E25" t="s">
         <v>243</v>
@@ -4719,7 +4759,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B26" t="s">
         <v>206</v>
@@ -4728,7 +4768,7 @@
         <v>241</v>
       </c>
       <c r="D26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E26" t="s">
         <v>242</v>
@@ -4760,7 +4800,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B27" t="s">
         <v>206</v>
@@ -4801,7 +4841,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B28" t="s">
         <v>212</v>
@@ -4842,7 +4882,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B29" t="s">
         <v>212</v>
@@ -4883,7 +4923,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B30" t="s">
         <v>212</v>
@@ -4924,7 +4964,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B31" t="s">
         <v>212</v>
@@ -4965,7 +5005,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B32" t="s">
         <v>206</v>
@@ -5006,7 +5046,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B33" t="s">
         <v>206</v>
@@ -5015,7 +5055,7 @@
         <v>241</v>
       </c>
       <c r="D33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E33" t="s">
         <v>243</v>
@@ -5047,7 +5087,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B34" t="s">
         <v>206</v>
@@ -5088,7 +5128,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B35" t="s">
         <v>206</v>
@@ -5097,7 +5137,7 @@
         <v>241</v>
       </c>
       <c r="D35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E35" t="s">
         <v>243</v>
@@ -5129,7 +5169,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B36" t="s">
         <v>220</v>
@@ -5170,7 +5210,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B37" t="s">
         <v>220</v>
@@ -5179,7 +5219,7 @@
         <v>241</v>
       </c>
       <c r="D37" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E37" t="s">
         <v>243</v>
@@ -5211,7 +5251,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B38" t="s">
         <v>212</v>
@@ -5252,7 +5292,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B39" t="s">
         <v>212</v>
@@ -5293,7 +5333,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B40" t="s">
         <v>212</v>
@@ -5334,7 +5374,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B41" t="s">
         <v>212</v>
@@ -5375,7 +5415,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B42" t="s">
         <v>212</v>
@@ -5416,7 +5456,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B43" t="s">
         <v>212</v>
@@ -5457,7 +5497,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B44" t="s">
         <v>206</v>
@@ -5498,7 +5538,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B45" t="s">
         <v>206</v>
@@ -5539,7 +5579,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B46" t="s">
         <v>220</v>
@@ -5548,7 +5588,7 @@
         <v>241</v>
       </c>
       <c r="D46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E46" t="s">
         <v>242</v>
@@ -5580,7 +5620,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45975</v>
+        <v>45981</v>
       </c>
       <c r="B47" t="s">
         <v>220</v>
@@ -5617,6 +5657,170 @@
       </c>
       <c r="M47" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48" t="s">
+        <v>243</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B49" t="s">
+        <v>220</v>
+      </c>
+      <c r="C49" t="s">
+        <v>241</v>
+      </c>
+      <c r="D49" t="s">
+        <v>221</v>
+      </c>
+      <c r="E49" t="s">
+        <v>242</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>9</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" t="s">
+        <v>208</v>
+      </c>
+      <c r="E50" t="s">
+        <v>242</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>6</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>45981</v>
+      </c>
+      <c r="B51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" t="s">
+        <v>241</v>
+      </c>
+      <c r="D51" t="s">
+        <v>209</v>
+      </c>
+      <c r="E51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,16 +9,16 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="91" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="92" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="93" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="94" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="95" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="96" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -491,12 +491,12 @@
     <t>Los luises</t>
   </si>
   <si>
+    <t>Fla-Delicatessen</t>
+  </si>
+  <si>
     <t>Andrés-Alberto</t>
   </si>
   <si>
-    <t>Fla-Delicatessen</t>
-  </si>
-  <si>
     <t>Nuño-Jorge</t>
   </si>
   <si>
@@ -536,12 +536,12 @@
     <t>Vicente-Victor</t>
   </si>
   <si>
+    <t>Alba-Luis</t>
+  </si>
+  <si>
     <t>Teresa-Leticia</t>
   </si>
   <si>
-    <t>Alba-Luis</t>
-  </si>
-  <si>
     <t>Alberto-Esperanza</t>
   </si>
   <si>
@@ -602,6 +602,18 @@
     <t>Empata</t>
   </si>
   <si>
+    <t>7-5,3-6</t>
+  </si>
+  <si>
+    <t>5-7,6-3</t>
+  </si>
+  <si>
+    <t>6-2,6-2</t>
+  </si>
+  <si>
+    <t>2-6,2-6</t>
+  </si>
+  <si>
     <t xml:space="preserve">GRUPO</t>
   </si>
   <si>
@@ -662,22 +674,22 @@
     <t xml:space="preserve">Tania-Laura</t>
   </si>
   <si>
+    <t xml:space="preserve">Miguel Ángel-Juanjo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Natalia-Jose Antonio</t>
   </si>
   <si>
-    <t xml:space="preserve">Miguel Ángel-Juanjo</t>
+    <t xml:space="preserve">Cristina-Carmen</t>
   </si>
   <si>
     <t xml:space="preserve">Alberto-Andrés</t>
   </si>
   <si>
-    <t xml:space="preserve">Cristina-Carmen</t>
+    <t xml:space="preserve">Luis-Raquel</t>
   </si>
   <si>
     <t xml:space="preserve">Mario-Lourdes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis-Raquel</t>
   </si>
   <si>
     <t xml:space="preserve">mediocre medio</t>
@@ -1119,7 +1131,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1652,6 +1664,46 @@
       </c>
       <c r="F26" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2376,51 +2428,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -2452,13 +2504,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
@@ -2490,13 +2542,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -2528,13 +2580,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -2566,13 +2618,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2604,13 +2656,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D7" t="n">
         <v>12</v>
@@ -2642,51 +2694,51 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
       <c r="J8" t="n">
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L8" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
@@ -2704,65 +2756,65 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="L9" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>27</v>
       </c>
       <c r="L10" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D11" t="n">
         <v>3</v>
@@ -2786,65 +2838,65 @@
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="L11" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B13" t="n">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2853,30 +2905,30 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L13" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D14" t="n">
         <v>9</v>
@@ -2908,13 +2960,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
@@ -2946,13 +2998,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
@@ -2984,13 +3036,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -3022,13 +3074,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D18" t="n">
         <v>3</v>
@@ -3060,13 +3112,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B19" t="n">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -3112,45 +3164,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -3176,13 +3228,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
@@ -3208,13 +3260,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -3240,13 +3292,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -3272,13 +3324,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3304,13 +3356,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D7" t="n">
         <v>9</v>
@@ -3336,13 +3388,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D8" t="n">
         <v>3</v>
@@ -3368,13 +3420,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
@@ -3400,13 +3452,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
@@ -3432,13 +3484,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D11" t="n">
         <v>3</v>
@@ -3464,13 +3516,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3496,13 +3548,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D13" t="n">
         <v>12</v>
@@ -3528,31 +3580,31 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
         <v>6</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
@@ -3560,13 +3612,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
@@ -3584,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
@@ -3592,45 +3644,45 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -3656,51 +3708,51 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B19" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -3709,13 +3761,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3734,60 +3786,60 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" t="s">
         <v>203</v>
       </c>
-      <c r="H1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K1" t="s">
-        <v>199</v>
-      </c>
       <c r="L1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -3816,19 +3868,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3857,19 +3909,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -3898,19 +3950,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -3939,19 +3991,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -3980,19 +4032,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -4021,19 +4073,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -4062,19 +4114,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D9" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -4103,19 +4155,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E10" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -4144,19 +4196,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E11" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -4185,19 +4237,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D12" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E12" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -4226,19 +4278,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E13" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -4267,19 +4319,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C14" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E14" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -4308,19 +4360,19 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C15" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E15" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -4349,19 +4401,19 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C16" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E16" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
@@ -4390,19 +4442,19 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C17" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D17" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E17" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -4431,19 +4483,19 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B18" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D18" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E18" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
@@ -4472,19 +4524,19 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C19" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E19" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -4513,19 +4565,19 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E20" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
@@ -4554,19 +4606,19 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C21" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D21" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E21" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -4595,19 +4647,19 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C22" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D22" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E22" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
@@ -4636,19 +4688,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D23" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E23" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -4677,19 +4729,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B24" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D24" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E24" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
@@ -4718,19 +4770,19 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B25" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C25" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D25" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E25" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -4759,19 +4811,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B26" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C26" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D26" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E26" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
@@ -4800,19 +4852,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C27" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D27" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E27" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -4841,19 +4893,19 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B28" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C28" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D28" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E28" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
@@ -4882,19 +4934,19 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B29" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C29" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D29" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E29" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -4923,19 +4975,19 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B30" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C30" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D30" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E30" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F30" t="n">
         <v>2</v>
@@ -4964,19 +5016,19 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B31" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C31" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D31" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E31" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -5005,19 +5057,19 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B32" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C32" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D32" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E32" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F32" t="n">
         <v>2</v>
@@ -5046,19 +5098,19 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B33" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C33" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D33" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E33" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -5087,19 +5139,19 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B34" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D34" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E34" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F34" t="n">
         <v>2</v>
@@ -5128,19 +5180,19 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B35" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D35" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E35" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -5169,19 +5221,19 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B36" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D36" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F36" t="n">
         <v>2</v>
@@ -5210,19 +5262,19 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B37" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D37" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E37" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -5251,19 +5303,19 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B38" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C38" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D38" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E38" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F38" t="n">
         <v>2</v>
@@ -5292,19 +5344,19 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B39" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C39" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D39" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E39" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -5333,19 +5385,19 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B40" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C40" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D40" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E40" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F40" t="n">
         <v>2</v>
@@ -5374,19 +5426,19 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B41" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C41" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D41" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -5415,19 +5467,19 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B42" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C42" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D42" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E42" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
@@ -5456,19 +5508,19 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B43" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C43" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D43" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E43" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -5497,19 +5549,19 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B44" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C44" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D44" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E44" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F44" t="n">
         <v>2</v>
@@ -5538,19 +5590,19 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B45" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C45" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D45" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -5579,19 +5631,19 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B46" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C46" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D46" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E46" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F46" t="n">
         <v>2</v>
@@ -5620,19 +5672,19 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B47" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C47" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D47" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E47" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -5661,19 +5713,19 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B48" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C48" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D48" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E48" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -5702,19 +5754,19 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C49" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D49" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E49" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F49" t="n">
         <v>2</v>
@@ -5743,19 +5795,19 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B50" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C50" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D50" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E50" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F50" t="n">
         <v>2</v>
@@ -5784,19 +5836,19 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C51" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D51" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E51" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -5820,6 +5872,170 @@
         <v>1</v>
       </c>
       <c r="M51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B52" t="s">
+        <v>216</v>
+      </c>
+      <c r="C52" t="s">
+        <v>245</v>
+      </c>
+      <c r="D52" t="s">
+        <v>222</v>
+      </c>
+      <c r="E52" t="s">
+        <v>248</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B53" t="s">
+        <v>216</v>
+      </c>
+      <c r="C53" t="s">
+        <v>245</v>
+      </c>
+      <c r="D53" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" t="s">
+        <v>248</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B54" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" t="s">
+        <v>246</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4</v>
+      </c>
+      <c r="J54" t="n">
+        <v>9</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B55" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" t="s">
+        <v>245</v>
+      </c>
+      <c r="D55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" t="s">
+        <v>247</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
         <v>2</v>
       </c>
     </row>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,16 +9,16 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="94" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="95" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="96" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="97" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="98" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="99" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -449,6 +449,18 @@
     <t>1-6,3-6</t>
   </si>
   <si>
+    <t>7-5,3-6</t>
+  </si>
+  <si>
+    <t>5-7,6-3</t>
+  </si>
+  <si>
+    <t>6-2,6-2</t>
+  </si>
+  <si>
+    <t>2-6,2-6</t>
+  </si>
+  <si>
     <t>GRUPO</t>
   </si>
   <si>
@@ -509,24 +521,24 @@
     <t>Tania-Laura</t>
   </si>
   <si>
+    <t>Miguel Ángel-Juanjo</t>
+  </si>
+  <si>
     <t>Natalia-Jose Antonio</t>
   </si>
   <si>
-    <t>Miguel Ángel-Juanjo</t>
+    <t>Cristina-Carmen</t>
   </si>
   <si>
     <t>Alberto-Andrés</t>
   </si>
   <si>
-    <t>Cristina-Carmen</t>
+    <t>Luis-Raquel</t>
   </si>
   <si>
     <t>Mario-Lourdes</t>
   </si>
   <si>
-    <t>Luis-Raquel</t>
-  </si>
-  <si>
     <t>mediocre medio</t>
   </si>
   <si>
@@ -602,16 +614,10 @@
     <t>Empata</t>
   </si>
   <si>
-    <t>7-5,3-6</t>
-  </si>
-  <si>
-    <t>5-7,6-3</t>
-  </si>
-  <si>
-    <t>6-2,6-2</t>
-  </si>
-  <si>
-    <t>2-6,2-6</t>
+    <t>6-0,6-1</t>
+  </si>
+  <si>
+    <t>0-6,1-6</t>
   </si>
   <si>
     <t xml:space="preserve">GRUPO</t>
@@ -698,10 +704,10 @@
     <t xml:space="preserve">Salvador-Marta</t>
   </si>
   <si>
+    <t xml:space="preserve">Alba-Luis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vicente-Victor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alba-Luis</t>
   </si>
   <si>
     <t xml:space="preserve">Teresa-Leticia</t>
@@ -1130,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="true" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1680,10 +1686,10 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28">
@@ -1700,10 +1706,30 @@
         <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="F28" t="s">
-        <v>197</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2428,51 +2454,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -2504,13 +2530,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
@@ -2542,13 +2568,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -2580,13 +2606,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -2618,13 +2644,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2656,13 +2682,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D7" t="n">
         <v>12</v>
@@ -2694,13 +2720,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D8" t="n">
         <v>9</v>
@@ -2732,13 +2758,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
@@ -2770,13 +2796,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D10" t="n">
         <v>4</v>
@@ -2808,13 +2834,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D11" t="n">
         <v>3</v>
@@ -2846,13 +2872,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -2884,13 +2910,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B13" t="n">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -2922,13 +2948,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D14" t="n">
         <v>9</v>
@@ -2960,57 +2986,57 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -3019,30 +3045,30 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L16" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -3074,13 +3100,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D18" t="n">
         <v>3</v>
@@ -3112,19 +3138,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B19" t="n">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -3133,19 +3159,19 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3164,45 +3190,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -3228,13 +3254,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
@@ -3260,13 +3286,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -3292,13 +3318,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -3324,13 +3350,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3356,13 +3382,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D7" t="n">
         <v>9</v>
@@ -3388,51 +3414,51 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -3441,24 +3467,24 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
@@ -3484,13 +3510,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D11" t="n">
         <v>3</v>
@@ -3516,19 +3542,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -3537,24 +3563,24 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D13" t="n">
         <v>12</v>
@@ -3580,13 +3606,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D14" t="n">
         <v>9</v>
@@ -3612,13 +3638,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
@@ -3644,13 +3670,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D16" t="n">
         <v>4</v>
@@ -3676,13 +3702,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -3708,13 +3734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -3740,13 +3766,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B19" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -3786,60 +3812,60 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L1" t="s">
         <v>206</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>207</v>
-      </c>
-      <c r="H1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J1" t="s">
-        <v>244</v>
-      </c>
-      <c r="K1" t="s">
-        <v>203</v>
-      </c>
-      <c r="L1" t="s">
-        <v>204</v>
-      </c>
-      <c r="M1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -3868,19 +3894,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3909,19 +3935,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -3950,19 +3976,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -3991,19 +4017,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -4032,19 +4058,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -4073,19 +4099,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -4114,19 +4140,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -4155,19 +4181,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -4196,19 +4222,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -4237,19 +4263,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -4278,19 +4304,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -4319,19 +4345,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C14" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D14" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E14" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -4360,19 +4386,19 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C15" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D15" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -4401,19 +4427,19 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C16" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E16" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
@@ -4442,19 +4468,19 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E17" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -4483,19 +4509,19 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D18" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E18" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
@@ -4524,19 +4550,19 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C19" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D19" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -4565,19 +4591,19 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E20" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
@@ -4606,19 +4632,19 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C21" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D21" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -4647,19 +4673,19 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B22" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C22" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E22" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
@@ -4688,19 +4714,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B23" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C23" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D23" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E23" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -4729,19 +4755,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B24" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C24" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E24" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
@@ -4770,19 +4796,19 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C25" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E25" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -4811,19 +4837,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C26" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D26" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
@@ -4852,19 +4878,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -4893,19 +4919,19 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B28" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C28" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D28" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
@@ -4934,19 +4960,19 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C29" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D29" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E29" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -4975,19 +5001,19 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C30" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D30" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E30" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F30" t="n">
         <v>2</v>
@@ -5016,19 +5042,19 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -5057,19 +5083,19 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C32" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D32" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E32" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F32" t="n">
         <v>2</v>
@@ -5098,19 +5124,19 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B33" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C33" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D33" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E33" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -5139,19 +5165,19 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C34" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D34" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E34" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F34" t="n">
         <v>2</v>
@@ -5180,19 +5206,19 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B35" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C35" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D35" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E35" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -5221,19 +5247,19 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B36" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C36" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D36" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E36" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F36" t="n">
         <v>2</v>
@@ -5262,19 +5288,19 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B37" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C37" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D37" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E37" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -5303,19 +5329,19 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C38" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D38" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E38" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F38" t="n">
         <v>2</v>
@@ -5344,19 +5370,19 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C39" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D39" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E39" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -5385,19 +5411,19 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E40" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F40" t="n">
         <v>2</v>
@@ -5426,19 +5452,19 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C41" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D41" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E41" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -5467,19 +5493,19 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B42" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D42" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E42" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
@@ -5508,19 +5534,19 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C43" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D43" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E43" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -5549,19 +5575,19 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B44" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C44" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D44" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E44" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F44" t="n">
         <v>2</v>
@@ -5590,19 +5616,19 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B45" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C45" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D45" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E45" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -5631,19 +5657,19 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B46" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C46" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E46" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F46" t="n">
         <v>2</v>
@@ -5672,19 +5698,19 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B47" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C47" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D47" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E47" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -5713,19 +5739,19 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B48" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C48" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D48" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E48" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -5754,19 +5780,19 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B49" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C49" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D49" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E49" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F49" t="n">
         <v>2</v>
@@ -5795,19 +5821,19 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B50" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C50" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D50" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E50" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F50" t="n">
         <v>2</v>
@@ -5836,19 +5862,19 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B51" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C51" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D51" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E51" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -5877,19 +5903,19 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C52" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D52" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E52" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
@@ -5918,19 +5944,19 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B53" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C53" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D53" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E53" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
@@ -5959,19 +5985,19 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C54" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D54" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E54" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F54" t="n">
         <v>2</v>
@@ -6000,42 +6026,124 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C55" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D55" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E55" t="s">
+        <v>249</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" t="s">
         <v>247</v>
       </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>2</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
+      <c r="D56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E56" t="s">
+        <v>248</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3</v>
+      </c>
+      <c r="J56" t="n">
+        <v>6</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>45985</v>
+      </c>
+      <c r="B57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C57" t="s">
+        <v>247</v>
+      </c>
+      <c r="D57" t="s">
+        <v>232</v>
+      </c>
+      <c r="E57" t="s">
+        <v>249</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
         <v>2</v>
       </c>
     </row>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,9 +9,9 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="97" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="98" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="99" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="100" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="101" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="102" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -461,6 +461,12 @@
     <t>2-6,2-6</t>
   </si>
   <si>
+    <t>6-0,6-1</t>
+  </si>
+  <si>
+    <t>0-6,1-6</t>
+  </si>
+  <si>
     <t>GRUPO</t>
   </si>
   <si>
@@ -545,12 +551,12 @@
     <t>Salvador-Marta</t>
   </si>
   <si>
+    <t>Alba-Luis</t>
+  </si>
+  <si>
     <t>Vicente-Victor</t>
   </si>
   <si>
-    <t>Alba-Luis</t>
-  </si>
-  <si>
     <t>Teresa-Leticia</t>
   </si>
   <si>
@@ -614,12 +620,6 @@
     <t>Empata</t>
   </si>
   <si>
-    <t>6-0,6-1</t>
-  </si>
-  <si>
-    <t>0-6,1-6</t>
-  </si>
-  <si>
     <t xml:space="preserve">GRUPO</t>
   </si>
   <si>
@@ -680,10 +680,10 @@
     <t xml:space="preserve">Tania-Laura</t>
   </si>
   <si>
+    <t xml:space="preserve">Natalia-Jose Antonio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Miguel Ángel-Juanjo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natalia-Jose Antonio</t>
   </si>
   <si>
     <t xml:space="preserve">Cristina-Carmen</t>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1726,10 +1726,30 @@
         <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="F29" t="s">
-        <v>199</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2744,16 +2764,16 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L8" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -2767,31 +2787,31 @@
         <v>221</v>
       </c>
       <c r="D9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
         <v>6</v>
       </c>
-      <c r="E9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5</v>
-      </c>
       <c r="J9" t="n">
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L9" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -2922,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2931,19 +2951,19 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -3630,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
@@ -3647,22 +3667,22 @@
         <v>221</v>
       </c>
       <c r="D15" t="n">
+        <v>9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
         <v>6</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
@@ -3778,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -3787,13 +3807,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3853,7 +3873,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B2" t="s">
         <v>212</v>
@@ -3894,7 +3914,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B3" t="s">
         <v>212</v>
@@ -3935,7 +3955,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B4" t="s">
         <v>218</v>
@@ -3976,7 +3996,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B5" t="s">
         <v>218</v>
@@ -3985,7 +4005,7 @@
         <v>247</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E5" t="s">
         <v>249</v>
@@ -4017,7 +4037,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B6" t="s">
         <v>218</v>
@@ -4058,7 +4078,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B7" t="s">
         <v>218</v>
@@ -4099,7 +4119,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B8" t="s">
         <v>226</v>
@@ -4140,7 +4160,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B9" t="s">
         <v>226</v>
@@ -4181,7 +4201,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B10" t="s">
         <v>212</v>
@@ -4222,7 +4242,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B11" t="s">
         <v>212</v>
@@ -4263,7 +4283,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B12" t="s">
         <v>212</v>
@@ -4304,7 +4324,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B13" t="s">
         <v>212</v>
@@ -4345,7 +4365,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B14" t="s">
         <v>226</v>
@@ -4386,7 +4406,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B15" t="s">
         <v>226</v>
@@ -4427,7 +4447,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B16" t="s">
         <v>218</v>
@@ -4468,7 +4488,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B17" t="s">
         <v>218</v>
@@ -4477,7 +4497,7 @@
         <v>247</v>
       </c>
       <c r="D17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E17" t="s">
         <v>249</v>
@@ -4509,7 +4529,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B18" t="s">
         <v>218</v>
@@ -4550,7 +4570,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B19" t="s">
         <v>218</v>
@@ -4591,7 +4611,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B20" t="s">
         <v>218</v>
@@ -4600,7 +4620,7 @@
         <v>247</v>
       </c>
       <c r="D20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E20" t="s">
         <v>248</v>
@@ -4632,7 +4652,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B21" t="s">
         <v>218</v>
@@ -4673,7 +4693,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B22" t="s">
         <v>226</v>
@@ -4714,7 +4734,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B23" t="s">
         <v>226</v>
@@ -4755,7 +4775,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B24" t="s">
         <v>226</v>
@@ -4796,7 +4816,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B25" t="s">
         <v>226</v>
@@ -4837,7 +4857,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B26" t="s">
         <v>212</v>
@@ -4878,7 +4898,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B27" t="s">
         <v>212</v>
@@ -4919,7 +4939,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B28" t="s">
         <v>218</v>
@@ -4960,7 +4980,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B29" t="s">
         <v>218</v>
@@ -5001,7 +5021,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B30" t="s">
         <v>218</v>
@@ -5042,7 +5062,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B31" t="s">
         <v>218</v>
@@ -5083,7 +5103,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B32" t="s">
         <v>212</v>
@@ -5124,7 +5144,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B33" t="s">
         <v>212</v>
@@ -5165,7 +5185,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B34" t="s">
         <v>212</v>
@@ -5206,7 +5226,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B35" t="s">
         <v>212</v>
@@ -5247,7 +5267,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B36" t="s">
         <v>226</v>
@@ -5288,7 +5308,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B37" t="s">
         <v>226</v>
@@ -5329,7 +5349,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B38" t="s">
         <v>218</v>
@@ -5338,7 +5358,7 @@
         <v>247</v>
       </c>
       <c r="D38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E38" t="s">
         <v>248</v>
@@ -5370,7 +5390,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B39" t="s">
         <v>218</v>
@@ -5411,7 +5431,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B40" t="s">
         <v>218</v>
@@ -5420,7 +5440,7 @@
         <v>247</v>
       </c>
       <c r="D40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E40" t="s">
         <v>248</v>
@@ -5452,7 +5472,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B41" t="s">
         <v>218</v>
@@ -5493,7 +5513,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B42" t="s">
         <v>218</v>
@@ -5502,7 +5522,7 @@
         <v>247</v>
       </c>
       <c r="D42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E42" t="s">
         <v>248</v>
@@ -5534,7 +5554,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B43" t="s">
         <v>218</v>
@@ -5575,7 +5595,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B44" t="s">
         <v>212</v>
@@ -5616,7 +5636,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B45" t="s">
         <v>212</v>
@@ -5657,7 +5677,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B46" t="s">
         <v>226</v>
@@ -5698,7 +5718,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B47" t="s">
         <v>226</v>
@@ -5739,7 +5759,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B48" t="s">
         <v>226</v>
@@ -5780,7 +5800,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B49" t="s">
         <v>226</v>
@@ -5821,7 +5841,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B50" t="s">
         <v>212</v>
@@ -5862,7 +5882,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B51" t="s">
         <v>212</v>
@@ -5903,7 +5923,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B52" t="s">
         <v>218</v>
@@ -5944,7 +5964,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B53" t="s">
         <v>218</v>
@@ -5985,7 +6005,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B54" t="s">
         <v>218</v>
@@ -5994,7 +6014,7 @@
         <v>247</v>
       </c>
       <c r="D54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E54" t="s">
         <v>248</v>
@@ -6026,7 +6046,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B55" t="s">
         <v>218</v>
@@ -6067,7 +6087,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B56" t="s">
         <v>226</v>
@@ -6108,7 +6128,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="B57" t="s">
         <v>226</v>
@@ -6145,6 +6165,88 @@
       </c>
       <c r="M57" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B58" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58" t="s">
+        <v>220</v>
+      </c>
+      <c r="E58" t="s">
+        <v>248</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4</v>
+      </c>
+      <c r="J58" t="n">
+        <v>9</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" t="s">
+        <v>247</v>
+      </c>
+      <c r="D59" t="s">
+        <v>225</v>
+      </c>
+      <c r="E59" t="s">
+        <v>249</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,16 +9,16 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="100" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="101" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="102" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="103" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="104" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="105" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -527,12 +527,12 @@
     <t>Tania-Laura</t>
   </si>
   <si>
+    <t>Natalia-Jose Antonio</t>
+  </si>
+  <si>
     <t>Miguel Ángel-Juanjo</t>
   </si>
   <si>
-    <t>Natalia-Jose Antonio</t>
-  </si>
-  <si>
     <t>Cristina-Carmen</t>
   </si>
   <si>
@@ -618,6 +618,12 @@
   </si>
   <si>
     <t>Empata</t>
+  </si>
+  <si>
+    <t>7-6,6-7</t>
+  </si>
+  <si>
+    <t>6-7,7-6</t>
   </si>
   <si>
     <t xml:space="preserve">GRUPO</t>
@@ -1136,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="true" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1750,6 +1756,26 @@
       </c>
       <c r="F30" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2474,51 +2500,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -2550,13 +2576,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
@@ -2588,13 +2614,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -2626,13 +2652,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -2664,13 +2690,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2702,13 +2728,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D7" t="n">
         <v>12</v>
@@ -2740,13 +2766,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D8" t="n">
         <v>9</v>
@@ -2778,13 +2804,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D9" t="n">
         <v>9</v>
@@ -2816,13 +2842,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D10" t="n">
         <v>4</v>
@@ -2854,13 +2880,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D11" t="n">
         <v>3</v>
@@ -2892,89 +2918,89 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K12" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L12" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B13" t="n">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L13" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D14" t="n">
         <v>9</v>
@@ -3006,13 +3032,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
@@ -3044,13 +3070,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D16" t="n">
         <v>3</v>
@@ -3082,13 +3108,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -3120,13 +3146,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D18" t="n">
         <v>3</v>
@@ -3158,13 +3184,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B19" t="n">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -3210,45 +3236,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -3274,13 +3300,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
@@ -3306,13 +3332,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -3338,13 +3364,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -3370,13 +3396,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3402,13 +3428,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D7" t="n">
         <v>9</v>
@@ -3434,13 +3460,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D8" t="n">
         <v>6</v>
@@ -3466,13 +3492,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
@@ -3498,13 +3524,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
@@ -3530,13 +3556,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D11" t="n">
         <v>3</v>
@@ -3562,13 +3588,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3594,13 +3620,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D13" t="n">
         <v>12</v>
@@ -3626,13 +3652,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D14" t="n">
         <v>9</v>
@@ -3658,13 +3684,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D15" t="n">
         <v>9</v>
@@ -3690,13 +3716,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D16" t="n">
         <v>4</v>
@@ -3722,13 +3748,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -3754,66 +3780,66 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B19" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3832,60 +3858,60 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" t="s">
         <v>208</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>209</v>
-      </c>
-      <c r="H1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I1" t="s">
-        <v>245</v>
-      </c>
-      <c r="J1" t="s">
-        <v>246</v>
-      </c>
-      <c r="K1" t="s">
-        <v>205</v>
-      </c>
-      <c r="L1" t="s">
-        <v>206</v>
-      </c>
-      <c r="M1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -3914,19 +3940,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3955,19 +3981,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -3996,19 +4022,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -4037,19 +4063,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -4078,19 +4104,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -4119,19 +4145,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -4160,19 +4186,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -4201,19 +4227,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -4242,19 +4268,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -4283,19 +4309,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B12" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -4324,19 +4350,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -4365,19 +4391,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B14" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C14" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D14" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E14" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -4406,19 +4432,19 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D15" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E15" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -4447,19 +4473,19 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C16" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D16" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
@@ -4488,19 +4514,19 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C17" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -4529,19 +4555,19 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B18" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
@@ -4570,19 +4596,19 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D19" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E19" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -4611,19 +4637,19 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D20" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E20" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
@@ -4652,19 +4678,19 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E21" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -4693,19 +4719,19 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E22" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
@@ -4734,19 +4760,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B23" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C23" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E23" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -4775,19 +4801,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B24" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C24" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D24" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E24" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
@@ -4816,19 +4842,19 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B25" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C25" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D25" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E25" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -4857,19 +4883,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E26" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
@@ -4898,19 +4924,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B27" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E27" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -4939,19 +4965,19 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B28" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C28" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D28" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
@@ -4980,19 +5006,19 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B29" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C29" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -5021,19 +5047,19 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B30" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C30" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D30" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E30" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F30" t="n">
         <v>2</v>
@@ -5062,19 +5088,19 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D31" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -5103,19 +5129,19 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B32" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C32" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D32" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E32" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F32" t="n">
         <v>2</v>
@@ -5144,19 +5170,19 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B33" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C33" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D33" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E33" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -5185,19 +5211,19 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B34" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C34" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D34" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E34" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F34" t="n">
         <v>2</v>
@@ -5226,19 +5252,19 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B35" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C35" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D35" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E35" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -5267,19 +5293,19 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B36" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C36" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D36" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E36" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F36" t="n">
         <v>2</v>
@@ -5308,19 +5334,19 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B37" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C37" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D37" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E37" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -5349,19 +5375,19 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B38" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C38" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D38" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E38" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F38" t="n">
         <v>2</v>
@@ -5390,19 +5416,19 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B39" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C39" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D39" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E39" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -5431,19 +5457,19 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C40" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D40" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E40" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F40" t="n">
         <v>2</v>
@@ -5472,19 +5498,19 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B41" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C41" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D41" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E41" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -5513,19 +5539,19 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C42" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D42" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E42" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
@@ -5554,19 +5580,19 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C43" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D43" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E43" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -5595,19 +5621,19 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B44" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C44" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D44" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E44" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F44" t="n">
         <v>2</v>
@@ -5636,19 +5662,19 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B45" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C45" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D45" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -5677,19 +5703,19 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B46" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C46" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E46" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F46" t="n">
         <v>2</v>
@@ -5718,19 +5744,19 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B47" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C47" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D47" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E47" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -5759,19 +5785,19 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C48" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D48" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E48" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -5800,19 +5826,19 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B49" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C49" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D49" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E49" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F49" t="n">
         <v>2</v>
@@ -5841,19 +5867,19 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B50" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C50" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D50" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E50" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F50" t="n">
         <v>2</v>
@@ -5882,19 +5908,19 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B51" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C51" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D51" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E51" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -5923,19 +5949,19 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B52" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C52" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D52" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E52" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
@@ -5964,19 +5990,19 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B53" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C53" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D53" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E53" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
@@ -6005,19 +6031,19 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B54" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C54" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D54" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E54" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F54" t="n">
         <v>2</v>
@@ -6046,19 +6072,19 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B55" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C55" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D55" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E55" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -6087,19 +6113,19 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B56" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C56" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D56" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E56" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F56" t="n">
         <v>2</v>
@@ -6128,19 +6154,19 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C57" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D57" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E57" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -6169,19 +6195,19 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B58" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C58" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D58" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E58" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F58" t="n">
         <v>2</v>
@@ -6210,42 +6236,124 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45988</v>
+        <v>45991</v>
       </c>
       <c r="B59" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C59" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D59" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E59" t="s">
+        <v>251</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B60" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" t="s">
         <v>249</v>
       </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
+      <c r="D60" t="s">
+        <v>226</v>
+      </c>
+      <c r="E60" t="s">
+        <v>252</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B61" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" t="s">
+        <v>249</v>
+      </c>
+      <c r="D61" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" t="s">
+        <v>252</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="n">
         <v>3</v>
       </c>
     </row>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,9 +9,9 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="103" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="104" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="105" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="106" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="107" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="108" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -467,6 +467,12 @@
     <t>0-6,1-6</t>
   </si>
   <si>
+    <t>7-6,6-7</t>
+  </si>
+  <si>
+    <t>6-7,7-6</t>
+  </si>
+  <si>
     <t>GRUPO</t>
   </si>
   <si>
@@ -620,12 +626,6 @@
     <t>Empata</t>
   </si>
   <si>
-    <t>7-6,6-7</t>
-  </si>
-  <si>
-    <t>6-7,7-6</t>
-  </si>
-  <si>
     <t xml:space="preserve">GRUPO</t>
   </si>
   <si>
@@ -686,10 +686,10 @@
     <t xml:space="preserve">Tania-Laura</t>
   </si>
   <si>
+    <t xml:space="preserve">Miguel Ángel-Juanjo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Natalia-Jose Antonio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel Ángel-Juanjo</t>
   </si>
   <si>
     <t xml:space="preserve">Cristina-Carmen</t>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1772,10 +1772,30 @@
         <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="F31" t="s">
-        <v>201</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2775,14 +2795,14 @@
         <v>222</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
         <v>4</v>
       </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
@@ -2790,16 +2810,16 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -2816,28 +2836,28 @@
         <v>9</v>
       </c>
       <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
         <v>4</v>
       </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
       <c r="K9" t="n">
+        <v>60</v>
+      </c>
+      <c r="L9" t="n">
         <v>43</v>
-      </c>
-      <c r="L9" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -3661,14 +3681,14 @@
         <v>222</v>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="n">
         <v>4</v>
       </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
@@ -3676,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
@@ -3696,22 +3716,22 @@
         <v>9</v>
       </c>
       <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7</v>
+      </c>
+      <c r="J15" t="n">
         <v>4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -3899,7 +3919,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B2" t="s">
         <v>214</v>
@@ -3940,7 +3960,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B3" t="s">
         <v>214</v>
@@ -3981,7 +4001,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B4" t="s">
         <v>220</v>
@@ -4022,7 +4042,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B5" t="s">
         <v>220</v>
@@ -4031,7 +4051,7 @@
         <v>249</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E5" t="s">
         <v>251</v>
@@ -4063,7 +4083,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B6" t="s">
         <v>220</v>
@@ -4104,7 +4124,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B7" t="s">
         <v>220</v>
@@ -4145,7 +4165,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B8" t="s">
         <v>228</v>
@@ -4186,7 +4206,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B9" t="s">
         <v>228</v>
@@ -4227,7 +4247,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B10" t="s">
         <v>214</v>
@@ -4268,7 +4288,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B11" t="s">
         <v>214</v>
@@ -4309,7 +4329,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B12" t="s">
         <v>214</v>
@@ -4350,7 +4370,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B13" t="s">
         <v>214</v>
@@ -4391,7 +4411,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B14" t="s">
         <v>228</v>
@@ -4432,7 +4452,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B15" t="s">
         <v>228</v>
@@ -4473,7 +4493,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B16" t="s">
         <v>220</v>
@@ -4514,7 +4534,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B17" t="s">
         <v>220</v>
@@ -4523,7 +4543,7 @@
         <v>249</v>
       </c>
       <c r="D17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E17" t="s">
         <v>251</v>
@@ -4555,7 +4575,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B18" t="s">
         <v>220</v>
@@ -4596,7 +4616,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B19" t="s">
         <v>220</v>
@@ -4637,7 +4657,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B20" t="s">
         <v>220</v>
@@ -4646,7 +4666,7 @@
         <v>249</v>
       </c>
       <c r="D20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E20" t="s">
         <v>250</v>
@@ -4678,7 +4698,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B21" t="s">
         <v>220</v>
@@ -4719,7 +4739,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B22" t="s">
         <v>228</v>
@@ -4760,7 +4780,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B23" t="s">
         <v>228</v>
@@ -4801,7 +4821,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B24" t="s">
         <v>228</v>
@@ -4842,7 +4862,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B25" t="s">
         <v>228</v>
@@ -4883,7 +4903,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B26" t="s">
         <v>214</v>
@@ -4924,7 +4944,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B27" t="s">
         <v>214</v>
@@ -4965,7 +4985,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B28" t="s">
         <v>220</v>
@@ -5006,7 +5026,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B29" t="s">
         <v>220</v>
@@ -5047,7 +5067,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B30" t="s">
         <v>220</v>
@@ -5088,7 +5108,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B31" t="s">
         <v>220</v>
@@ -5129,7 +5149,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B32" t="s">
         <v>214</v>
@@ -5170,7 +5190,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B33" t="s">
         <v>214</v>
@@ -5211,7 +5231,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B34" t="s">
         <v>214</v>
@@ -5252,7 +5272,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B35" t="s">
         <v>214</v>
@@ -5293,7 +5313,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B36" t="s">
         <v>228</v>
@@ -5334,7 +5354,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B37" t="s">
         <v>228</v>
@@ -5375,7 +5395,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B38" t="s">
         <v>220</v>
@@ -5384,7 +5404,7 @@
         <v>249</v>
       </c>
       <c r="D38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E38" t="s">
         <v>250</v>
@@ -5416,7 +5436,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B39" t="s">
         <v>220</v>
@@ -5457,7 +5477,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B40" t="s">
         <v>220</v>
@@ -5466,7 +5486,7 @@
         <v>249</v>
       </c>
       <c r="D40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E40" t="s">
         <v>250</v>
@@ -5498,7 +5518,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B41" t="s">
         <v>220</v>
@@ -5539,7 +5559,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B42" t="s">
         <v>220</v>
@@ -5548,7 +5568,7 @@
         <v>249</v>
       </c>
       <c r="D42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E42" t="s">
         <v>250</v>
@@ -5580,7 +5600,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B43" t="s">
         <v>220</v>
@@ -5621,7 +5641,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B44" t="s">
         <v>214</v>
@@ -5662,7 +5682,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B45" t="s">
         <v>214</v>
@@ -5703,7 +5723,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B46" t="s">
         <v>228</v>
@@ -5744,7 +5764,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B47" t="s">
         <v>228</v>
@@ -5785,7 +5805,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B48" t="s">
         <v>228</v>
@@ -5826,7 +5846,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B49" t="s">
         <v>228</v>
@@ -5867,7 +5887,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B50" t="s">
         <v>214</v>
@@ -5908,7 +5928,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B51" t="s">
         <v>214</v>
@@ -5949,7 +5969,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B52" t="s">
         <v>220</v>
@@ -5990,7 +6010,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B53" t="s">
         <v>220</v>
@@ -6031,7 +6051,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B54" t="s">
         <v>220</v>
@@ -6040,7 +6060,7 @@
         <v>249</v>
       </c>
       <c r="D54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E54" t="s">
         <v>250</v>
@@ -6072,7 +6092,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B55" t="s">
         <v>220</v>
@@ -6113,7 +6133,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B56" t="s">
         <v>228</v>
@@ -6154,7 +6174,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B57" t="s">
         <v>228</v>
@@ -6195,7 +6215,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B58" t="s">
         <v>220</v>
@@ -6204,7 +6224,7 @@
         <v>249</v>
       </c>
       <c r="D58" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E58" t="s">
         <v>250</v>
@@ -6236,7 +6256,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B59" t="s">
         <v>220</v>
@@ -6277,7 +6297,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B60" t="s">
         <v>220</v>
@@ -6318,7 +6338,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="B61" t="s">
         <v>220</v>
@@ -6355,6 +6375,88 @@
       </c>
       <c r="M61" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B62" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" t="s">
+        <v>249</v>
+      </c>
+      <c r="D62" t="s">
+        <v>222</v>
+      </c>
+      <c r="E62" t="s">
+        <v>250</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" t="n">
+        <v>5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>12</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B63" t="s">
+        <v>220</v>
+      </c>
+      <c r="C63" t="s">
+        <v>249</v>
+      </c>
+      <c r="D63" t="s">
+        <v>223</v>
+      </c>
+      <c r="E63" t="s">
+        <v>251</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>9</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,9 +9,9 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="106" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="107" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="108" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="112" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="113" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="114" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -533,10 +533,10 @@
     <t>Tania-Laura</t>
   </si>
   <si>
+    <t>Miguel Ángel-Juanjo</t>
+  </si>
+  <si>
     <t>Natalia-Jose Antonio</t>
-  </si>
-  <si>
-    <t>Miguel Ángel-Juanjo</t>
   </si>
   <si>
     <t>Cristina-Carmen</t>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1796,6 +1796,26 @@
       </c>
       <c r="F32" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3023,31 +3043,31 @@
         <v>229</v>
       </c>
       <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>48</v>
+      </c>
+      <c r="L14" t="n">
         <v>9</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>36</v>
-      </c>
-      <c r="L14" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -3216,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -3225,19 +3245,19 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L19" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3457,13 +3477,13 @@
         <v>229</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -3472,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -3620,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -3629,13 +3649,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -6459,6 +6479,88 @@
         <v>2</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B64" t="s">
+        <v>228</v>
+      </c>
+      <c r="C64" t="s">
+        <v>249</v>
+      </c>
+      <c r="D64" t="s">
+        <v>234</v>
+      </c>
+      <c r="E64" t="s">
+        <v>251</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B65" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" t="s">
+        <v>249</v>
+      </c>
+      <c r="D65" t="s">
+        <v>229</v>
+      </c>
+      <c r="E65" t="s">
+        <v>250</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+      <c r="I65" t="n">
+        <v>4</v>
+      </c>
+      <c r="J65" t="n">
+        <v>12</v>
+      </c>
+      <c r="K65" t="n">
+        <v>4</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,9 +9,9 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="112" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="113" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="114" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="115" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="116" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="117" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1816,6 +1816,26 @@
       </c>
       <c r="F33" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3081,31 +3101,31 @@
         <v>230</v>
       </c>
       <c r="D15" t="n">
+        <v>9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
         <v>6</v>
       </c>
-      <c r="E15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
       <c r="J15" t="n">
         <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -3160,7 +3180,7 @@
         <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -3169,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L17" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
@@ -3509,22 +3529,22 @@
         <v>230</v>
       </c>
       <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
@@ -3576,7 +3596,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -3585,13 +3605,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -3939,7 +3959,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B2" t="s">
         <v>214</v>
@@ -3980,7 +4000,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B3" t="s">
         <v>214</v>
@@ -4021,7 +4041,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B4" t="s">
         <v>220</v>
@@ -4062,7 +4082,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B5" t="s">
         <v>220</v>
@@ -4103,7 +4123,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B6" t="s">
         <v>220</v>
@@ -4144,7 +4164,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B7" t="s">
         <v>220</v>
@@ -4185,7 +4205,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B8" t="s">
         <v>228</v>
@@ -4226,7 +4246,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B9" t="s">
         <v>228</v>
@@ -4267,7 +4287,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B10" t="s">
         <v>214</v>
@@ -4308,7 +4328,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B11" t="s">
         <v>214</v>
@@ -4349,7 +4369,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B12" t="s">
         <v>214</v>
@@ -4390,7 +4410,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B13" t="s">
         <v>214</v>
@@ -4431,7 +4451,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B14" t="s">
         <v>228</v>
@@ -4472,7 +4492,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B15" t="s">
         <v>228</v>
@@ -4513,7 +4533,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B16" t="s">
         <v>220</v>
@@ -4554,7 +4574,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B17" t="s">
         <v>220</v>
@@ -4595,7 +4615,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B18" t="s">
         <v>220</v>
@@ -4636,7 +4656,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B19" t="s">
         <v>220</v>
@@ -4677,7 +4697,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B20" t="s">
         <v>220</v>
@@ -4718,7 +4738,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B21" t="s">
         <v>220</v>
@@ -4759,7 +4779,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B22" t="s">
         <v>228</v>
@@ -4800,7 +4820,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B23" t="s">
         <v>228</v>
@@ -4841,7 +4861,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B24" t="s">
         <v>228</v>
@@ -4882,7 +4902,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B25" t="s">
         <v>228</v>
@@ -4923,7 +4943,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B26" t="s">
         <v>214</v>
@@ -4964,7 +4984,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B27" t="s">
         <v>214</v>
@@ -5005,7 +5025,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B28" t="s">
         <v>220</v>
@@ -5046,7 +5066,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B29" t="s">
         <v>220</v>
@@ -5087,7 +5107,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B30" t="s">
         <v>220</v>
@@ -5128,7 +5148,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B31" t="s">
         <v>220</v>
@@ -5169,7 +5189,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B32" t="s">
         <v>214</v>
@@ -5210,7 +5230,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B33" t="s">
         <v>214</v>
@@ -5251,7 +5271,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B34" t="s">
         <v>214</v>
@@ -5292,7 +5312,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B35" t="s">
         <v>214</v>
@@ -5333,7 +5353,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B36" t="s">
         <v>228</v>
@@ -5374,7 +5394,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B37" t="s">
         <v>228</v>
@@ -5415,7 +5435,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B38" t="s">
         <v>220</v>
@@ -5456,7 +5476,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B39" t="s">
         <v>220</v>
@@ -5497,7 +5517,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B40" t="s">
         <v>220</v>
@@ -5538,7 +5558,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B41" t="s">
         <v>220</v>
@@ -5579,7 +5599,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B42" t="s">
         <v>220</v>
@@ -5620,7 +5640,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B43" t="s">
         <v>220</v>
@@ -5661,7 +5681,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B44" t="s">
         <v>214</v>
@@ -5702,7 +5722,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B45" t="s">
         <v>214</v>
@@ -5743,7 +5763,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B46" t="s">
         <v>228</v>
@@ -5784,7 +5804,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B47" t="s">
         <v>228</v>
@@ -5825,7 +5845,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B48" t="s">
         <v>228</v>
@@ -5866,7 +5886,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B49" t="s">
         <v>228</v>
@@ -5907,7 +5927,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B50" t="s">
         <v>214</v>
@@ -5948,7 +5968,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B51" t="s">
         <v>214</v>
@@ -5989,7 +6009,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B52" t="s">
         <v>220</v>
@@ -6030,7 +6050,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B53" t="s">
         <v>220</v>
@@ -6071,7 +6091,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B54" t="s">
         <v>220</v>
@@ -6112,7 +6132,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B55" t="s">
         <v>220</v>
@@ -6153,7 +6173,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B56" t="s">
         <v>228</v>
@@ -6194,7 +6214,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B57" t="s">
         <v>228</v>
@@ -6235,7 +6255,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B58" t="s">
         <v>220</v>
@@ -6276,7 +6296,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B59" t="s">
         <v>220</v>
@@ -6317,7 +6337,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B60" t="s">
         <v>220</v>
@@ -6358,7 +6378,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B61" t="s">
         <v>220</v>
@@ -6399,7 +6419,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B62" t="s">
         <v>220</v>
@@ -6440,7 +6460,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B63" t="s">
         <v>220</v>
@@ -6481,7 +6501,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B64" t="s">
         <v>228</v>
@@ -6522,7 +6542,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
       <c r="B65" t="s">
         <v>228</v>
@@ -6559,6 +6579,88 @@
       </c>
       <c r="M65" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B66" t="s">
+        <v>228</v>
+      </c>
+      <c r="C66" t="s">
+        <v>249</v>
+      </c>
+      <c r="D66" t="s">
+        <v>230</v>
+      </c>
+      <c r="E66" t="s">
+        <v>250</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4</v>
+      </c>
+      <c r="J66" t="n">
+        <v>9</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B67" t="s">
+        <v>228</v>
+      </c>
+      <c r="C67" t="s">
+        <v>249</v>
+      </c>
+      <c r="D67" t="s">
+        <v>232</v>
+      </c>
+      <c r="E67" t="s">
+        <v>251</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,9 +9,9 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="115" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="116" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="117" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="118" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="119" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="120" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -692,10 +692,10 @@
     <t xml:space="preserve">Natalia-Jose Antonio</t>
   </si>
   <si>
+    <t xml:space="preserve">Alberto-Andrés</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cristina-Carmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberto-Andrés</t>
   </si>
   <si>
     <t xml:space="preserve">Luis-Raquel</t>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1836,6 +1836,26 @@
       </c>
       <c r="F34" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2911,31 +2931,31 @@
         <v>224</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="L10" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -2949,31 +2969,31 @@
         <v>225</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K11" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L11" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -3785,25 +3805,25 @@
         <v>224</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -3817,25 +3837,25 @@
         <v>225</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -4173,7 +4193,7 @@
         <v>249</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
         <v>251</v>
@@ -4542,7 +4562,7 @@
         <v>249</v>
       </c>
       <c r="D16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E16" t="s">
         <v>250</v>
@@ -4624,7 +4644,7 @@
         <v>249</v>
       </c>
       <c r="D18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E18" t="s">
         <v>250</v>
@@ -5157,7 +5177,7 @@
         <v>249</v>
       </c>
       <c r="D31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E31" t="s">
         <v>251</v>
@@ -5485,7 +5505,7 @@
         <v>249</v>
       </c>
       <c r="D39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E39" t="s">
         <v>251</v>
@@ -5567,7 +5587,7 @@
         <v>249</v>
       </c>
       <c r="D41" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E41" t="s">
         <v>251</v>
@@ -6059,7 +6079,7 @@
         <v>249</v>
       </c>
       <c r="D53" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E53" t="s">
         <v>252</v>
@@ -6660,6 +6680,88 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B68" t="s">
+        <v>220</v>
+      </c>
+      <c r="C68" t="s">
+        <v>249</v>
+      </c>
+      <c r="D68" t="s">
+        <v>224</v>
+      </c>
+      <c r="E68" t="s">
+        <v>250</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" t="n">
+        <v>4</v>
+      </c>
+      <c r="J68" t="n">
+        <v>6</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B69" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" t="s">
+        <v>249</v>
+      </c>
+      <c r="D69" t="s">
+        <v>225</v>
+      </c>
+      <c r="E69" t="s">
+        <v>251</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>5</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
         <v>3</v>
       </c>
     </row>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,16 +9,16 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="118" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="119" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="120" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="127" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="128" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="129" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -539,12 +539,12 @@
     <t>Natalia-Jose Antonio</t>
   </si>
   <si>
+    <t>Alberto-Andrés</t>
+  </si>
+  <si>
     <t>Cristina-Carmen</t>
   </si>
   <si>
-    <t>Alberto-Andrés</t>
-  </si>
-  <si>
     <t>Luis-Raquel</t>
   </si>
   <si>
@@ -626,6 +626,24 @@
     <t>Empata</t>
   </si>
   <si>
+    <t>6-1,6-1</t>
+  </si>
+  <si>
+    <t>1-6,1-6</t>
+  </si>
+  <si>
+    <t>6-0,6-2</t>
+  </si>
+  <si>
+    <t>0-6,2-6</t>
+  </si>
+  <si>
+    <t>6-0,7-5</t>
+  </si>
+  <si>
+    <t>0-6,5-7</t>
+  </si>
+  <si>
     <t xml:space="preserve">GRUPO</t>
   </si>
   <si>
@@ -683,15 +701,15 @@
     <t xml:space="preserve">mediocre bajo</t>
   </si>
   <si>
+    <t xml:space="preserve">Miguel Ángel-Juanjo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalia-Jose Antonio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tania-Laura</t>
   </si>
   <si>
-    <t xml:space="preserve">Miguel Ángel-Juanjo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natalia-Jose Antonio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alberto-Andrés</t>
   </si>
   <si>
@@ -713,13 +731,13 @@
     <t xml:space="preserve">Alba-Luis</t>
   </si>
   <si>
+    <t xml:space="preserve">Alberto-Esperanza</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vicente-Victor</t>
   </si>
   <si>
     <t xml:space="preserve">Teresa-Leticia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberto-Esperanza</t>
   </si>
   <si>
     <t xml:space="preserve">Los sin barba</t>
@@ -1143,7 +1161,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1856,6 +1874,106 @@
       </c>
       <c r="F35" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>206</v>
+      </c>
+      <c r="F40" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2580,51 +2698,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="I1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="J1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -2656,13 +2774,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
@@ -2694,13 +2812,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -2732,13 +2850,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -2770,13 +2888,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2808,57 +2926,57 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="L7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D8" t="n">
         <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
         <v>4</v>
@@ -2867,77 +2985,77 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="L8" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L9" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D10" t="n">
+        <v>12</v>
+      </c>
+      <c r="E10" t="n">
         <v>6</v>
       </c>
-      <c r="E10" t="n">
-        <v>4</v>
-      </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2946,33 +3064,33 @@
         <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="L10" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D11" t="n">
         <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -2981,36 +3099,36 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L11" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -3019,36 +3137,36 @@
         <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L12" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B13" t="n">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -3057,30 +3175,30 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L13" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D14" t="n">
         <v>12</v>
@@ -3112,13 +3230,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D15" t="n">
         <v>9</v>
@@ -3150,57 +3268,57 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -3209,30 +3327,30 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L17" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D18" t="n">
         <v>3</v>
@@ -3256,27 +3374,27 @@
         <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L18" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B19" t="n">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -3285,19 +3403,19 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3316,45 +3434,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -3380,13 +3498,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
@@ -3412,13 +3530,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -3444,13 +3562,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -3476,13 +3594,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3508,13 +3626,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D7" t="n">
         <v>12</v>
@@ -3540,13 +3658,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D8" t="n">
         <v>9</v>
@@ -3572,51 +3690,51 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -3625,24 +3743,24 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D11" t="n">
         <v>3</v>
@@ -3668,19 +3786,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -3689,62 +3807,62 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D14" t="n">
         <v>12</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>4</v>
@@ -3753,65 +3871,65 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
         <v>6</v>
       </c>
-      <c r="E16" t="n">
-        <v>4</v>
-      </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -3820,7 +3938,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
@@ -3828,19 +3946,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D17" t="n">
         <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -3849,30 +3967,30 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
         <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -3881,30 +3999,30 @@
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B19" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -3913,13 +4031,13 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3938,60 +4056,60 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" t="s">
         <v>211</v>
       </c>
-      <c r="H1" t="s">
-        <v>205</v>
-      </c>
       <c r="I1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="J1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -4020,19 +4138,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -4061,19 +4179,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -4102,19 +4220,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -4143,19 +4261,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -4184,19 +4302,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -4225,19 +4343,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E8" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -4266,19 +4384,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E9" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -4307,19 +4425,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E10" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -4348,19 +4466,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E11" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -4389,19 +4507,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D12" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E12" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -4430,19 +4548,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E13" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -4471,19 +4589,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D14" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E14" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -4512,19 +4630,19 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C15" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D15" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E15" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -4553,19 +4671,19 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D16" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E16" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
@@ -4594,19 +4712,19 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B17" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C17" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D17" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E17" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -4635,19 +4753,19 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C18" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D18" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E18" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
@@ -4676,19 +4794,19 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C19" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E19" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -4717,19 +4835,19 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C20" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D20" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E20" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
@@ -4758,19 +4876,19 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B21" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C21" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E21" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -4799,19 +4917,19 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B22" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C22" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E22" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
@@ -4840,19 +4958,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B23" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C23" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D23" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E23" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -4881,19 +4999,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C24" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D24" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E24" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
@@ -4922,19 +5040,19 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B25" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C25" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D25" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E25" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -4963,19 +5081,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B26" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D26" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E26" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
@@ -5004,19 +5122,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C27" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D27" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E27" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -5045,19 +5163,19 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B28" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C28" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D28" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E28" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
@@ -5086,19 +5204,19 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B29" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C29" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D29" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E29" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -5127,19 +5245,19 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B30" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C30" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D30" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E30" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F30" t="n">
         <v>2</v>
@@ -5168,19 +5286,19 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B31" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C31" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D31" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E31" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -5209,19 +5327,19 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B32" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C32" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D32" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E32" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F32" t="n">
         <v>2</v>
@@ -5250,19 +5368,19 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B33" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C33" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D33" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E33" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -5291,19 +5409,19 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B34" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C34" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D34" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E34" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F34" t="n">
         <v>2</v>
@@ -5332,19 +5450,19 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B35" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C35" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D35" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E35" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -5373,19 +5491,19 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B36" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C36" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D36" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E36" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F36" t="n">
         <v>2</v>
@@ -5414,19 +5532,19 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B37" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C37" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D37" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E37" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -5455,19 +5573,19 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B38" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C38" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D38" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E38" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F38" t="n">
         <v>2</v>
@@ -5496,19 +5614,19 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B39" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C39" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D39" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E39" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -5537,19 +5655,19 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B40" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C40" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D40" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E40" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F40" t="n">
         <v>2</v>
@@ -5578,19 +5696,19 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B41" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C41" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D41" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E41" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -5619,19 +5737,19 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C42" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D42" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E42" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
@@ -5660,19 +5778,19 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B43" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C43" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D43" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E43" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -5701,19 +5819,19 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B44" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D44" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E44" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F44" t="n">
         <v>2</v>
@@ -5742,19 +5860,19 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B45" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C45" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E45" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -5783,19 +5901,19 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B46" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C46" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D46" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F46" t="n">
         <v>2</v>
@@ -5824,19 +5942,19 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B47" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C47" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D47" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E47" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -5865,19 +5983,19 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B48" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C48" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D48" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E48" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -5906,19 +6024,19 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B49" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C49" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E49" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F49" t="n">
         <v>2</v>
@@ -5947,19 +6065,19 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B50" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C50" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D50" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E50" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F50" t="n">
         <v>2</v>
@@ -5988,19 +6106,19 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C51" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D51" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E51" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -6029,19 +6147,19 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B52" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C52" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D52" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E52" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
@@ -6070,19 +6188,19 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C53" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D53" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E53" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
@@ -6111,19 +6229,19 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B54" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C54" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D54" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E54" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F54" t="n">
         <v>2</v>
@@ -6152,19 +6270,19 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C55" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D55" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E55" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -6193,19 +6311,19 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B56" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C56" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D56" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E56" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F56" t="n">
         <v>2</v>
@@ -6234,19 +6352,19 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B57" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C57" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D57" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E57" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -6275,19 +6393,19 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B58" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C58" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D58" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E58" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F58" t="n">
         <v>2</v>
@@ -6316,19 +6434,19 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B59" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C59" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D59" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E59" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -6357,19 +6475,19 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B60" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C60" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D60" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E60" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
@@ -6398,19 +6516,19 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B61" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C61" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D61" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E61" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
@@ -6439,19 +6557,19 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B62" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C62" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D62" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E62" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F62" t="n">
         <v>2</v>
@@ -6480,19 +6598,19 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B63" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C63" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D63" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E63" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -6521,19 +6639,19 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B64" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C64" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D64" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E64" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -6562,19 +6680,19 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B65" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C65" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D65" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E65" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F65" t="n">
         <v>2</v>
@@ -6603,19 +6721,19 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C66" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D66" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E66" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F66" t="n">
         <v>2</v>
@@ -6644,19 +6762,19 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C67" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D67" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E67" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -6685,19 +6803,19 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B68" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C68" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D68" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E68" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F68" t="n">
         <v>2</v>
@@ -6726,19 +6844,19 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="B69" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C69" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D69" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E69" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -6763,6 +6881,416 @@
       </c>
       <c r="M69" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B70" t="s">
+        <v>234</v>
+      </c>
+      <c r="C70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D70" t="s">
+        <v>237</v>
+      </c>
+      <c r="E70" t="s">
+        <v>256</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+      <c r="I70" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>6</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B71" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" t="s">
+        <v>255</v>
+      </c>
+      <c r="D71" t="s">
+        <v>240</v>
+      </c>
+      <c r="E71" t="s">
+        <v>257</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B72" t="s">
+        <v>226</v>
+      </c>
+      <c r="C72" t="s">
+        <v>255</v>
+      </c>
+      <c r="D72" t="s">
+        <v>230</v>
+      </c>
+      <c r="E72" t="s">
+        <v>256</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+      <c r="I72" t="n">
+        <v>5</v>
+      </c>
+      <c r="J72" t="n">
+        <v>9</v>
+      </c>
+      <c r="K72" t="n">
+        <v>3</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B73" t="s">
+        <v>226</v>
+      </c>
+      <c r="C73" t="s">
+        <v>255</v>
+      </c>
+      <c r="D73" t="s">
+        <v>232</v>
+      </c>
+      <c r="E73" t="s">
+        <v>257</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B74" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" t="s">
+        <v>255</v>
+      </c>
+      <c r="D74" t="s">
+        <v>228</v>
+      </c>
+      <c r="E74" t="s">
+        <v>256</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6</v>
+      </c>
+      <c r="J74" t="n">
+        <v>12</v>
+      </c>
+      <c r="K74" t="n">
+        <v>4</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B75" t="s">
+        <v>226</v>
+      </c>
+      <c r="C75" t="s">
+        <v>255</v>
+      </c>
+      <c r="D75" t="s">
+        <v>231</v>
+      </c>
+      <c r="E75" t="s">
+        <v>257</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>6</v>
+      </c>
+      <c r="J75" t="n">
+        <v>4</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B76" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" t="s">
+        <v>255</v>
+      </c>
+      <c r="D76" t="s">
+        <v>230</v>
+      </c>
+      <c r="E76" t="s">
+        <v>256</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+      <c r="I76" t="n">
+        <v>6</v>
+      </c>
+      <c r="J76" t="n">
+        <v>12</v>
+      </c>
+      <c r="K76" t="n">
+        <v>4</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B77" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" t="s">
+        <v>255</v>
+      </c>
+      <c r="D77" t="s">
+        <v>233</v>
+      </c>
+      <c r="E77" t="s">
+        <v>257</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>5</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B78" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" t="s">
+        <v>255</v>
+      </c>
+      <c r="D78" t="s">
+        <v>227</v>
+      </c>
+      <c r="E78" t="s">
+        <v>256</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+      <c r="I78" t="n">
+        <v>6</v>
+      </c>
+      <c r="J78" t="n">
+        <v>15</v>
+      </c>
+      <c r="K78" t="n">
+        <v>5</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B79" t="s">
+        <v>226</v>
+      </c>
+      <c r="C79" t="s">
+        <v>255</v>
+      </c>
+      <c r="D79" t="s">
+        <v>229</v>
+      </c>
+      <c r="E79" t="s">
+        <v>257</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>5</v>
+      </c>
+      <c r="J79" t="n">
+        <v>12</v>
+      </c>
+      <c r="K79" t="n">
+        <v>4</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,9 +9,9 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="127" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="128" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="129" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="130" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="131" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="132" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -473,6 +473,24 @@
     <t>6-7,7-6</t>
   </si>
   <si>
+    <t>6-1,6-1</t>
+  </si>
+  <si>
+    <t>1-6,1-6</t>
+  </si>
+  <si>
+    <t>6-0,6-2</t>
+  </si>
+  <si>
+    <t>0-6,2-6</t>
+  </si>
+  <si>
+    <t>6-0,7-5</t>
+  </si>
+  <si>
+    <t>0-6,5-7</t>
+  </si>
+  <si>
     <t>GRUPO</t>
   </si>
   <si>
@@ -530,15 +548,15 @@
     <t>mediocre bajo</t>
   </si>
   <si>
+    <t>Miguel Ángel-Juanjo</t>
+  </si>
+  <si>
+    <t>Natalia-Jose Antonio</t>
+  </si>
+  <si>
     <t>Tania-Laura</t>
   </si>
   <si>
-    <t>Miguel Ángel-Juanjo</t>
-  </si>
-  <si>
-    <t>Natalia-Jose Antonio</t>
-  </si>
-  <si>
     <t>Alberto-Andrés</t>
   </si>
   <si>
@@ -560,15 +578,15 @@
     <t>Alba-Luis</t>
   </si>
   <si>
+    <t>Alberto-Esperanza</t>
+  </si>
+  <si>
     <t>Vicente-Victor</t>
   </si>
   <si>
     <t>Teresa-Leticia</t>
   </si>
   <si>
-    <t>Alberto-Esperanza</t>
-  </si>
-  <si>
     <t>Los sin barba</t>
   </si>
   <si>
@@ -626,24 +644,6 @@
     <t>Empata</t>
   </si>
   <si>
-    <t>6-1,6-1</t>
-  </si>
-  <si>
-    <t>1-6,1-6</t>
-  </si>
-  <si>
-    <t>6-0,6-2</t>
-  </si>
-  <si>
-    <t>0-6,2-6</t>
-  </si>
-  <si>
-    <t>6-0,7-5</t>
-  </si>
-  <si>
-    <t>0-6,5-7</t>
-  </si>
-  <si>
     <t xml:space="preserve">GRUPO</t>
   </si>
   <si>
@@ -704,10 +704,10 @@
     <t xml:space="preserve">Miguel Ángel-Juanjo</t>
   </si>
   <si>
+    <t xml:space="preserve">Tania-Laura</t>
+  </si>
+  <si>
     <t xml:space="preserve">Natalia-Jose Antonio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tania-Laura</t>
   </si>
   <si>
     <t xml:space="preserve">Alberto-Andrés</t>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1890,10 +1890,10 @@
         <v>114</v>
       </c>
       <c r="E36" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="F36" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37">
@@ -1950,10 +1950,10 @@
         <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="F39" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40">
@@ -1970,10 +1970,30 @@
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="F40" t="s">
-        <v>207</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2973,31 +2993,31 @@
         <v>228</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L8" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -3014,7 +3034,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
         <v>4</v>
@@ -3023,19 +3043,19 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="L9" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -3166,28 +3186,28 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
         <v>5</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K13" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L13" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -3859,25 +3879,25 @@
         <v>228</v>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -3894,7 +3914,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
         <v>4</v>
@@ -3903,13 +3923,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -4022,22 +4042,22 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
         <v>5</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4097,7 +4117,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B2" t="s">
         <v>220</v>
@@ -4138,7 +4158,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B3" t="s">
         <v>220</v>
@@ -4179,7 +4199,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B4" t="s">
         <v>226</v>
@@ -4188,7 +4208,7 @@
         <v>255</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E4" t="s">
         <v>256</v>
@@ -4220,7 +4240,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B5" t="s">
         <v>226</v>
@@ -4229,7 +4249,7 @@
         <v>255</v>
       </c>
       <c r="D5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s">
         <v>257</v>
@@ -4261,7 +4281,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B6" t="s">
         <v>226</v>
@@ -4270,7 +4290,7 @@
         <v>255</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6" t="s">
         <v>256</v>
@@ -4302,7 +4322,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B7" t="s">
         <v>226</v>
@@ -4343,7 +4363,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B8" t="s">
         <v>234</v>
@@ -4384,7 +4404,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B9" t="s">
         <v>234</v>
@@ -4425,7 +4445,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B10" t="s">
         <v>220</v>
@@ -4466,7 +4486,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B11" t="s">
         <v>220</v>
@@ -4507,7 +4527,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B12" t="s">
         <v>220</v>
@@ -4548,7 +4568,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B13" t="s">
         <v>220</v>
@@ -4589,7 +4609,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B14" t="s">
         <v>234</v>
@@ -4630,7 +4650,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B15" t="s">
         <v>234</v>
@@ -4671,7 +4691,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B16" t="s">
         <v>226</v>
@@ -4712,7 +4732,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B17" t="s">
         <v>226</v>
@@ -4753,7 +4773,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B18" t="s">
         <v>226</v>
@@ -4794,7 +4814,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B19" t="s">
         <v>226</v>
@@ -4835,7 +4855,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B20" t="s">
         <v>226</v>
@@ -4844,7 +4864,7 @@
         <v>255</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E20" t="s">
         <v>256</v>
@@ -4876,7 +4896,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B21" t="s">
         <v>226</v>
@@ -4917,7 +4937,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B22" t="s">
         <v>234</v>
@@ -4958,7 +4978,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B23" t="s">
         <v>234</v>
@@ -4999,7 +5019,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B24" t="s">
         <v>234</v>
@@ -5040,7 +5060,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B25" t="s">
         <v>234</v>
@@ -5081,7 +5101,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B26" t="s">
         <v>220</v>
@@ -5122,7 +5142,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B27" t="s">
         <v>220</v>
@@ -5163,7 +5183,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B28" t="s">
         <v>226</v>
@@ -5172,7 +5192,7 @@
         <v>255</v>
       </c>
       <c r="D28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E28" t="s">
         <v>256</v>
@@ -5204,7 +5224,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B29" t="s">
         <v>226</v>
@@ -5245,7 +5265,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B30" t="s">
         <v>226</v>
@@ -5254,7 +5274,7 @@
         <v>255</v>
       </c>
       <c r="D30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E30" t="s">
         <v>256</v>
@@ -5286,7 +5306,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B31" t="s">
         <v>226</v>
@@ -5327,7 +5347,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B32" t="s">
         <v>220</v>
@@ -5368,7 +5388,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B33" t="s">
         <v>220</v>
@@ -5409,7 +5429,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B34" t="s">
         <v>220</v>
@@ -5450,7 +5470,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B35" t="s">
         <v>220</v>
@@ -5491,7 +5511,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B36" t="s">
         <v>234</v>
@@ -5532,7 +5552,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B37" t="s">
         <v>234</v>
@@ -5573,7 +5593,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B38" t="s">
         <v>226</v>
@@ -5582,7 +5602,7 @@
         <v>255</v>
       </c>
       <c r="D38" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E38" t="s">
         <v>256</v>
@@ -5614,7 +5634,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B39" t="s">
         <v>226</v>
@@ -5655,7 +5675,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B40" t="s">
         <v>226</v>
@@ -5696,7 +5716,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B41" t="s">
         <v>226</v>
@@ -5737,7 +5757,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B42" t="s">
         <v>226</v>
@@ -5778,7 +5798,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B43" t="s">
         <v>226</v>
@@ -5819,7 +5839,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B44" t="s">
         <v>220</v>
@@ -5860,7 +5880,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B45" t="s">
         <v>220</v>
@@ -5901,7 +5921,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B46" t="s">
         <v>234</v>
@@ -5942,7 +5962,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B47" t="s">
         <v>234</v>
@@ -5983,7 +6003,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B48" t="s">
         <v>234</v>
@@ -6024,7 +6044,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B49" t="s">
         <v>234</v>
@@ -6065,7 +6085,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B50" t="s">
         <v>220</v>
@@ -6106,7 +6126,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B51" t="s">
         <v>220</v>
@@ -6147,7 +6167,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B52" t="s">
         <v>226</v>
@@ -6188,7 +6208,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B53" t="s">
         <v>226</v>
@@ -6229,7 +6249,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B54" t="s">
         <v>226</v>
@@ -6270,7 +6290,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B55" t="s">
         <v>226</v>
@@ -6311,7 +6331,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B56" t="s">
         <v>234</v>
@@ -6352,7 +6372,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B57" t="s">
         <v>234</v>
@@ -6393,7 +6413,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B58" t="s">
         <v>226</v>
@@ -6402,7 +6422,7 @@
         <v>255</v>
       </c>
       <c r="D58" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E58" t="s">
         <v>256</v>
@@ -6434,7 +6454,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B59" t="s">
         <v>226</v>
@@ -6475,7 +6495,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B60" t="s">
         <v>226</v>
@@ -6516,7 +6536,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B61" t="s">
         <v>226</v>
@@ -6557,7 +6577,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B62" t="s">
         <v>226</v>
@@ -6598,7 +6618,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B63" t="s">
         <v>226</v>
@@ -6607,7 +6627,7 @@
         <v>255</v>
       </c>
       <c r="D63" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E63" t="s">
         <v>257</v>
@@ -6639,7 +6659,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B64" t="s">
         <v>234</v>
@@ -6680,7 +6700,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B65" t="s">
         <v>234</v>
@@ -6721,7 +6741,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B66" t="s">
         <v>234</v>
@@ -6762,7 +6782,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B67" t="s">
         <v>234</v>
@@ -6803,7 +6823,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B68" t="s">
         <v>226</v>
@@ -6844,7 +6864,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B69" t="s">
         <v>226</v>
@@ -6885,7 +6905,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B70" t="s">
         <v>234</v>
@@ -6926,7 +6946,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B71" t="s">
         <v>234</v>
@@ -6967,7 +6987,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B72" t="s">
         <v>226</v>
@@ -7008,7 +7028,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B73" t="s">
         <v>226</v>
@@ -7049,7 +7069,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B74" t="s">
         <v>226</v>
@@ -7058,7 +7078,7 @@
         <v>255</v>
       </c>
       <c r="D74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E74" t="s">
         <v>256</v>
@@ -7090,7 +7110,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B75" t="s">
         <v>226</v>
@@ -7131,7 +7151,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B76" t="s">
         <v>226</v>
@@ -7172,7 +7192,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B77" t="s">
         <v>226</v>
@@ -7213,7 +7233,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B78" t="s">
         <v>226</v>
@@ -7254,7 +7274,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>46008</v>
+        <v>46013</v>
       </c>
       <c r="B79" t="s">
         <v>226</v>
@@ -7263,7 +7283,7 @@
         <v>255</v>
       </c>
       <c r="D79" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E79" t="s">
         <v>257</v>
@@ -7291,6 +7311,88 @@
       </c>
       <c r="M79" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B80" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" t="s">
+        <v>255</v>
+      </c>
+      <c r="D80" t="s">
+        <v>228</v>
+      </c>
+      <c r="E80" t="s">
+        <v>256</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I80" t="n">
+        <v>6</v>
+      </c>
+      <c r="J80" t="n">
+        <v>15</v>
+      </c>
+      <c r="K80" t="n">
+        <v>5</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B81" t="s">
+        <v>226</v>
+      </c>
+      <c r="C81" t="s">
+        <v>255</v>
+      </c>
+      <c r="D81" t="s">
+        <v>233</v>
+      </c>
+      <c r="E81" t="s">
+        <v>257</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>6</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,9 +9,9 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="130" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="131" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="132" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="139" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="140" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="141" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -551,10 +551,10 @@
     <t>Miguel Ángel-Juanjo</t>
   </si>
   <si>
+    <t>Tania-Laura</t>
+  </si>
+  <si>
     <t>Natalia-Jose Antonio</t>
-  </si>
-  <si>
-    <t>Tania-Laura</t>
   </si>
   <si>
     <t>Alberto-Andrés</t>
@@ -1160,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="true" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1994,6 +1994,26 @@
       </c>
       <c r="F41" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3367,7 +3387,7 @@
         <v>234</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>239</v>
@@ -3405,7 +3425,7 @@
         <v>234</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>240</v>
@@ -3414,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -3423,19 +3443,19 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L19" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3777,7 +3797,7 @@
         <v>248</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>239</v>
@@ -3809,7 +3829,7 @@
         <v>248</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>240</v>
@@ -3818,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -3827,13 +3847,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -4117,7 +4137,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B2" t="s">
         <v>220</v>
@@ -4158,7 +4178,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B3" t="s">
         <v>220</v>
@@ -4199,7 +4219,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B4" t="s">
         <v>226</v>
@@ -4240,7 +4260,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B5" t="s">
         <v>226</v>
@@ -4281,7 +4301,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B6" t="s">
         <v>226</v>
@@ -4322,7 +4342,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B7" t="s">
         <v>226</v>
@@ -4363,7 +4383,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B8" t="s">
         <v>234</v>
@@ -4404,7 +4424,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B9" t="s">
         <v>234</v>
@@ -4445,7 +4465,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B10" t="s">
         <v>220</v>
@@ -4486,7 +4506,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B11" t="s">
         <v>220</v>
@@ -4527,7 +4547,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B12" t="s">
         <v>220</v>
@@ -4568,7 +4588,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B13" t="s">
         <v>220</v>
@@ -4609,7 +4629,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B14" t="s">
         <v>234</v>
@@ -4650,7 +4670,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B15" t="s">
         <v>234</v>
@@ -4691,7 +4711,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B16" t="s">
         <v>226</v>
@@ -4732,7 +4752,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B17" t="s">
         <v>226</v>
@@ -4773,7 +4793,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B18" t="s">
         <v>226</v>
@@ -4814,7 +4834,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B19" t="s">
         <v>226</v>
@@ -4855,7 +4875,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B20" t="s">
         <v>226</v>
@@ -4896,7 +4916,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B21" t="s">
         <v>226</v>
@@ -4937,7 +4957,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B22" t="s">
         <v>234</v>
@@ -4978,7 +4998,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B23" t="s">
         <v>234</v>
@@ -5019,7 +5039,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B24" t="s">
         <v>234</v>
@@ -5060,7 +5080,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B25" t="s">
         <v>234</v>
@@ -5101,7 +5121,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B26" t="s">
         <v>220</v>
@@ -5142,7 +5162,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B27" t="s">
         <v>220</v>
@@ -5183,7 +5203,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B28" t="s">
         <v>226</v>
@@ -5224,7 +5244,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B29" t="s">
         <v>226</v>
@@ -5265,7 +5285,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B30" t="s">
         <v>226</v>
@@ -5306,7 +5326,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B31" t="s">
         <v>226</v>
@@ -5347,7 +5367,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B32" t="s">
         <v>220</v>
@@ -5388,7 +5408,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B33" t="s">
         <v>220</v>
@@ -5429,7 +5449,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B34" t="s">
         <v>220</v>
@@ -5470,7 +5490,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B35" t="s">
         <v>220</v>
@@ -5511,7 +5531,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B36" t="s">
         <v>234</v>
@@ -5552,7 +5572,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B37" t="s">
         <v>234</v>
@@ -5593,7 +5613,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B38" t="s">
         <v>226</v>
@@ -5634,7 +5654,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B39" t="s">
         <v>226</v>
@@ -5675,7 +5695,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B40" t="s">
         <v>226</v>
@@ -5716,7 +5736,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B41" t="s">
         <v>226</v>
@@ -5757,7 +5777,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B42" t="s">
         <v>226</v>
@@ -5798,7 +5818,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B43" t="s">
         <v>226</v>
@@ -5839,7 +5859,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B44" t="s">
         <v>220</v>
@@ -5880,7 +5900,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B45" t="s">
         <v>220</v>
@@ -5921,7 +5941,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B46" t="s">
         <v>234</v>
@@ -5962,7 +5982,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B47" t="s">
         <v>234</v>
@@ -6003,7 +6023,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B48" t="s">
         <v>234</v>
@@ -6044,7 +6064,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B49" t="s">
         <v>234</v>
@@ -6085,7 +6105,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B50" t="s">
         <v>220</v>
@@ -6126,7 +6146,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B51" t="s">
         <v>220</v>
@@ -6167,7 +6187,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B52" t="s">
         <v>226</v>
@@ -6208,7 +6228,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B53" t="s">
         <v>226</v>
@@ -6249,7 +6269,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B54" t="s">
         <v>226</v>
@@ -6290,7 +6310,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B55" t="s">
         <v>226</v>
@@ -6331,7 +6351,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B56" t="s">
         <v>234</v>
@@ -6372,7 +6392,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B57" t="s">
         <v>234</v>
@@ -6413,7 +6433,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B58" t="s">
         <v>226</v>
@@ -6454,7 +6474,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B59" t="s">
         <v>226</v>
@@ -6495,7 +6515,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B60" t="s">
         <v>226</v>
@@ -6536,7 +6556,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B61" t="s">
         <v>226</v>
@@ -6577,7 +6597,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B62" t="s">
         <v>226</v>
@@ -6618,7 +6638,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B63" t="s">
         <v>226</v>
@@ -6659,7 +6679,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B64" t="s">
         <v>234</v>
@@ -6700,7 +6720,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B65" t="s">
         <v>234</v>
@@ -6741,7 +6761,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B66" t="s">
         <v>234</v>
@@ -6782,7 +6802,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B67" t="s">
         <v>234</v>
@@ -6823,7 +6843,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B68" t="s">
         <v>226</v>
@@ -6864,7 +6884,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B69" t="s">
         <v>226</v>
@@ -6905,7 +6925,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B70" t="s">
         <v>234</v>
@@ -6946,7 +6966,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B71" t="s">
         <v>234</v>
@@ -6987,7 +7007,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B72" t="s">
         <v>226</v>
@@ -7028,7 +7048,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B73" t="s">
         <v>226</v>
@@ -7069,7 +7089,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B74" t="s">
         <v>226</v>
@@ -7110,7 +7130,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B75" t="s">
         <v>226</v>
@@ -7151,7 +7171,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B76" t="s">
         <v>226</v>
@@ -7192,7 +7212,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B77" t="s">
         <v>226</v>
@@ -7233,7 +7253,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B78" t="s">
         <v>226</v>
@@ -7274,7 +7294,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B79" t="s">
         <v>226</v>
@@ -7315,7 +7335,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B80" t="s">
         <v>226</v>
@@ -7356,7 +7376,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>46013</v>
+        <v>46061</v>
       </c>
       <c r="B81" t="s">
         <v>226</v>
@@ -7393,6 +7413,88 @@
       </c>
       <c r="M81" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>46061</v>
+      </c>
+      <c r="B82" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" t="s">
+        <v>255</v>
+      </c>
+      <c r="D82" t="s">
+        <v>240</v>
+      </c>
+      <c r="E82" t="s">
+        <v>257</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>46061</v>
+      </c>
+      <c r="B83" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" t="s">
+        <v>255</v>
+      </c>
+      <c r="D83" t="s">
+        <v>227</v>
+      </c>
+      <c r="E83" t="s">
+        <v>256</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,9 +9,9 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="139" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="140" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="141" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="145" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="146" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="147" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1160,7 +1160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -2051,7 +2051,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -2182,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -2518,30 +2518,30 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -2549,13 +2549,13 @@
         <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
@@ -2563,10 +2563,13 @@
         <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>44</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -2574,13 +2577,13 @@
         <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
@@ -2588,13 +2591,10 @@
         <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30">
@@ -2602,13 +2602,13 @@
         <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -2616,13 +2616,13 @@
         <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -2630,13 +2630,13 @@
         <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
@@ -2644,13 +2644,13 @@
         <v>2</v>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
@@ -2658,13 +2658,13 @@
         <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
@@ -2672,13 +2672,13 @@
         <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
@@ -2686,13 +2686,13 @@
         <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
@@ -2700,28 +2700,57 @@
         <v>2</v>
       </c>
       <c r="B37" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="n">
         <v>7</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
         <v>52</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D33" r:id="rId1h"/>
-    <hyperlink ref="D32" r:id="rId2h"/>
-    <hyperlink ref="D31" r:id="rId3h"/>
-    <hyperlink ref="D25" r:id="rId4h"/>
-    <hyperlink ref="D26" r:id="rId5h"/>
+    <hyperlink ref="D35" r:id="rId1h"/>
+    <hyperlink ref="D34" r:id="rId2h"/>
+    <hyperlink ref="D33" r:id="rId3h"/>
+    <hyperlink ref="D27" r:id="rId4h"/>
+    <hyperlink ref="D28" r:id="rId5h"/>
     <hyperlink ref="D17" r:id="rId6h"/>
     <hyperlink ref="D23" r:id="rId7h"/>
     <hyperlink ref="D13" r:id="rId8h"/>
     <hyperlink ref="D12" r:id="rId9h"/>
     <hyperlink ref="D3" r:id="rId10h"/>
     <hyperlink ref="D8" r:id="rId11h"/>
+    <hyperlink ref="D25" r:id="rId12h"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,9 +9,9 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="145" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="146" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="147" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="148" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="149" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="150" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1160,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="true" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,16 +9,16 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="148" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="149" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="150" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="163" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="164" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="165" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Luis Bonilla</t>
   </si>
   <si>
-    <t xml:space="preserve">Vicente Tristancho </t>
-  </si>
-  <si>
     <t>Salvador Mazoteras</t>
   </si>
   <si>
@@ -224,12 +221,6 @@
     <t>luis.bonilla.zorita@hacienda.gob.es</t>
   </si>
   <si>
-    <t>vicente.tristancho.ruiz@hacienda.gob.es</t>
-  </si>
-  <si>
-    <t>victor.puertas.reig@hacienda.gob.es</t>
-  </si>
-  <si>
     <t>salvador.mazoteras.diaz@hacienda.gob.es</t>
   </si>
   <si>
@@ -317,9 +308,6 @@
     <t>Alba-Luis</t>
   </si>
   <si>
-    <t>Vicente-Victor</t>
-  </si>
-  <si>
     <t>Salvador-Marta</t>
   </si>
   <si>
@@ -359,9 +347,6 @@
     <t>Jose Antonio Martín Perez</t>
   </si>
   <si>
-    <t>Víctor Puertas</t>
-  </si>
-  <si>
     <t>Los sin barba</t>
   </si>
   <si>
@@ -491,6 +476,12 @@
     <t>0-6,5-7</t>
   </si>
   <si>
+    <t>mediocre medio</t>
+  </si>
+  <si>
+    <t>Juanjo-Miguel Ángel</t>
+  </si>
+  <si>
     <t>GRUPO</t>
   </si>
   <si>
@@ -581,9 +572,6 @@
     <t>Alberto-Esperanza</t>
   </si>
   <si>
-    <t>Vicente-Victor</t>
-  </si>
-  <si>
     <t>Teresa-Leticia</t>
   </si>
   <si>
@@ -644,6 +632,9 @@
     <t>Empata</t>
   </si>
   <si>
+    <t>Juanjo-Miguel Ángel</t>
+  </si>
+  <si>
     <t xml:space="preserve">GRUPO</t>
   </si>
   <si>
@@ -734,7 +725,7 @@
     <t xml:space="preserve">Alberto-Esperanza</t>
   </si>
   <si>
-    <t xml:space="preserve">Vicente-Victor</t>
+    <t xml:space="preserve">Juanjo-Miguel Ángel</t>
   </si>
   <si>
     <t xml:space="preserve">Teresa-Leticia</t>
@@ -1160,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1262,16 +1253,16 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -1282,16 +1273,16 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
@@ -1302,16 +1293,16 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -1322,16 +1313,16 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -1342,16 +1333,16 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -1365,13 +1356,13 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
@@ -1385,13 +1376,13 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V11" s="1"/>
     </row>
@@ -1403,57 +1394,56 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
-      </c>
-      <c r="V12" s="1"/>
+        <v>119</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
@@ -1467,33 +1457,33 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17">
@@ -1504,56 +1494,56 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20">
@@ -1564,16 +1554,16 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21">
@@ -1584,56 +1574,56 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="F21" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F23" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24">
@@ -1644,56 +1634,56 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27">
@@ -1704,56 +1694,56 @@
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F27" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="F29" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
@@ -1764,16 +1754,16 @@
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="F30" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31">
@@ -1784,36 +1774,36 @@
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="F31" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
@@ -1824,76 +1814,76 @@
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="F33" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="F34" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="F35" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F36" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37">
@@ -1904,16 +1894,16 @@
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38">
@@ -1924,16 +1914,16 @@
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="F38" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39">
@@ -1944,16 +1934,16 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40">
@@ -1964,56 +1954,36 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="F40" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="F41" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" t="s">
-        <v>118</v>
-      </c>
-      <c r="F42" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +2008,7 @@
           <x14:formula1>
             <xm:f>listas!$C$2:$C$19</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048576 D1:D1048576</xm:sqref>
+          <xm:sqref>C1:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2051,7 +2021,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -2083,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -2094,47 +2064,47 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
@@ -2154,22 +2124,22 @@
     </row>
     <row r="16">
       <c r="C16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2182,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -2219,7 +2189,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -2233,7 +2203,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -2247,7 +2217,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -2261,7 +2231,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -2275,7 +2245,7 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -2289,7 +2259,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -2303,7 +2273,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2287,7 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -2331,7 +2301,7 @@
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -2342,10 +2312,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -2359,7 +2329,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -2373,7 +2343,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -2387,7 +2357,7 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -2401,7 +2371,7 @@
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
@@ -2415,7 +2385,7 @@
         <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
@@ -2429,7 +2399,7 @@
         <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
@@ -2437,13 +2407,13 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -2451,13 +2421,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
@@ -2465,13 +2435,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
@@ -2479,13 +2449,13 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -2493,13 +2463,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
@@ -2507,41 +2477,41 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>73</v>
+        <v>107</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26">
@@ -2549,13 +2519,13 @@
         <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -2563,13 +2533,10 @@
         <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
@@ -2577,13 +2544,13 @@
         <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
@@ -2591,10 +2558,13 @@
         <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>106</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -2602,13 +2572,13 @@
         <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
@@ -2616,13 +2586,13 @@
         <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -2630,13 +2600,13 @@
         <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -2644,13 +2614,13 @@
         <v>2</v>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
@@ -2658,13 +2628,13 @@
         <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -2672,13 +2642,13 @@
         <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
@@ -2686,13 +2656,13 @@
         <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
@@ -2700,57 +2670,29 @@
         <v>2</v>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" t="n">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
         <v>51</v>
       </c>
-      <c r="D38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" t="n">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" t="s">
-        <v>86</v>
+      <c r="D37" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D35" r:id="rId1h"/>
-    <hyperlink ref="D34" r:id="rId2h"/>
-    <hyperlink ref="D33" r:id="rId3h"/>
-    <hyperlink ref="D27" r:id="rId4h"/>
-    <hyperlink ref="D28" r:id="rId5h"/>
+    <hyperlink ref="D33" r:id="rId1h"/>
+    <hyperlink ref="D32" r:id="rId2h"/>
+    <hyperlink ref="D31" r:id="rId3h"/>
+    <hyperlink ref="D25" r:id="rId4h"/>
+    <hyperlink ref="D26" r:id="rId5h"/>
     <hyperlink ref="D17" r:id="rId6h"/>
-    <hyperlink ref="D23" r:id="rId7h"/>
+    <hyperlink ref="D21" r:id="rId7h"/>
     <hyperlink ref="D13" r:id="rId8h"/>
     <hyperlink ref="D12" r:id="rId9h"/>
     <hyperlink ref="D3" r:id="rId10h"/>
     <hyperlink ref="D8" r:id="rId11h"/>
-    <hyperlink ref="D25" r:id="rId12h"/>
+    <hyperlink ref="D23" r:id="rId12h"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2767,51 +2709,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" t="s">
         <v>208</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>209</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>210</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>211</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>212</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>213</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>214</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>215</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>216</v>
-      </c>
-      <c r="J1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K1" t="s">
-        <v>218</v>
-      </c>
-      <c r="L1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -2843,13 +2785,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
@@ -2881,13 +2823,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>220</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>223</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -2919,13 +2861,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -2957,13 +2899,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2995,13 +2937,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D7" t="n">
         <v>15</v>
@@ -3033,13 +2975,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D8" t="n">
         <v>15</v>
@@ -3071,13 +3013,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>226</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>229</v>
       </c>
       <c r="D9" t="n">
         <v>12</v>
@@ -3109,13 +3051,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D10" t="n">
         <v>12</v>
@@ -3147,13 +3089,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D11" t="n">
         <v>4</v>
@@ -3185,13 +3127,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -3223,13 +3165,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B13" t="n">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -3261,13 +3203,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D14" t="n">
         <v>12</v>
@@ -3299,13 +3241,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D15" t="n">
         <v>9</v>
@@ -3337,19 +3279,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
         <v>234</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>237</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
@@ -3358,30 +3300,30 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
         <v>32</v>
       </c>
       <c r="L16" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
@@ -3408,18 +3350,18 @@
         <v>12</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D18" t="n">
         <v>3</v>
@@ -3451,13 +3393,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -3503,45 +3445,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" t="s">
         <v>208</v>
       </c>
-      <c r="B1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D1" t="s">
-        <v>211</v>
-      </c>
       <c r="E1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1" t="s">
         <v>241</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>242</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>243</v>
-      </c>
-      <c r="H1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I1" t="s">
-        <v>245</v>
-      </c>
-      <c r="J1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -3567,13 +3509,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
@@ -3599,13 +3541,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -3631,13 +3573,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D5" t="n">
         <v>3</v>
@@ -3663,13 +3605,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3695,13 +3637,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D7" t="n">
         <v>12</v>
@@ -3727,13 +3669,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D8" t="n">
         <v>9</v>
@@ -3759,19 +3701,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
@@ -3780,24 +3722,24 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
@@ -3823,13 +3765,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D11" t="n">
         <v>3</v>
@@ -3855,13 +3797,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3887,13 +3829,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D13" t="n">
         <v>15</v>
@@ -3919,13 +3861,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D14" t="n">
         <v>15</v>
@@ -3951,13 +3893,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D15" t="n">
         <v>12</v>
@@ -3983,13 +3925,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D16" t="n">
         <v>12</v>
@@ -4015,13 +3957,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D17" t="n">
         <v>4</v>
@@ -4047,13 +3989,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
@@ -4079,13 +4021,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B19" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -4125,43 +4067,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" t="s">
         <v>250</v>
       </c>
-      <c r="B1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>251</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>210</v>
       </c>
-      <c r="E1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>211</v>
       </c>
-      <c r="I1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K1" t="s">
-        <v>213</v>
-      </c>
-      <c r="L1" t="s">
-        <v>214</v>
-      </c>
       <c r="M1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2">
@@ -4169,16 +4111,16 @@
         <v>46061</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -4210,16 +4152,16 @@
         <v>46061</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -4251,16 +4193,16 @@
         <v>46061</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -4292,16 +4234,16 @@
         <v>46061</v>
       </c>
       <c r="B5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" t="s">
         <v>226</v>
       </c>
-      <c r="C5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" t="s">
-        <v>229</v>
-      </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -4333,16 +4275,16 @@
         <v>46061</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -4374,16 +4316,16 @@
         <v>46061</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -4415,16 +4357,16 @@
         <v>46061</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -4456,16 +4398,16 @@
         <v>46061</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -4497,16 +4439,16 @@
         <v>46061</v>
       </c>
       <c r="B10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -4538,16 +4480,16 @@
         <v>46061</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -4579,16 +4521,16 @@
         <v>46061</v>
       </c>
       <c r="B12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" t="s">
         <v>220</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>255</v>
-      </c>
-      <c r="D12" t="s">
-        <v>223</v>
-      </c>
-      <c r="E12" t="s">
-        <v>258</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -4620,16 +4562,16 @@
         <v>46061</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" t="s">
         <v>255</v>
-      </c>
-      <c r="D13" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" t="s">
-        <v>258</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -4661,16 +4603,16 @@
         <v>46061</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -4702,16 +4644,16 @@
         <v>46061</v>
       </c>
       <c r="B15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" t="s">
         <v>234</v>
       </c>
-      <c r="C15" t="s">
-        <v>255</v>
-      </c>
-      <c r="D15" t="s">
-        <v>237</v>
-      </c>
       <c r="E15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -4743,16 +4685,16 @@
         <v>46061</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
@@ -4784,16 +4726,16 @@
         <v>46061</v>
       </c>
       <c r="B17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C17" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -4825,16 +4767,16 @@
         <v>46061</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C18" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
@@ -4866,16 +4808,16 @@
         <v>46061</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -4907,16 +4849,16 @@
         <v>46061</v>
       </c>
       <c r="B20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" t="s">
         <v>226</v>
       </c>
-      <c r="C20" t="s">
-        <v>255</v>
-      </c>
-      <c r="D20" t="s">
-        <v>229</v>
-      </c>
       <c r="E20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
@@ -4948,16 +4890,16 @@
         <v>46061</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -4989,16 +4931,16 @@
         <v>46061</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C22" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D22" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
@@ -5010,13 +4952,13 @@
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -5030,16 +4972,16 @@
         <v>46061</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D23" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -5051,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -5063,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -5071,16 +5013,16 @@
         <v>46061</v>
       </c>
       <c r="B24" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
@@ -5095,13 +5037,13 @@
         <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -5112,16 +5054,16 @@
         <v>46061</v>
       </c>
       <c r="B25" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -5133,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -5145,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -5153,16 +5095,16 @@
         <v>46061</v>
       </c>
       <c r="B26" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E26" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
@@ -5174,16 +5116,16 @@
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -5194,16 +5136,16 @@
         <v>46061</v>
       </c>
       <c r="B27" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D27" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E27" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -5235,16 +5177,16 @@
         <v>46061</v>
       </c>
       <c r="B28" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D28" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E28" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
@@ -5256,13 +5198,13 @@
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -5276,16 +5218,16 @@
         <v>46061</v>
       </c>
       <c r="B29" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D29" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -5300,16 +5242,16 @@
         <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -5317,37 +5259,37 @@
         <v>46061</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D30" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E30" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F30" t="n">
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -5358,19 +5300,19 @@
         <v>46061</v>
       </c>
       <c r="B31" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C31" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D31" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -5399,16 +5341,16 @@
         <v>46061</v>
       </c>
       <c r="B32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D32" t="s">
         <v>221</v>
       </c>
       <c r="E32" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F32" t="n">
         <v>2</v>
@@ -5420,19 +5362,19 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -5440,16 +5382,16 @@
         <v>46061</v>
       </c>
       <c r="B33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D33" t="s">
         <v>220</v>
       </c>
-      <c r="C33" t="s">
-        <v>255</v>
-      </c>
-      <c r="D33" t="s">
-        <v>222</v>
-      </c>
       <c r="E33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -5461,16 +5403,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
@@ -5481,22 +5423,22 @@
         <v>46061</v>
       </c>
       <c r="B34" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C34" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D34" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E34" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F34" t="n">
         <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>3</v>
@@ -5522,19 +5464,19 @@
         <v>46061</v>
       </c>
       <c r="B35" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D35" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E35" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -5543,16 +5485,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
@@ -5563,16 +5505,16 @@
         <v>46061</v>
       </c>
       <c r="B36" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C36" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D36" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E36" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F36" t="n">
         <v>2</v>
@@ -5587,16 +5529,16 @@
         <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -5604,16 +5546,16 @@
         <v>46061</v>
       </c>
       <c r="B37" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C37" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D37" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E37" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -5625,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
         <v>3</v>
@@ -5637,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -5645,16 +5587,16 @@
         <v>46061</v>
       </c>
       <c r="B38" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C38" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D38" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E38" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F38" t="n">
         <v>2</v>
@@ -5666,13 +5608,13 @@
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5686,16 +5628,16 @@
         <v>46061</v>
       </c>
       <c r="B39" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C39" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D39" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E39" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -5727,16 +5669,16 @@
         <v>46061</v>
       </c>
       <c r="B40" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C40" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D40" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E40" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F40" t="n">
         <v>2</v>
@@ -5748,13 +5690,13 @@
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5768,16 +5710,16 @@
         <v>46061</v>
       </c>
       <c r="B41" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C41" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D41" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E41" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -5792,16 +5734,16 @@
         <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -5809,16 +5751,16 @@
         <v>46061</v>
       </c>
       <c r="B42" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C42" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D42" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E42" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
@@ -5830,19 +5772,19 @@
         <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -5850,16 +5792,16 @@
         <v>46061</v>
       </c>
       <c r="B43" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C43" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D43" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E43" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -5891,16 +5833,16 @@
         <v>46061</v>
       </c>
       <c r="B44" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C44" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D44" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="E44" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F44" t="n">
         <v>2</v>
@@ -5912,19 +5854,19 @@
         <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -5932,16 +5874,16 @@
         <v>46061</v>
       </c>
       <c r="B45" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C45" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D45" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E45" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -5956,16 +5898,16 @@
         <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -5973,28 +5915,28 @@
         <v>46061</v>
       </c>
       <c r="B46" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C46" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D46" t="s">
         <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
         <v>3</v>
@@ -6006,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -6014,40 +5956,40 @@
         <v>46061</v>
       </c>
       <c r="B47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C47" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D47" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E47" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -6055,40 +5997,40 @@
         <v>46061</v>
       </c>
       <c r="B48" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C48" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D48" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="E48" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
         <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -6096,40 +6038,40 @@
         <v>46061</v>
       </c>
       <c r="B49" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C49" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D49" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E49" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -6137,40 +6079,40 @@
         <v>46061</v>
       </c>
       <c r="B50" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C50" t="s">
+        <v>252</v>
+      </c>
+      <c r="D50" t="s">
+        <v>229</v>
+      </c>
+      <c r="E50" t="s">
         <v>255</v>
       </c>
-      <c r="D50" t="s">
-        <v>222</v>
-      </c>
-      <c r="E50" t="s">
-        <v>256</v>
-      </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J50" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -6178,25 +6120,25 @@
         <v>46061</v>
       </c>
       <c r="B51" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C51" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51" t="s">
+        <v>228</v>
+      </c>
+      <c r="E51" t="s">
         <v>255</v>
       </c>
-      <c r="D51" t="s">
-        <v>223</v>
-      </c>
-      <c r="E51" t="s">
-        <v>257</v>
-      </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>4</v>
@@ -6219,40 +6161,40 @@
         <v>46061</v>
       </c>
       <c r="B52" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C52" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D52" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E52" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
         <v>4</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -6260,37 +6202,37 @@
         <v>46061</v>
       </c>
       <c r="B53" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C53" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E53" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
@@ -6301,16 +6243,16 @@
         <v>46061</v>
       </c>
       <c r="B54" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C54" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D54" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E54" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F54" t="n">
         <v>2</v>
@@ -6322,13 +6264,13 @@
         <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -6342,16 +6284,16 @@
         <v>46061</v>
       </c>
       <c r="B55" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C55" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D55" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E55" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -6383,16 +6325,16 @@
         <v>46061</v>
       </c>
       <c r="B56" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C56" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D56" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E56" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F56" t="n">
         <v>2</v>
@@ -6404,13 +6346,13 @@
         <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J56" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -6424,16 +6366,16 @@
         <v>46061</v>
       </c>
       <c r="B57" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C57" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D57" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E57" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -6445,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -6457,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -6465,40 +6407,40 @@
         <v>46061</v>
       </c>
       <c r="B58" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C58" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D58" t="s">
         <v>229</v>
       </c>
       <c r="E58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J58" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -6506,37 +6448,37 @@
         <v>46061</v>
       </c>
       <c r="B59" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C59" t="s">
+        <v>252</v>
+      </c>
+      <c r="D59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E59" t="s">
         <v>255</v>
       </c>
-      <c r="D59" t="s">
-        <v>233</v>
-      </c>
-      <c r="E59" t="s">
-        <v>257</v>
-      </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
@@ -6547,40 +6489,40 @@
         <v>46061</v>
       </c>
       <c r="B60" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C60" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D60" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E60" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60" t="n">
         <v>5</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -6588,40 +6530,40 @@
         <v>46061</v>
       </c>
       <c r="B61" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" t="s">
+        <v>252</v>
+      </c>
+      <c r="D61" t="s">
         <v>226</v>
       </c>
-      <c r="C61" t="s">
-        <v>255</v>
-      </c>
-      <c r="D61" t="s">
-        <v>233</v>
-      </c>
       <c r="E61" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -6629,40 +6571,40 @@
         <v>46061</v>
       </c>
       <c r="B62" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C62" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D62" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E62" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -6670,40 +6612,40 @@
         <v>46061</v>
       </c>
       <c r="B63" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C63" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D63" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E63" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J63" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -6711,40 +6653,40 @@
         <v>46061</v>
       </c>
       <c r="B64" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C64" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D64" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E64" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -6752,40 +6694,40 @@
         <v>46061</v>
       </c>
       <c r="B65" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C65" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D65" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E65" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>4</v>
       </c>
       <c r="J65" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -6793,16 +6735,16 @@
         <v>46061</v>
       </c>
       <c r="B66" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C66" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D66" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E66" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F66" t="n">
         <v>2</v>
@@ -6817,16 +6759,16 @@
         <v>4</v>
       </c>
       <c r="J66" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -6834,16 +6776,16 @@
         <v>46061</v>
       </c>
       <c r="B67" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C67" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D67" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E67" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -6855,16 +6797,16 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
@@ -6875,16 +6817,16 @@
         <v>46061</v>
       </c>
       <c r="B68" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C68" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D68" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E68" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F68" t="n">
         <v>2</v>
@@ -6916,16 +6858,16 @@
         <v>46061</v>
       </c>
       <c r="B69" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C69" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D69" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E69" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -6937,19 +6879,19 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -6957,16 +6899,16 @@
         <v>46061</v>
       </c>
       <c r="B70" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C70" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D70" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E70" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F70" t="n">
         <v>2</v>
@@ -6981,16 +6923,16 @@
         <v>5</v>
       </c>
       <c r="J70" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -6998,16 +6940,16 @@
         <v>46061</v>
       </c>
       <c r="B71" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C71" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D71" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E71" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -7019,16 +6961,16 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
@@ -7039,16 +6981,16 @@
         <v>46061</v>
       </c>
       <c r="B72" t="s">
+        <v>223</v>
+      </c>
+      <c r="C72" t="s">
+        <v>252</v>
+      </c>
+      <c r="D72" t="s">
         <v>226</v>
       </c>
-      <c r="C72" t="s">
-        <v>255</v>
-      </c>
-      <c r="D72" t="s">
-        <v>230</v>
-      </c>
       <c r="E72" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F72" t="n">
         <v>2</v>
@@ -7060,13 +7002,13 @@
         <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J72" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -7080,16 +7022,16 @@
         <v>46061</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C73" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D73" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E73" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -7104,13 +7046,13 @@
         <v>6</v>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
@@ -7121,16 +7063,16 @@
         <v>46061</v>
       </c>
       <c r="B74" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C74" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D74" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E74" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F74" t="n">
         <v>2</v>
@@ -7162,16 +7104,16 @@
         <v>46061</v>
       </c>
       <c r="B75" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C75" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E75" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -7183,13 +7125,13 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>1</v>
@@ -7203,16 +7145,16 @@
         <v>46061</v>
       </c>
       <c r="B76" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C76" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D76" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E76" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F76" t="n">
         <v>2</v>
@@ -7227,16 +7169,16 @@
         <v>6</v>
       </c>
       <c r="J76" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -7244,16 +7186,16 @@
         <v>46061</v>
       </c>
       <c r="B77" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C77" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D77" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E77" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -7268,16 +7210,16 @@
         <v>5</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -7285,16 +7227,16 @@
         <v>46061</v>
       </c>
       <c r="B78" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C78" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D78" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E78" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F78" t="n">
         <v>2</v>
@@ -7326,16 +7268,16 @@
         <v>46061</v>
       </c>
       <c r="B79" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C79" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D79" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E79" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -7347,19 +7289,19 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
+        <v>6</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="n">
         <v>5</v>
-      </c>
-      <c r="J79" t="n">
-        <v>12</v>
-      </c>
-      <c r="K79" t="n">
-        <v>4</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -7367,40 +7309,40 @@
         <v>46061</v>
       </c>
       <c r="B80" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C80" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D80" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E80" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J80" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
         <v>5</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -7408,121 +7350,39 @@
         <v>46061</v>
       </c>
       <c r="B81" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C81" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D81" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E81" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I81" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="B82" t="s">
-        <v>234</v>
-      </c>
-      <c r="C82" t="s">
-        <v>255</v>
-      </c>
-      <c r="D82" t="s">
-        <v>240</v>
-      </c>
-      <c r="E82" t="s">
-        <v>257</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="n">
-        <v>2</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>5</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="B83" t="s">
-        <v>234</v>
-      </c>
-      <c r="C83" t="s">
-        <v>255</v>
-      </c>
-      <c r="D83" t="s">
-        <v>227</v>
-      </c>
-      <c r="E83" t="s">
-        <v>256</v>
-      </c>
-      <c r="F83" t="n">
-        <v>2</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>3</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>3</v>
-      </c>
-      <c r="K83" t="n">
-        <v>1</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
         <v>0</v>
       </c>
     </row>

--- a/padel.xlsx
+++ b/padel.xlsx
@@ -9,16 +9,16 @@
     <sheet name="resultados" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="listas" sheetId="19" state="visible" r:id="rId2"/>
     <sheet name="participantes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="clasificacion_auto" sheetId="163" state="visible" r:id="rId4"/>
-    <sheet name="clasificacion" sheetId="164" state="visible" r:id="rId5"/>
-    <sheet name="historial_partidos" sheetId="165" state="visible" r:id="rId6"/>
+    <sheet name="clasificacion_auto" sheetId="169" state="visible" r:id="rId4"/>
+    <sheet name="clasificacion" sheetId="170" state="visible" r:id="rId5"/>
+    <sheet name="historial_partidos" sheetId="171" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t>Mediocre alto</t>
   </si>
@@ -476,102 +476,99 @@
     <t>0-6,5-7</t>
   </si>
   <si>
+    <t>Juanjo-Miguel Ángel</t>
+  </si>
+  <si>
+    <t>GRUPO</t>
+  </si>
+  <si>
+    <t>CLASIFICACION</t>
+  </si>
+  <si>
+    <t>PAREJA</t>
+  </si>
+  <si>
+    <t>PUNTOS</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>JG</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>mediocre alto</t>
+  </si>
+  <si>
+    <t>Los luises</t>
+  </si>
+  <si>
+    <t>Fla-Delicatessen</t>
+  </si>
+  <si>
+    <t>Andrés-Alberto</t>
+  </si>
+  <si>
+    <t>Nuño-Jorge</t>
+  </si>
+  <si>
+    <t>Ceci-Ángel</t>
+  </si>
+  <si>
+    <t>mediocre bajo</t>
+  </si>
+  <si>
+    <t>Tania-Laura</t>
+  </si>
+  <si>
+    <t>Natalia-Jose Antonio</t>
+  </si>
+  <si>
+    <t>Alberto-Andrés</t>
+  </si>
+  <si>
+    <t>Cristina-Carmen</t>
+  </si>
+  <si>
+    <t>Luis-Raquel</t>
+  </si>
+  <si>
+    <t>Mario-Lourdes</t>
+  </si>
+  <si>
     <t>mediocre medio</t>
   </si>
   <si>
+    <t>Salvador-Marta</t>
+  </si>
+  <si>
+    <t>Alba-Luis</t>
+  </si>
+  <si>
+    <t>Alberto-Esperanza</t>
+  </si>
+  <si>
     <t>Juanjo-Miguel Ángel</t>
   </si>
   <si>
-    <t>GRUPO</t>
-  </si>
-  <si>
-    <t>CLASIFICACION</t>
-  </si>
-  <si>
-    <t>PAREJA</t>
-  </si>
-  <si>
-    <t>PUNTOS</t>
-  </si>
-  <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>JG</t>
-  </si>
-  <si>
-    <t>JP</t>
-  </si>
-  <si>
-    <t>mediocre alto</t>
-  </si>
-  <si>
-    <t>Los luises</t>
-  </si>
-  <si>
-    <t>Fla-Delicatessen</t>
-  </si>
-  <si>
-    <t>Andrés-Alberto</t>
-  </si>
-  <si>
-    <t>Nuño-Jorge</t>
-  </si>
-  <si>
-    <t>Ceci-Ángel</t>
-  </si>
-  <si>
-    <t>mediocre bajo</t>
-  </si>
-  <si>
-    <t>Miguel Ángel-Juanjo</t>
-  </si>
-  <si>
-    <t>Tania-Laura</t>
-  </si>
-  <si>
-    <t>Natalia-Jose Antonio</t>
-  </si>
-  <si>
-    <t>Alberto-Andrés</t>
-  </si>
-  <si>
-    <t>Cristina-Carmen</t>
-  </si>
-  <si>
-    <t>Luis-Raquel</t>
-  </si>
-  <si>
-    <t>Mario-Lourdes</t>
-  </si>
-  <si>
-    <t>mediocre medio</t>
-  </si>
-  <si>
-    <t>Salvador-Marta</t>
-  </si>
-  <si>
-    <t>Alba-Luis</t>
-  </si>
-  <si>
-    <t>Alberto-Esperanza</t>
-  </si>
-  <si>
     <t>Teresa-Leticia</t>
   </si>
   <si>
@@ -632,7 +629,10 @@
     <t>Empata</t>
   </si>
   <si>
-    <t>Juanjo-Miguel Ángel</t>
+    <t>4-6,3-6</t>
+  </si>
+  <si>
+    <t>6-4,6-3</t>
   </si>
   <si>
     <t xml:space="preserve">GRUPO</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">mediocre bajo</t>
   </si>
   <si>
-    <t xml:space="preserve">Miguel Ángel-Juanjo</t>
+    <t xml:space="preserve">Los sin barba</t>
   </si>
   <si>
     <t xml:space="preserve">Tania-Laura</t>
@@ -729,9 +729,6 @@
   </si>
   <si>
     <t xml:space="preserve">Teresa-Leticia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los sin barba</t>
   </si>
   <si>
     <t xml:space="preserve">P. JUGADOS</t>
@@ -1151,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="true" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -1336,7 +1333,7 @@
         <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
         <v>112</v>
@@ -1554,7 +1551,7 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -1574,7 +1571,7 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
         <v>93</v>
@@ -1694,7 +1691,7 @@
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
         <v>90</v>
@@ -1774,7 +1771,7 @@
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
@@ -1934,7 +1931,7 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -1977,13 +1974,13 @@
         <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E41" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="F41" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +2101,7 @@
     </row>
     <row r="12">
       <c r="C12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
@@ -2152,8 +2149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -2677,6 +2674,34 @@
       </c>
       <c r="D37" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="n">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="n">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3399,7 +3424,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -3457,27 +3482,27 @@
         <v>208</v>
       </c>
       <c r="E1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" t="s">
         <v>238</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>239</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>240</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>241</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>242</v>
-      </c>
-      <c r="J1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -3509,7 +3534,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -3541,7 +3566,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -3573,7 +3598,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -3605,7 +3630,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -3637,7 +3662,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -3669,7 +3694,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -3701,7 +3726,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -3733,7 +3758,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -3765,7 +3790,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -3797,13 +3822,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3829,7 +3854,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -3861,7 +3886,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
@@ -3893,7 +3918,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B15" t="n">
         <v>3</v>
@@ -3925,7 +3950,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
@@ -3957,7 +3982,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B17" t="n">
         <v>5</v>
@@ -3989,7 +4014,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
@@ -4021,7 +4046,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B19" t="n">
         <v>7</v>
@@ -4067,19 +4092,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s">
         <v>205</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D1" t="s">
         <v>207</v>
       </c>
       <c r="E1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F1" t="s">
         <v>213</v>
@@ -4091,10 +4116,10 @@
         <v>208</v>
       </c>
       <c r="I1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" t="s">
         <v>250</v>
-      </c>
-      <c r="J1" t="s">
-        <v>251</v>
       </c>
       <c r="K1" t="s">
         <v>210</v>
@@ -4114,13 +4139,13 @@
         <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D2" t="s">
         <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -4155,13 +4180,13 @@
         <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D3" t="s">
         <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -4196,13 +4221,13 @@
         <v>223</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D4" t="s">
         <v>225</v>
       </c>
       <c r="E4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -4237,13 +4262,13 @@
         <v>223</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
         <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -4278,13 +4303,13 @@
         <v>223</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D6" t="s">
         <v>225</v>
       </c>
       <c r="E6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -4319,13 +4344,13 @@
         <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D7" t="s">
         <v>228</v>
       </c>
       <c r="E7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -4360,13 +4385,13 @@
         <v>231</v>
       </c>
       <c r="C8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D8" t="s">
         <v>236</v>
       </c>
       <c r="E8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -4401,13 +4426,13 @@
         <v>231</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D9" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -4442,13 +4467,13 @@
         <v>217</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D10" t="s">
         <v>219</v>
       </c>
       <c r="E10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -4483,13 +4508,13 @@
         <v>217</v>
       </c>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D11" t="s">
         <v>222</v>
       </c>
       <c r="E11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -4524,13 +4549,13 @@
         <v>217</v>
       </c>
       <c r="C12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D12" t="s">
         <v>220</v>
       </c>
       <c r="E12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -4565,13 +4590,13 @@
         <v>217</v>
       </c>
       <c r="C13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D13" t="s">
         <v>218</v>
       </c>
       <c r="E13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -4606,13 +4631,13 @@
         <v>231</v>
       </c>
       <c r="C14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D14" t="s">
         <v>232</v>
       </c>
       <c r="E14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
@@ -4647,13 +4672,13 @@
         <v>231</v>
       </c>
       <c r="C15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D15" t="s">
         <v>234</v>
       </c>
       <c r="E15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -4688,13 +4713,13 @@
         <v>223</v>
       </c>
       <c r="C16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D16" t="s">
         <v>227</v>
       </c>
       <c r="E16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
@@ -4729,13 +4754,13 @@
         <v>223</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D17" t="s">
         <v>224</v>
       </c>
       <c r="E17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -4770,13 +4795,13 @@
         <v>223</v>
       </c>
       <c r="C18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D18" t="s">
         <v>228</v>
       </c>
       <c r="E18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
@@ -4811,13 +4836,13 @@
         <v>223</v>
       </c>
       <c r="C19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D19" t="s">
         <v>230</v>
       </c>
       <c r="E19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -4852,13 +4877,13 @@
         <v>223</v>
       </c>
       <c r="C20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D20" t="s">
         <v>226</v>
       </c>
       <c r="E20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
@@ -4893,13 +4918,13 @@
         <v>223</v>
       </c>
       <c r="C21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D21" t="s">
         <v>229</v>
       </c>
       <c r="E21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -4934,13 +4959,13 @@
         <v>231</v>
       </c>
       <c r="C22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D22" t="s">
         <v>232</v>
       </c>
       <c r="E22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
@@ -4975,13 +5000,13 @@
         <v>231</v>
       </c>
       <c r="C23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D23" t="s">
         <v>233</v>
       </c>
       <c r="E23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -5016,13 +5041,13 @@
         <v>217</v>
       </c>
       <c r="C24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D24" t="s">
         <v>220</v>
       </c>
       <c r="E24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
@@ -5057,13 +5082,13 @@
         <v>217</v>
       </c>
       <c r="C25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D25" t="s">
         <v>222</v>
       </c>
       <c r="E25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -5098,13 +5123,13 @@
         <v>223</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D26" t="s">
         <v>225</v>
       </c>
       <c r="E26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
@@ -5139,13 +5164,13 @@
         <v>223</v>
       </c>
       <c r="C27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D27" t="s">
         <v>229</v>
       </c>
       <c r="E27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -5180,13 +5205,13 @@
         <v>223</v>
       </c>
       <c r="C28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D28" t="s">
         <v>225</v>
       </c>
       <c r="E28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
@@ -5221,13 +5246,13 @@
         <v>223</v>
       </c>
       <c r="C29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D29" t="s">
         <v>227</v>
       </c>
       <c r="E29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -5262,13 +5287,13 @@
         <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D30" t="s">
         <v>218</v>
       </c>
       <c r="E30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F30" t="n">
         <v>2</v>
@@ -5303,13 +5328,13 @@
         <v>217</v>
       </c>
       <c r="C31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D31" t="s">
         <v>219</v>
       </c>
       <c r="E31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -5344,13 +5369,13 @@
         <v>217</v>
       </c>
       <c r="C32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D32" t="s">
         <v>221</v>
       </c>
       <c r="E32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F32" t="n">
         <v>2</v>
@@ -5385,13 +5410,13 @@
         <v>217</v>
       </c>
       <c r="C33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D33" t="s">
         <v>220</v>
       </c>
       <c r="E33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -5426,13 +5451,13 @@
         <v>231</v>
       </c>
       <c r="C34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D34" t="s">
         <v>234</v>
       </c>
       <c r="E34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F34" t="n">
         <v>2</v>
@@ -5467,13 +5492,13 @@
         <v>231</v>
       </c>
       <c r="C35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D35" t="s">
         <v>236</v>
       </c>
       <c r="E35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -5508,13 +5533,13 @@
         <v>223</v>
       </c>
       <c r="C36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D36" t="s">
         <v>226</v>
       </c>
       <c r="E36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F36" t="n">
         <v>2</v>
@@ -5549,13 +5574,13 @@
         <v>223</v>
       </c>
       <c r="C37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D37" t="s">
         <v>227</v>
       </c>
       <c r="E37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -5590,13 +5615,13 @@
         <v>223</v>
       </c>
       <c r="C38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D38" t="s">
         <v>224</v>
       </c>
       <c r="E38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F38" t="n">
         <v>2</v>
@@ -5631,13 +5656,13 @@
         <v>223</v>
       </c>
       <c r="C39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D39" t="s">
         <v>228</v>
       </c>
       <c r="E39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -5672,13 +5697,13 @@
         <v>223</v>
       </c>
       <c r="C40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D40" t="s">
         <v>224</v>
       </c>
       <c r="E40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F40" t="n">
         <v>2</v>
@@ -5713,13 +5738,13 @@
         <v>223</v>
       </c>
       <c r="C41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D41" t="s">
         <v>229</v>
       </c>
       <c r="E41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -5754,13 +5779,13 @@
         <v>217</v>
       </c>
       <c r="C42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D42" t="s">
         <v>218</v>
       </c>
       <c r="E42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
@@ -5795,13 +5820,13 @@
         <v>217</v>
       </c>
       <c r="C43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D43" t="s">
         <v>222</v>
       </c>
       <c r="E43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -5836,13 +5861,13 @@
         <v>231</v>
       </c>
       <c r="C44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D44" t="s">
         <v>233</v>
       </c>
       <c r="E44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F44" t="n">
         <v>2</v>
@@ -5877,13 +5902,13 @@
         <v>231</v>
       </c>
       <c r="C45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D45" t="s">
         <v>234</v>
       </c>
       <c r="E45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -5918,13 +5943,13 @@
         <v>231</v>
       </c>
       <c r="C46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D46" t="s">
         <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -5959,13 +5984,13 @@
         <v>231</v>
       </c>
       <c r="C47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D47" t="s">
         <v>232</v>
       </c>
       <c r="E47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F47" t="n">
         <v>2</v>
@@ -6000,13 +6025,13 @@
         <v>217</v>
       </c>
       <c r="C48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D48" t="s">
         <v>219</v>
       </c>
       <c r="E48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F48" t="n">
         <v>2</v>
@@ -6041,13 +6066,13 @@
         <v>217</v>
       </c>
       <c r="C49" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D49" t="s">
         <v>220</v>
       </c>
       <c r="E49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -6082,13 +6107,13 @@
         <v>223</v>
       </c>
       <c r="C50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D50" t="s">
         <v>229</v>
       </c>
       <c r="E50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
@@ -6123,13 +6148,13 @@
         <v>223</v>
       </c>
       <c r="C51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D51" t="s">
         <v>228</v>
       </c>
       <c r="E51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
@@ -6164,13 +6189,13 @@
         <v>223</v>
       </c>
       <c r="C52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D52" t="s">
         <v>224</v>
       </c>
       <c r="E52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F52" t="n">
         <v>2</v>
@@ -6205,13 +6230,13 @@
         <v>223</v>
       </c>
       <c r="C53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D53" t="s">
         <v>230</v>
       </c>
       <c r="E53" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -6246,13 +6271,13 @@
         <v>231</v>
       </c>
       <c r="C54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D54" t="s">
         <v>233</v>
       </c>
       <c r="E54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F54" t="n">
         <v>2</v>
@@ -6287,13 +6312,13 @@
         <v>231</v>
       </c>
       <c r="C55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D55" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -6328,13 +6353,13 @@
         <v>223</v>
       </c>
       <c r="C56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D56" t="s">
         <v>226</v>
       </c>
       <c r="E56" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F56" t="n">
         <v>2</v>
@@ -6369,13 +6394,13 @@
         <v>223</v>
       </c>
       <c r="C57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D57" t="s">
         <v>230</v>
       </c>
       <c r="E57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -6410,13 +6435,13 @@
         <v>223</v>
       </c>
       <c r="C58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D58" t="s">
         <v>229</v>
       </c>
       <c r="E58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
@@ -6451,13 +6476,13 @@
         <v>223</v>
       </c>
       <c r="C59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D59" t="s">
         <v>230</v>
       </c>
       <c r="E59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
@@ -6492,13 +6517,13 @@
         <v>223</v>
       </c>
       <c r="C60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D60" t="s">
         <v>224</v>
       </c>
       <c r="E60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F60" t="n">
         <v>2</v>
@@ -6533,13 +6558,13 @@
         <v>223</v>
       </c>
       <c r="C61" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D61" t="s">
         <v>226</v>
       </c>
       <c r="E61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -6574,13 +6599,13 @@
         <v>231</v>
       </c>
       <c r="C62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D62" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -6615,13 +6640,13 @@
         <v>231</v>
       </c>
       <c r="C63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D63" t="s">
         <v>232</v>
       </c>
       <c r="E63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F63" t="n">
         <v>2</v>
@@ -6656,13 +6681,13 @@
         <v>231</v>
       </c>
       <c r="C64" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D64" t="s">
         <v>233</v>
       </c>
       <c r="E64" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F64" t="n">
         <v>2</v>
@@ -6697,13 +6722,13 @@
         <v>231</v>
       </c>
       <c r="C65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D65" t="s">
         <v>236</v>
       </c>
       <c r="E65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -6738,13 +6763,13 @@
         <v>223</v>
       </c>
       <c r="C66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D66" t="s">
         <v>227</v>
       </c>
       <c r="E66" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F66" t="n">
         <v>2</v>
@@ -6779,13 +6804,13 @@
         <v>223</v>
       </c>
       <c r="C67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D67" t="s">
         <v>228</v>
       </c>
       <c r="E67" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -6820,13 +6845,13 @@
         <v>231</v>
       </c>
       <c r="C68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D68" t="s">
         <v>234</v>
       </c>
       <c r="E68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F68" t="n">
         <v>2</v>
@@ -6861,13 +6886,13 @@
         <v>231</v>
       </c>
       <c r="C69" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D69" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E69" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -6902,13 +6927,13 @@
         <v>223</v>
       </c>
       <c r="C70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D70" t="s">
         <v>227</v>
       </c>
       <c r="E70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F70" t="n">
         <v>2</v>
@@ -6943,13 +6968,13 @@
         <v>223</v>
       </c>
       <c r="C71" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D71" t="s">
         <v>229</v>
       </c>
       <c r="E71" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -6984,13 +7009,13 @@
         <v>223</v>
       </c>
       <c r="C72" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D72" t="s">
         <v>226</v>
       </c>
       <c r="E72" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F72" t="n">
         <v>2</v>
@@ -7025,13 +7050,13 @@
         <v>223</v>
       </c>
       <c r="C73" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D73" t="s">
         <v>228</v>
       </c>
       <c r="E73" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -7066,13 +7091,13 @@
         <v>223</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D74" t="s">
         <v>227</v>
       </c>
       <c r="E74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F74" t="n">
         <v>2</v>
@@ -7107,13 +7132,13 @@
         <v>223</v>
       </c>
       <c r="C75" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D75" t="s">
         <v>230</v>
       </c>
       <c r="E75" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -7148,13 +7173,13 @@
         <v>223</v>
       </c>
       <c r="C76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D76" t="s">
         <v>224</v>
       </c>
       <c r="E76" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F76" t="n">
         <v>2</v>
@@ -7189,13 +7214,13 @@
         <v>223</v>
       </c>
       <c r="C77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D77" t="s">
         <v>225</v>
       </c>
       <c r="E77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -7230,13 +7255,13 @@
         <v>223</v>
       </c>
       <c r="C78" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D78" t="s">
         <v>225</v>
       </c>
       <c r="E78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F78" t="n">
         <v>2</v>
@@ -7271,13 +7296,13 @@
         <v>223</v>
       </c>
       <c r="C79" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D79" t="s">
         <v>230</v>
       </c>
       <c r="E79" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -7312,13 +7337,13 @@
         <v>231</v>
       </c>
       <c r="C80" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D80" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E80" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -7353,13 +7378,13 @@
         <v>231</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D81" t="s">
         <v>235</v>
       </c>
       <c r="E81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F81" t="n">
         <v>2</v>
